--- a/blank.xlsx
+++ b/blank.xlsx
@@ -5,18 +5,18 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TT_GIT\UtnyilvantartoJava\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\TT_GIT\Útnyilvántartó Projekt\UtnyilvantartoJava\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2FE15A-4444-420F-BB9F-A0E0967B47C9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67076C0C-E507-453A-AC58-A288AAD2E2DF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="453" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="453" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nyomtat" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Nyomtat!$A$9:$J$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Nyomtat!$A$9:$J$57</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -179,7 +179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -295,6 +295,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="hair">
         <color indexed="64"/>
@@ -441,7 +456,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -498,15 +513,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -521,15 +539,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -538,10 +556,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -954,51 +972,51 @@
   <sheetPr codeName="Munka4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M110"/>
+  <dimension ref="A1:M105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A88" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L106" sqref="L106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.6640625" style="22" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="26.44140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="7.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="12.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.33203125" style="31" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="9.109375" style="1" collapsed="1"/>
+    <col min="1" max="1" width="9.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="32" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="23"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="45"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -1008,22 +1026,22 @@
         <v>1</v>
       </c>
       <c r="G3" s="8"/>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J3" s="31"/>
+    </row>
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="30"/>
+      <c r="D4" s="31"/>
       <c r="F4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="8"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J4" s="31"/>
+    </row>
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>22</v>
       </c>
@@ -1032,41 +1050,53 @@
       <c r="F5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="J5" s="30"/>
-    </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G5" s="8">
+        <f>SUM(I10:I57)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="31"/>
+    </row>
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="6"/>
-      <c r="C6" s="8"/>
+      <c r="C6" s="8">
+        <f>C5+G5</f>
+        <v>0</v>
+      </c>
       <c r="F6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="32"/>
-    </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G6" s="9" t="e">
+        <f>100*G7/G5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="33"/>
+    </row>
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="F7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="32"/>
-    </row>
-    <row r="8" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G7" s="30">
+        <f>SUM(H10:H57)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="33"/>
+    </row>
+    <row r="8" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="47"/>
+      <c r="C8" s="48"/>
       <c r="D8" s="11" t="s">
         <v>7</v>
       </c>
@@ -1074,7 +1104,7 @@
       <c r="F8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="28" t="s">
         <v>9</v>
       </c>
       <c r="H8" s="12" t="s">
@@ -1087,7 +1117,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="14" t="s">
         <v>17</v>
@@ -1104,7 +1134,7 @@
       <c r="F9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="18" t="s">
@@ -1113,1445 +1143,1673 @@
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="19">
         <v>1</v>
       </c>
-      <c r="B10" s="24"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="21"/>
-      <c r="G10" s="25"/>
+      <c r="G10" s="26" t="str">
+        <f>IF(B10&lt;&gt;"",$C$5+I10,"")</f>
+        <v/>
+      </c>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="19"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="19">
         <v>2</v>
       </c>
-      <c r="B11" s="24"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
       <c r="F11" s="21"/>
-      <c r="G11" s="25"/>
+      <c r="G11" s="26" t="str">
+        <f>IF(B11&lt;&gt;"",G10+I11,"")</f>
+        <v/>
+      </c>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="19"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="19">
         <v>3</v>
       </c>
-      <c r="B12" s="24"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="21"/>
-      <c r="G12" s="25"/>
+      <c r="G12" s="26" t="str">
+        <f t="shared" ref="G12:G54" si="0">IF(B12&lt;&gt;"",G11+I12,"")</f>
+        <v/>
+      </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="19"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="19">
         <v>4</v>
       </c>
-      <c r="B13" s="24"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="21"/>
-      <c r="G13" s="25"/>
+      <c r="G13" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
       <c r="J13" s="19"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="43"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="44"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="19">
         <v>5</v>
       </c>
-      <c r="B14" s="24"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="21"/>
-      <c r="G14" s="25"/>
+      <c r="G14" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="19"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="19">
         <v>6</v>
       </c>
-      <c r="B15" s="24"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="21"/>
-      <c r="G15" s="25"/>
+      <c r="G15" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="19"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="19">
         <v>7</v>
       </c>
-      <c r="B16" s="24"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="21"/>
-      <c r="G16" s="25"/>
+      <c r="G16" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
       <c r="J16" s="19"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="19">
         <v>8</v>
       </c>
-      <c r="B17" s="24"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="21"/>
-      <c r="G17" s="25"/>
+      <c r="G17" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17" s="19"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="19">
         <v>9</v>
       </c>
-      <c r="B18" s="24"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="25"/>
+      <c r="G18" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="19"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="19">
         <v>10</v>
       </c>
-      <c r="B19" s="24"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
       <c r="F19" s="21"/>
-      <c r="G19" s="25"/>
+      <c r="G19" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="19"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="19">
-        <v>11</v>
-      </c>
-      <c r="B20" s="24"/>
+        <v>12</v>
+      </c>
+      <c r="B20" s="25"/>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
       <c r="F20" s="21"/>
-      <c r="G20" s="25"/>
+      <c r="G20" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="19"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="19">
-        <v>12</v>
-      </c>
-      <c r="B21" s="24"/>
+        <v>13</v>
+      </c>
+      <c r="B21" s="25"/>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
       <c r="F21" s="21"/>
-      <c r="G21" s="25"/>
+      <c r="G21" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="19"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="19">
-        <v>13</v>
-      </c>
-      <c r="B22" s="24"/>
+        <v>14</v>
+      </c>
+      <c r="B22" s="25"/>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
       <c r="F22" s="21"/>
-      <c r="G22" s="25"/>
+      <c r="G22" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22" s="19"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="19">
-        <v>14</v>
-      </c>
-      <c r="B23" s="24"/>
+        <v>15</v>
+      </c>
+      <c r="B23" s="25"/>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
       <c r="F23" s="21"/>
-      <c r="G23" s="25"/>
+      <c r="G23" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="19"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="19">
-        <v>15</v>
-      </c>
-      <c r="B24" s="24"/>
+        <v>16</v>
+      </c>
+      <c r="B24" s="25"/>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="F24" s="21"/>
-      <c r="G24" s="25"/>
+      <c r="G24" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="19"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="19">
-        <v>16</v>
-      </c>
-      <c r="B25" s="24"/>
+        <v>17</v>
+      </c>
+      <c r="B25" s="25"/>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
       <c r="F25" s="21"/>
-      <c r="G25" s="25"/>
+      <c r="G25" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="19"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="19">
-        <v>17</v>
-      </c>
-      <c r="B26" s="24"/>
+        <v>19</v>
+      </c>
+      <c r="B26" s="25"/>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
       <c r="F26" s="21"/>
-      <c r="G26" s="25"/>
+      <c r="G26" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="19"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="19">
-        <v>18</v>
-      </c>
-      <c r="B27" s="24"/>
+        <v>20</v>
+      </c>
+      <c r="B27" s="25"/>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
       <c r="F27" s="21"/>
-      <c r="G27" s="25"/>
+      <c r="G27" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="19"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="19">
-        <v>19</v>
-      </c>
-      <c r="B28" s="24"/>
+        <v>21</v>
+      </c>
+      <c r="B28" s="25"/>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="21"/>
-      <c r="G28" s="25"/>
+      <c r="G28" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="19"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="19">
-        <v>20</v>
-      </c>
-      <c r="B29" s="24"/>
+        <v>22</v>
+      </c>
+      <c r="B29" s="25"/>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
       <c r="F29" s="21"/>
-      <c r="G29" s="25"/>
+      <c r="G29" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
       <c r="J29" s="19"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="19">
-        <v>21</v>
-      </c>
-      <c r="B30" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="B30" s="25"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="25"/>
+      <c r="G30" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="19"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="19">
-        <v>22</v>
-      </c>
-      <c r="B31" s="24"/>
+        <v>24</v>
+      </c>
+      <c r="B31" s="25"/>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
       <c r="F31" s="21"/>
-      <c r="G31" s="25"/>
+      <c r="G31" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="19"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="19">
-        <v>23</v>
-      </c>
-      <c r="B32" s="24"/>
+        <v>25</v>
+      </c>
+      <c r="B32" s="25"/>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
       <c r="F32" s="21"/>
-      <c r="G32" s="25"/>
+      <c r="G32" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="19"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="19">
-        <v>24</v>
-      </c>
-      <c r="B33" s="24"/>
+        <v>26</v>
+      </c>
+      <c r="B33" s="25"/>
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
       <c r="E33" s="20"/>
       <c r="F33" s="21"/>
-      <c r="G33" s="25"/>
+      <c r="G33" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="19"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="19">
-        <v>25</v>
-      </c>
-      <c r="B34" s="24"/>
+        <v>29</v>
+      </c>
+      <c r="B34" s="25"/>
       <c r="C34" s="20"/>
       <c r="D34" s="20"/>
       <c r="E34" s="20"/>
       <c r="F34" s="21"/>
-      <c r="G34" s="25"/>
+      <c r="G34" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="19"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="19">
-        <v>26</v>
-      </c>
-      <c r="B35" s="24"/>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="24">
+        <v>30</v>
+      </c>
+      <c r="B35" s="25"/>
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
       <c r="E35" s="20"/>
       <c r="F35" s="21"/>
-      <c r="G35" s="25"/>
+      <c r="G35" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
       <c r="J35" s="19"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="19">
-        <v>27</v>
-      </c>
-      <c r="B36" s="24"/>
+        <v>31</v>
+      </c>
+      <c r="B36" s="25"/>
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
       <c r="E36" s="20"/>
       <c r="F36" s="21"/>
-      <c r="G36" s="25"/>
+      <c r="G36" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="19"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="19">
-        <v>28</v>
-      </c>
-      <c r="B37" s="24"/>
+        <v>32</v>
+      </c>
+      <c r="B37" s="25"/>
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
       <c r="E37" s="20"/>
       <c r="F37" s="21"/>
-      <c r="G37" s="25"/>
+      <c r="G37" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
       <c r="J37" s="19"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="19">
-        <v>29</v>
-      </c>
-      <c r="B38" s="24"/>
+        <v>33</v>
+      </c>
+      <c r="B38" s="25"/>
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
       <c r="E38" s="20"/>
       <c r="F38" s="21"/>
-      <c r="G38" s="25"/>
+      <c r="G38" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="19"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="19">
-        <v>30</v>
-      </c>
-      <c r="B39" s="24"/>
+        <v>34</v>
+      </c>
+      <c r="B39" s="25"/>
       <c r="C39" s="20"/>
       <c r="D39" s="20"/>
       <c r="E39" s="20"/>
       <c r="F39" s="21"/>
-      <c r="G39" s="25"/>
+      <c r="G39" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="19"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="19">
-        <v>31</v>
-      </c>
-      <c r="B40" s="24"/>
+        <v>35</v>
+      </c>
+      <c r="B40" s="25"/>
       <c r="C40" s="20"/>
       <c r="D40" s="20"/>
       <c r="E40" s="20"/>
       <c r="F40" s="21"/>
-      <c r="G40" s="25"/>
+      <c r="G40" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
       <c r="J40" s="19"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="19">
-        <v>32</v>
-      </c>
-      <c r="B41" s="24"/>
+        <v>36</v>
+      </c>
+      <c r="B41" s="25"/>
       <c r="C41" s="20"/>
       <c r="D41" s="20"/>
       <c r="E41" s="20"/>
       <c r="F41" s="21"/>
-      <c r="G41" s="25"/>
+      <c r="G41" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
       <c r="J41" s="19"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="19">
-        <v>33</v>
-      </c>
-      <c r="B42" s="24"/>
+        <v>37</v>
+      </c>
+      <c r="B42" s="25"/>
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
       <c r="E42" s="20"/>
       <c r="F42" s="21"/>
-      <c r="G42" s="25"/>
+      <c r="G42" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="19"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="19">
-        <v>34</v>
-      </c>
-      <c r="B43" s="24"/>
+        <v>38</v>
+      </c>
+      <c r="B43" s="25"/>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
       <c r="E43" s="20"/>
       <c r="F43" s="21"/>
-      <c r="G43" s="25"/>
+      <c r="G43" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
       <c r="J43" s="19"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="19">
-        <v>35</v>
-      </c>
-      <c r="B44" s="24"/>
+        <v>39</v>
+      </c>
+      <c r="B44" s="25"/>
       <c r="C44" s="20"/>
       <c r="D44" s="20"/>
       <c r="E44" s="20"/>
       <c r="F44" s="21"/>
-      <c r="G44" s="25"/>
+      <c r="G44" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
       <c r="J44" s="19"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="19">
-        <v>36</v>
-      </c>
-      <c r="B45" s="24"/>
+        <v>40</v>
+      </c>
+      <c r="B45" s="25"/>
       <c r="C45" s="20"/>
       <c r="D45" s="20"/>
       <c r="E45" s="20"/>
       <c r="F45" s="21"/>
-      <c r="G45" s="25"/>
+      <c r="G45" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
       <c r="J45" s="19"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="19">
-        <v>37</v>
-      </c>
-      <c r="B46" s="24"/>
+        <v>41</v>
+      </c>
+      <c r="B46" s="25"/>
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
       <c r="E46" s="20"/>
       <c r="F46" s="21"/>
-      <c r="G46" s="25"/>
+      <c r="G46" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
       <c r="J46" s="19"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="19">
-        <v>38</v>
-      </c>
-      <c r="B47" s="24"/>
+        <v>42</v>
+      </c>
+      <c r="B47" s="25"/>
       <c r="C47" s="20"/>
       <c r="D47" s="20"/>
       <c r="E47" s="20"/>
       <c r="F47" s="21"/>
-      <c r="G47" s="25"/>
+      <c r="G47" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H47" s="21"/>
       <c r="I47" s="21"/>
       <c r="J47" s="19"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="19">
-        <v>39</v>
-      </c>
-      <c r="B48" s="24"/>
+        <v>43</v>
+      </c>
+      <c r="B48" s="25"/>
       <c r="C48" s="20"/>
       <c r="D48" s="20"/>
       <c r="E48" s="20"/>
       <c r="F48" s="21"/>
-      <c r="G48" s="25"/>
+      <c r="G48" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H48" s="21"/>
       <c r="I48" s="21"/>
       <c r="J48" s="19"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="19">
-        <v>40</v>
-      </c>
-      <c r="B49" s="24"/>
+        <v>44</v>
+      </c>
+      <c r="B49" s="25"/>
       <c r="C49" s="20"/>
       <c r="D49" s="20"/>
       <c r="E49" s="20"/>
       <c r="F49" s="21"/>
-      <c r="G49" s="25"/>
+      <c r="G49" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H49" s="21"/>
       <c r="I49" s="21"/>
       <c r="J49" s="19"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="19">
-        <v>41</v>
-      </c>
-      <c r="B50" s="24"/>
+        <v>45</v>
+      </c>
+      <c r="B50" s="25"/>
       <c r="C50" s="20"/>
       <c r="D50" s="20"/>
       <c r="E50" s="20"/>
       <c r="F50" s="21"/>
-      <c r="G50" s="25"/>
+      <c r="G50" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
       <c r="J50" s="19"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="19">
-        <v>42</v>
-      </c>
-      <c r="B51" s="24"/>
+        <v>46</v>
+      </c>
+      <c r="B51" s="25"/>
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
       <c r="E51" s="20"/>
       <c r="F51" s="21"/>
-      <c r="G51" s="25"/>
+      <c r="G51" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
       <c r="J51" s="19"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="19">
-        <v>43</v>
-      </c>
-      <c r="B52" s="24"/>
+        <v>47</v>
+      </c>
+      <c r="B52" s="25"/>
       <c r="C52" s="20"/>
       <c r="D52" s="20"/>
       <c r="E52" s="20"/>
       <c r="F52" s="21"/>
-      <c r="G52" s="25"/>
+      <c r="G52" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H52" s="21"/>
       <c r="I52" s="21"/>
       <c r="J52" s="19"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="19">
-        <v>44</v>
-      </c>
-      <c r="B53" s="24"/>
+        <v>48</v>
+      </c>
+      <c r="B53" s="25"/>
       <c r="C53" s="20"/>
       <c r="D53" s="20"/>
       <c r="E53" s="20"/>
       <c r="F53" s="21"/>
-      <c r="G53" s="25"/>
+      <c r="G53" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H53" s="21"/>
       <c r="I53" s="21"/>
       <c r="J53" s="19"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="19">
-        <v>45</v>
-      </c>
-      <c r="B54" s="24"/>
+        <v>49</v>
+      </c>
+      <c r="B54" s="25"/>
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
       <c r="E54" s="20"/>
       <c r="F54" s="21"/>
-      <c r="G54" s="25"/>
+      <c r="G54" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H54" s="21"/>
       <c r="I54" s="21"/>
       <c r="J54" s="19"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="19">
-        <v>46</v>
-      </c>
-      <c r="B55" s="24"/>
+        <v>50</v>
+      </c>
+      <c r="B55" s="25"/>
       <c r="C55" s="20"/>
       <c r="D55" s="20"/>
       <c r="E55" s="20"/>
       <c r="F55" s="21"/>
-      <c r="G55" s="25"/>
+      <c r="G55" s="26" t="str">
+        <f t="shared" ref="G55:G65" si="1">IF(B55&lt;&gt;"",G54+I55,"")</f>
+        <v/>
+      </c>
       <c r="H55" s="21"/>
       <c r="I55" s="21"/>
       <c r="J55" s="19"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="19">
-        <v>47</v>
-      </c>
-      <c r="B56" s="24"/>
+        <v>51</v>
+      </c>
+      <c r="B56" s="25"/>
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
       <c r="E56" s="20"/>
       <c r="F56" s="21"/>
-      <c r="G56" s="25"/>
+      <c r="G56" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="H56" s="21"/>
       <c r="I56" s="21"/>
       <c r="J56" s="19"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="19">
-        <v>48</v>
-      </c>
-      <c r="B57" s="24"/>
+        <v>52</v>
+      </c>
+      <c r="B57" s="25"/>
       <c r="C57" s="20"/>
       <c r="D57" s="20"/>
       <c r="E57" s="20"/>
       <c r="F57" s="21"/>
-      <c r="G57" s="25"/>
+      <c r="G57" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="H57" s="21"/>
       <c r="I57" s="21"/>
       <c r="J57" s="19"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="19">
-        <v>49</v>
-      </c>
-      <c r="B58" s="24"/>
+        <v>53</v>
+      </c>
+      <c r="B58" s="25"/>
       <c r="C58" s="20"/>
       <c r="D58" s="20"/>
       <c r="E58" s="20"/>
       <c r="F58" s="21"/>
-      <c r="G58" s="25"/>
+      <c r="G58" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="H58" s="21"/>
       <c r="I58" s="21"/>
       <c r="J58" s="19"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="19">
-        <v>50</v>
-      </c>
-      <c r="B59" s="24"/>
+        <v>54</v>
+      </c>
+      <c r="B59" s="25"/>
       <c r="C59" s="20"/>
       <c r="D59" s="20"/>
       <c r="E59" s="20"/>
       <c r="F59" s="21"/>
-      <c r="G59" s="25"/>
+      <c r="G59" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="H59" s="21"/>
       <c r="I59" s="21"/>
       <c r="J59" s="19"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="19">
-        <v>51</v>
-      </c>
-      <c r="B60" s="24"/>
+        <v>55</v>
+      </c>
+      <c r="B60" s="25"/>
       <c r="C60" s="20"/>
       <c r="D60" s="20"/>
       <c r="E60" s="20"/>
       <c r="F60" s="21"/>
-      <c r="G60" s="25"/>
+      <c r="G60" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="H60" s="21"/>
       <c r="I60" s="21"/>
       <c r="J60" s="19"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="19">
-        <v>52</v>
-      </c>
-      <c r="B61" s="24"/>
+        <v>56</v>
+      </c>
+      <c r="B61" s="25"/>
       <c r="C61" s="20"/>
       <c r="D61" s="20"/>
       <c r="E61" s="20"/>
       <c r="F61" s="21"/>
-      <c r="G61" s="25"/>
+      <c r="G61" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="H61" s="21"/>
       <c r="I61" s="21"/>
       <c r="J61" s="19"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="19">
-        <v>53</v>
-      </c>
-      <c r="B62" s="24"/>
+        <v>57</v>
+      </c>
+      <c r="B62" s="25"/>
       <c r="C62" s="20"/>
       <c r="D62" s="20"/>
       <c r="E62" s="20"/>
       <c r="F62" s="21"/>
-      <c r="G62" s="25"/>
+      <c r="G62" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="H62" s="21"/>
       <c r="I62" s="21"/>
       <c r="J62" s="19"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="19">
-        <v>54</v>
-      </c>
-      <c r="B63" s="24"/>
+        <v>58</v>
+      </c>
+      <c r="B63" s="25"/>
       <c r="C63" s="20"/>
       <c r="D63" s="20"/>
       <c r="E63" s="20"/>
       <c r="F63" s="21"/>
-      <c r="G63" s="25"/>
+      <c r="G63" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="H63" s="21"/>
       <c r="I63" s="21"/>
       <c r="J63" s="19"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="19">
-        <v>55</v>
-      </c>
-      <c r="B64" s="24"/>
+        <v>59</v>
+      </c>
+      <c r="B64" s="25"/>
       <c r="C64" s="20"/>
       <c r="D64" s="20"/>
       <c r="E64" s="20"/>
       <c r="F64" s="21"/>
-      <c r="G64" s="25"/>
+      <c r="G64" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="H64" s="21"/>
       <c r="I64" s="21"/>
       <c r="J64" s="19"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="19">
-        <v>56</v>
-      </c>
-      <c r="B65" s="24"/>
+        <v>60</v>
+      </c>
+      <c r="B65" s="25"/>
       <c r="C65" s="20"/>
       <c r="D65" s="20"/>
       <c r="E65" s="20"/>
       <c r="F65" s="21"/>
-      <c r="G65" s="25"/>
+      <c r="G65" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="H65" s="21"/>
       <c r="I65" s="21"/>
       <c r="J65" s="19"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="19">
-        <v>57</v>
-      </c>
-      <c r="B66" s="24"/>
+        <v>61</v>
+      </c>
+      <c r="B66" s="25"/>
       <c r="C66" s="20"/>
       <c r="D66" s="20"/>
       <c r="E66" s="20"/>
       <c r="F66" s="21"/>
-      <c r="G66" s="25"/>
+      <c r="G66" s="26" t="str">
+        <f t="shared" ref="G66:G105" si="2">IF(B66&lt;&gt;"",G65+I66,"")</f>
+        <v/>
+      </c>
       <c r="H66" s="21"/>
       <c r="I66" s="21"/>
       <c r="J66" s="19"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="19">
-        <v>58</v>
-      </c>
-      <c r="B67" s="24"/>
+        <v>62</v>
+      </c>
+      <c r="B67" s="25"/>
       <c r="C67" s="20"/>
       <c r="D67" s="20"/>
       <c r="E67" s="20"/>
       <c r="F67" s="21"/>
-      <c r="G67" s="25"/>
+      <c r="G67" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="H67" s="21"/>
       <c r="I67" s="21"/>
       <c r="J67" s="19"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="19">
-        <v>59</v>
-      </c>
-      <c r="B68" s="24"/>
+        <v>63</v>
+      </c>
+      <c r="B68" s="25"/>
       <c r="C68" s="20"/>
       <c r="D68" s="20"/>
       <c r="E68" s="20"/>
       <c r="F68" s="21"/>
-      <c r="G68" s="25"/>
+      <c r="G68" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="H68" s="21"/>
       <c r="I68" s="21"/>
       <c r="J68" s="19"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="19">
-        <v>60</v>
-      </c>
-      <c r="B69" s="24"/>
+        <v>64</v>
+      </c>
+      <c r="B69" s="25"/>
       <c r="C69" s="20"/>
       <c r="D69" s="20"/>
       <c r="E69" s="20"/>
       <c r="F69" s="21"/>
-      <c r="G69" s="25"/>
+      <c r="G69" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="H69" s="21"/>
       <c r="I69" s="21"/>
       <c r="J69" s="19"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="19">
-        <v>61</v>
-      </c>
-      <c r="B70" s="24"/>
+        <v>65</v>
+      </c>
+      <c r="B70" s="25"/>
       <c r="C70" s="20"/>
       <c r="D70" s="20"/>
       <c r="E70" s="20"/>
       <c r="F70" s="21"/>
-      <c r="G70" s="25"/>
+      <c r="G70" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="H70" s="21"/>
       <c r="I70" s="21"/>
       <c r="J70" s="19"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="19">
-        <v>62</v>
-      </c>
-      <c r="B71" s="24"/>
+        <v>66</v>
+      </c>
+      <c r="B71" s="25"/>
       <c r="C71" s="20"/>
       <c r="D71" s="20"/>
       <c r="E71" s="20"/>
       <c r="F71" s="21"/>
-      <c r="G71" s="25"/>
+      <c r="G71" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="H71" s="21"/>
       <c r="I71" s="21"/>
       <c r="J71" s="19"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="19">
-        <v>63</v>
-      </c>
-      <c r="B72" s="24"/>
+        <v>67</v>
+      </c>
+      <c r="B72" s="25"/>
       <c r="C72" s="20"/>
       <c r="D72" s="20"/>
       <c r="E72" s="20"/>
       <c r="F72" s="21"/>
-      <c r="G72" s="25"/>
+      <c r="G72" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="H72" s="21"/>
       <c r="I72" s="21"/>
       <c r="J72" s="19"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="19">
-        <v>64</v>
-      </c>
-      <c r="B73" s="24"/>
+        <v>68</v>
+      </c>
+      <c r="B73" s="25"/>
       <c r="C73" s="20"/>
       <c r="D73" s="20"/>
       <c r="E73" s="20"/>
       <c r="F73" s="21"/>
-      <c r="G73" s="25"/>
+      <c r="G73" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="H73" s="21"/>
       <c r="I73" s="21"/>
       <c r="J73" s="19"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="19">
-        <v>65</v>
-      </c>
-      <c r="B74" s="24"/>
+        <v>69</v>
+      </c>
+      <c r="B74" s="25"/>
       <c r="C74" s="20"/>
       <c r="D74" s="20"/>
       <c r="E74" s="20"/>
       <c r="F74" s="21"/>
-      <c r="G74" s="25"/>
+      <c r="G74" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="H74" s="21"/>
       <c r="I74" s="21"/>
       <c r="J74" s="19"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="19">
-        <v>66</v>
-      </c>
-      <c r="B75" s="24"/>
+        <v>70</v>
+      </c>
+      <c r="B75" s="25"/>
       <c r="C75" s="20"/>
       <c r="D75" s="20"/>
       <c r="E75" s="20"/>
       <c r="F75" s="21"/>
-      <c r="G75" s="25"/>
+      <c r="G75" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="H75" s="21"/>
       <c r="I75" s="21"/>
       <c r="J75" s="19"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="19">
-        <v>67</v>
-      </c>
-      <c r="B76" s="24"/>
+        <v>71</v>
+      </c>
+      <c r="B76" s="25"/>
       <c r="C76" s="20"/>
       <c r="D76" s="20"/>
       <c r="E76" s="20"/>
       <c r="F76" s="21"/>
-      <c r="G76" s="25"/>
+      <c r="G76" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="H76" s="21"/>
       <c r="I76" s="21"/>
       <c r="J76" s="19"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="19">
-        <v>68</v>
-      </c>
-      <c r="B77" s="24"/>
+        <v>72</v>
+      </c>
+      <c r="B77" s="25"/>
       <c r="C77" s="20"/>
       <c r="D77" s="20"/>
       <c r="E77" s="20"/>
       <c r="F77" s="21"/>
-      <c r="G77" s="25"/>
+      <c r="G77" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="H77" s="21"/>
       <c r="I77" s="21"/>
       <c r="J77" s="19"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="19">
-        <v>69</v>
-      </c>
-      <c r="B78" s="24"/>
+        <v>73</v>
+      </c>
+      <c r="B78" s="25"/>
       <c r="C78" s="20"/>
       <c r="D78" s="20"/>
       <c r="E78" s="20"/>
       <c r="F78" s="21"/>
-      <c r="G78" s="25"/>
+      <c r="G78" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
       <c r="J78" s="19"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="19">
-        <v>70</v>
-      </c>
-      <c r="B79" s="24"/>
+        <v>74</v>
+      </c>
+      <c r="B79" s="25"/>
       <c r="C79" s="20"/>
       <c r="D79" s="20"/>
       <c r="E79" s="20"/>
       <c r="F79" s="21"/>
-      <c r="G79" s="25"/>
+      <c r="G79" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="H79" s="21"/>
       <c r="I79" s="21"/>
       <c r="J79" s="19"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="19">
-        <v>71</v>
-      </c>
-      <c r="B80" s="24"/>
+        <v>75</v>
+      </c>
+      <c r="B80" s="25"/>
       <c r="C80" s="20"/>
       <c r="D80" s="20"/>
       <c r="E80" s="20"/>
       <c r="F80" s="21"/>
-      <c r="G80" s="25"/>
+      <c r="G80" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="H80" s="21"/>
       <c r="I80" s="21"/>
       <c r="J80" s="19"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="19">
-        <v>72</v>
-      </c>
-      <c r="B81" s="24"/>
+        <v>76</v>
+      </c>
+      <c r="B81" s="25"/>
       <c r="C81" s="20"/>
       <c r="D81" s="20"/>
       <c r="E81" s="20"/>
       <c r="F81" s="21"/>
-      <c r="G81" s="25"/>
+      <c r="G81" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="H81" s="21"/>
       <c r="I81" s="21"/>
       <c r="J81" s="19"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="19">
-        <v>73</v>
-      </c>
-      <c r="B82" s="24"/>
+        <v>77</v>
+      </c>
+      <c r="B82" s="25"/>
       <c r="C82" s="20"/>
       <c r="D82" s="20"/>
       <c r="E82" s="20"/>
       <c r="F82" s="21"/>
-      <c r="G82" s="25"/>
+      <c r="G82" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="H82" s="21"/>
       <c r="I82" s="21"/>
       <c r="J82" s="19"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="19">
-        <v>74</v>
-      </c>
-      <c r="B83" s="24"/>
+        <v>78</v>
+      </c>
+      <c r="B83" s="25"/>
       <c r="C83" s="20"/>
       <c r="D83" s="20"/>
       <c r="E83" s="20"/>
       <c r="F83" s="21"/>
-      <c r="G83" s="25"/>
+      <c r="G83" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="H83" s="21"/>
       <c r="I83" s="21"/>
       <c r="J83" s="19"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="19">
-        <v>75</v>
-      </c>
-      <c r="B84" s="24"/>
+        <v>79</v>
+      </c>
+      <c r="B84" s="25"/>
       <c r="C84" s="20"/>
       <c r="D84" s="20"/>
       <c r="E84" s="20"/>
       <c r="F84" s="21"/>
-      <c r="G84" s="25"/>
+      <c r="G84" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="H84" s="21"/>
       <c r="I84" s="21"/>
       <c r="J84" s="19"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="19">
-        <v>76</v>
-      </c>
-      <c r="B85" s="24"/>
+        <v>80</v>
+      </c>
+      <c r="B85" s="25"/>
       <c r="C85" s="20"/>
       <c r="D85" s="20"/>
       <c r="E85" s="20"/>
       <c r="F85" s="21"/>
-      <c r="G85" s="25"/>
+      <c r="G85" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="H85" s="21"/>
       <c r="I85" s="21"/>
       <c r="J85" s="19"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="19">
-        <v>77</v>
-      </c>
-      <c r="B86" s="24"/>
+        <v>81</v>
+      </c>
+      <c r="B86" s="25"/>
       <c r="C86" s="20"/>
       <c r="D86" s="20"/>
       <c r="E86" s="20"/>
       <c r="F86" s="21"/>
-      <c r="G86" s="25"/>
+      <c r="G86" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="H86" s="21"/>
       <c r="I86" s="21"/>
       <c r="J86" s="19"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="19">
-        <v>78</v>
-      </c>
-      <c r="B87" s="24"/>
+        <v>82</v>
+      </c>
+      <c r="B87" s="25"/>
       <c r="C87" s="20"/>
       <c r="D87" s="20"/>
       <c r="E87" s="20"/>
       <c r="F87" s="21"/>
-      <c r="G87" s="25"/>
+      <c r="G87" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="H87" s="21"/>
       <c r="I87" s="21"/>
       <c r="J87" s="19"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="19">
-        <v>79</v>
-      </c>
-      <c r="B88" s="24"/>
+        <v>83</v>
+      </c>
+      <c r="B88" s="25"/>
       <c r="C88" s="20"/>
       <c r="D88" s="20"/>
       <c r="E88" s="20"/>
       <c r="F88" s="21"/>
-      <c r="G88" s="25"/>
+      <c r="G88" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="H88" s="21"/>
       <c r="I88" s="21"/>
       <c r="J88" s="19"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="19">
-        <v>80</v>
-      </c>
-      <c r="B89" s="24"/>
+        <v>84</v>
+      </c>
+      <c r="B89" s="25"/>
       <c r="C89" s="20"/>
       <c r="D89" s="20"/>
       <c r="E89" s="20"/>
       <c r="F89" s="21"/>
-      <c r="G89" s="25"/>
+      <c r="G89" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="H89" s="21"/>
       <c r="I89" s="21"/>
       <c r="J89" s="19"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="19">
-        <v>81</v>
-      </c>
-      <c r="B90" s="24"/>
+        <v>85</v>
+      </c>
+      <c r="B90" s="25"/>
       <c r="C90" s="20"/>
       <c r="D90" s="20"/>
       <c r="E90" s="20"/>
       <c r="F90" s="21"/>
-      <c r="G90" s="25"/>
+      <c r="G90" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="H90" s="21"/>
       <c r="I90" s="21"/>
       <c r="J90" s="19"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="19">
-        <v>82</v>
-      </c>
-      <c r="B91" s="24"/>
+        <v>86</v>
+      </c>
+      <c r="B91" s="25"/>
       <c r="C91" s="20"/>
       <c r="D91" s="20"/>
       <c r="E91" s="20"/>
       <c r="F91" s="21"/>
-      <c r="G91" s="25"/>
+      <c r="G91" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="H91" s="21"/>
       <c r="I91" s="21"/>
       <c r="J91" s="19"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="19">
-        <v>83</v>
-      </c>
-      <c r="B92" s="24"/>
+        <v>87</v>
+      </c>
+      <c r="B92" s="25"/>
       <c r="C92" s="20"/>
       <c r="D92" s="20"/>
       <c r="E92" s="20"/>
       <c r="F92" s="21"/>
-      <c r="G92" s="25"/>
+      <c r="G92" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="H92" s="21"/>
       <c r="I92" s="21"/>
       <c r="J92" s="19"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="19">
-        <v>84</v>
-      </c>
-      <c r="B93" s="24"/>
+        <v>88</v>
+      </c>
+      <c r="B93" s="25"/>
       <c r="C93" s="20"/>
       <c r="D93" s="20"/>
       <c r="E93" s="20"/>
       <c r="F93" s="21"/>
-      <c r="G93" s="25"/>
+      <c r="G93" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="H93" s="21"/>
       <c r="I93" s="21"/>
       <c r="J93" s="19"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="19">
-        <v>85</v>
-      </c>
-      <c r="B94" s="24"/>
+        <v>89</v>
+      </c>
+      <c r="B94" s="25"/>
       <c r="C94" s="20"/>
       <c r="D94" s="20"/>
       <c r="E94" s="20"/>
       <c r="F94" s="21"/>
-      <c r="G94" s="25"/>
+      <c r="G94" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="H94" s="21"/>
       <c r="I94" s="21"/>
       <c r="J94" s="19"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="19">
-        <v>86</v>
-      </c>
-      <c r="B95" s="24"/>
+        <v>90</v>
+      </c>
+      <c r="B95" s="25"/>
       <c r="C95" s="20"/>
       <c r="D95" s="20"/>
       <c r="E95" s="20"/>
       <c r="F95" s="21"/>
-      <c r="G95" s="25"/>
+      <c r="G95" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="H95" s="21"/>
       <c r="I95" s="21"/>
       <c r="J95" s="19"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="19">
-        <v>87</v>
-      </c>
-      <c r="B96" s="24"/>
+        <v>91</v>
+      </c>
+      <c r="B96" s="25"/>
       <c r="C96" s="20"/>
       <c r="D96" s="20"/>
       <c r="E96" s="20"/>
       <c r="F96" s="21"/>
-      <c r="G96" s="25"/>
+      <c r="G96" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="H96" s="21"/>
       <c r="I96" s="21"/>
       <c r="J96" s="19"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="19">
-        <v>88</v>
-      </c>
-      <c r="B97" s="24"/>
+        <v>92</v>
+      </c>
+      <c r="B97" s="25"/>
       <c r="C97" s="20"/>
       <c r="D97" s="20"/>
       <c r="E97" s="20"/>
       <c r="F97" s="21"/>
-      <c r="G97" s="25"/>
+      <c r="G97" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="H97" s="21"/>
       <c r="I97" s="21"/>
       <c r="J97" s="19"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="19">
-        <v>89</v>
-      </c>
-      <c r="B98" s="24"/>
+        <v>93</v>
+      </c>
+      <c r="B98" s="25"/>
       <c r="C98" s="20"/>
       <c r="D98" s="20"/>
       <c r="E98" s="20"/>
       <c r="F98" s="21"/>
-      <c r="G98" s="25"/>
+      <c r="G98" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="H98" s="21"/>
       <c r="I98" s="21"/>
       <c r="J98" s="19"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" s="19">
-        <v>90</v>
-      </c>
-      <c r="B99" s="24"/>
+        <v>94</v>
+      </c>
+      <c r="B99" s="25"/>
       <c r="C99" s="20"/>
       <c r="D99" s="20"/>
       <c r="E99" s="20"/>
       <c r="F99" s="21"/>
-      <c r="G99" s="25"/>
+      <c r="G99" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="H99" s="21"/>
       <c r="I99" s="21"/>
       <c r="J99" s="19"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" s="19">
-        <v>91</v>
-      </c>
-      <c r="B100" s="24"/>
+        <v>95</v>
+      </c>
+      <c r="B100" s="25"/>
       <c r="C100" s="20"/>
       <c r="D100" s="20"/>
       <c r="E100" s="20"/>
       <c r="F100" s="21"/>
-      <c r="G100" s="25"/>
+      <c r="G100" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="H100" s="21"/>
       <c r="I100" s="21"/>
       <c r="J100" s="19"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="19">
-        <v>92</v>
-      </c>
-      <c r="B101" s="24"/>
+        <v>96</v>
+      </c>
+      <c r="B101" s="25"/>
       <c r="C101" s="20"/>
       <c r="D101" s="20"/>
       <c r="E101" s="20"/>
       <c r="F101" s="21"/>
-      <c r="G101" s="25"/>
+      <c r="G101" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="H101" s="21"/>
       <c r="I101" s="21"/>
       <c r="J101" s="19"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="19">
-        <v>93</v>
-      </c>
-      <c r="B102" s="24"/>
+        <v>97</v>
+      </c>
+      <c r="B102" s="25"/>
       <c r="C102" s="20"/>
       <c r="D102" s="20"/>
       <c r="E102" s="20"/>
       <c r="F102" s="21"/>
-      <c r="G102" s="25"/>
+      <c r="G102" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="H102" s="21"/>
       <c r="I102" s="21"/>
       <c r="J102" s="19"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" s="19">
-        <v>94</v>
-      </c>
-      <c r="B103" s="24"/>
+        <v>98</v>
+      </c>
+      <c r="B103" s="25"/>
       <c r="C103" s="20"/>
       <c r="D103" s="20"/>
       <c r="E103" s="20"/>
       <c r="F103" s="21"/>
-      <c r="G103" s="25"/>
+      <c r="G103" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="H103" s="21"/>
       <c r="I103" s="21"/>
       <c r="J103" s="19"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K103" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L103" s="35">
+        <f>SUM(I10:I105)</f>
+        <v>0</v>
+      </c>
+      <c r="M103" s="36"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="19">
-        <v>95</v>
-      </c>
-      <c r="B104" s="24"/>
+        <v>99</v>
+      </c>
+      <c r="B104" s="25"/>
       <c r="C104" s="20"/>
       <c r="D104" s="20"/>
       <c r="E104" s="20"/>
       <c r="F104" s="21"/>
-      <c r="G104" s="25"/>
+      <c r="G104" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="H104" s="21"/>
       <c r="I104" s="21"/>
       <c r="J104" s="19"/>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K104" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="L104" s="38">
+        <f>SUMIF(J10:J105,"M",I10:I105)</f>
+        <v>0</v>
+      </c>
+      <c r="M104" s="39" t="e">
+        <f>L104/L103</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="19">
-        <v>96</v>
-      </c>
-      <c r="B105" s="24"/>
+        <v>100</v>
+      </c>
+      <c r="B105" s="25"/>
       <c r="C105" s="20"/>
       <c r="D105" s="20"/>
       <c r="E105" s="20"/>
       <c r="F105" s="21"/>
-      <c r="G105" s="25"/>
+      <c r="G105" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="H105" s="21"/>
       <c r="I105" s="21"/>
       <c r="J105" s="19"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A106" s="19">
-        <v>97</v>
-      </c>
-      <c r="B106" s="24"/>
-      <c r="C106" s="20"/>
-      <c r="D106" s="20"/>
-      <c r="E106" s="20"/>
-      <c r="F106" s="21"/>
-      <c r="G106" s="25"/>
-      <c r="H106" s="21"/>
-      <c r="I106" s="21"/>
-      <c r="J106" s="19"/>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A107" s="19">
-        <v>98</v>
-      </c>
-      <c r="B107" s="24"/>
-      <c r="C107" s="20"/>
-      <c r="D107" s="20"/>
-      <c r="E107" s="20"/>
-      <c r="F107" s="21"/>
-      <c r="G107" s="25"/>
-      <c r="H107" s="21"/>
-      <c r="I107" s="21"/>
-      <c r="J107" s="19"/>
-      <c r="K107" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="L107" s="34">
-        <f>SUM(I10:I109)</f>
+      <c r="K105" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="L105" s="41">
+        <f>C5+L103</f>
         <v>0</v>
       </c>
-      <c r="M107" s="35"/>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A108" s="19">
-        <v>99</v>
-      </c>
-      <c r="B108" s="24"/>
-      <c r="C108" s="20"/>
-      <c r="D108" s="20"/>
-      <c r="E108" s="20"/>
-      <c r="F108" s="21"/>
-      <c r="G108" s="25"/>
-      <c r="H108" s="21"/>
-      <c r="I108" s="21"/>
-      <c r="J108" s="19"/>
-      <c r="K108" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="L108" s="37">
-        <f>SUMIF(J10:J109,"M",I10:I109)</f>
-        <v>0</v>
-      </c>
-      <c r="M108" s="38" t="e">
-        <f>L108/L107</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A109" s="19">
-        <v>100</v>
-      </c>
-      <c r="B109" s="24"/>
-      <c r="C109" s="20"/>
-      <c r="D109" s="20"/>
-      <c r="E109" s="20"/>
-      <c r="F109" s="21"/>
-      <c r="G109" s="25"/>
-      <c r="H109" s="21"/>
-      <c r="I109" s="21"/>
-      <c r="J109" s="19"/>
-      <c r="K109" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="L109" s="40">
-        <f>C5+L107</f>
-        <v>0</v>
-      </c>
-      <c r="M109" s="41"/>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I110" s="31"/>
-      <c r="J110" s="1"/>
+      <c r="M105" s="42"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:J109" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A9:J57" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="3">
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D1:E1"/>

--- a/blank.xlsx
+++ b/blank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\TT_GIT\Útnyilvántartó Projekt\UtnyilvantartoJava\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TT_GIT\UtnyilvantartoJava\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67076C0C-E507-453A-AC58-A288AAD2E2DF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1278416-46E5-4EEB-A868-A54CF2274BFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="453" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="453" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nyomtat" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -974,25 +976,25 @@
   </sheetPr>
   <dimension ref="A1:M105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L106" sqref="L106"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="22" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="26" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="9" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="23"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1005,7 +1007,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
@@ -1016,7 +1018,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -1028,7 +1030,7 @@
       <c r="G3" s="8"/>
       <c r="J3" s="31"/>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1041,7 +1043,7 @@
       <c r="G4" s="8"/>
       <c r="J4" s="31"/>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>22</v>
       </c>
@@ -1051,20 +1053,17 @@
         <v>2</v>
       </c>
       <c r="G5" s="8">
-        <f>SUM(I10:I57)</f>
+        <f>SUM(I10:I105)</f>
         <v>0</v>
       </c>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="6"/>
-      <c r="C6" s="8">
-        <f>C5+G5</f>
-        <v>0</v>
-      </c>
+      <c r="C6" s="8"/>
       <c r="F6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1076,20 +1075,17 @@
       <c r="I6" s="27"/>
       <c r="J6" s="33"/>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
       <c r="F7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="30">
-        <f>SUM(H10:H57)</f>
-        <v>0</v>
-      </c>
+      <c r="G7" s="30"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="33"/>
     </row>
-    <row r="8" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -1117,7 +1113,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="B9" s="14" t="s">
         <v>17</v>
@@ -1143,7 +1139,7 @@
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>1</v>
       </c>
@@ -1160,7 +1156,7 @@
       <c r="I10" s="21"/>
       <c r="J10" s="19"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>2</v>
       </c>
@@ -1177,7 +1173,7 @@
       <c r="I11" s="21"/>
       <c r="J11" s="19"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>3</v>
       </c>
@@ -1197,7 +1193,7 @@
       <c r="L12" s="43"/>
       <c r="M12" s="43"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>4</v>
       </c>
@@ -1217,7 +1213,7 @@
       <c r="L13" s="43"/>
       <c r="M13" s="44"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>5</v>
       </c>
@@ -1234,7 +1230,7 @@
       <c r="I14" s="21"/>
       <c r="J14" s="19"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
         <v>6</v>
       </c>
@@ -1251,7 +1247,7 @@
       <c r="I15" s="21"/>
       <c r="J15" s="19"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
         <v>7</v>
       </c>
@@ -1268,7 +1264,7 @@
       <c r="I16" s="21"/>
       <c r="J16" s="19"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
         <v>8</v>
       </c>
@@ -1285,7 +1281,7 @@
       <c r="I17" s="21"/>
       <c r="J17" s="19"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>9</v>
       </c>
@@ -1302,7 +1298,7 @@
       <c r="I18" s="21"/>
       <c r="J18" s="19"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>10</v>
       </c>
@@ -1319,7 +1315,7 @@
       <c r="I19" s="21"/>
       <c r="J19" s="19"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>12</v>
       </c>
@@ -1336,7 +1332,7 @@
       <c r="I20" s="21"/>
       <c r="J20" s="19"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>13</v>
       </c>
@@ -1353,7 +1349,7 @@
       <c r="I21" s="21"/>
       <c r="J21" s="19"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>14</v>
       </c>
@@ -1370,7 +1366,7 @@
       <c r="I22" s="21"/>
       <c r="J22" s="19"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>15</v>
       </c>
@@ -1387,7 +1383,7 @@
       <c r="I23" s="21"/>
       <c r="J23" s="19"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>16</v>
       </c>
@@ -1404,7 +1400,7 @@
       <c r="I24" s="21"/>
       <c r="J24" s="19"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>17</v>
       </c>
@@ -1421,7 +1417,7 @@
       <c r="I25" s="21"/>
       <c r="J25" s="19"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>19</v>
       </c>
@@ -1438,7 +1434,7 @@
       <c r="I26" s="21"/>
       <c r="J26" s="19"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
         <v>20</v>
       </c>
@@ -1455,7 +1451,7 @@
       <c r="I27" s="21"/>
       <c r="J27" s="19"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
         <v>21</v>
       </c>
@@ -1472,7 +1468,7 @@
       <c r="I28" s="21"/>
       <c r="J28" s="19"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
         <v>22</v>
       </c>
@@ -1489,7 +1485,7 @@
       <c r="I29" s="21"/>
       <c r="J29" s="19"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
         <v>23</v>
       </c>
@@ -1506,7 +1502,7 @@
       <c r="I30" s="21"/>
       <c r="J30" s="19"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
         <v>24</v>
       </c>
@@ -1523,7 +1519,7 @@
       <c r="I31" s="21"/>
       <c r="J31" s="19"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="19">
         <v>25</v>
       </c>
@@ -1540,7 +1536,7 @@
       <c r="I32" s="21"/>
       <c r="J32" s="19"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>26</v>
       </c>
@@ -1557,7 +1553,7 @@
       <c r="I33" s="21"/>
       <c r="J33" s="19"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
         <v>29</v>
       </c>
@@ -1574,7 +1570,7 @@
       <c r="I34" s="21"/>
       <c r="J34" s="19"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>30</v>
       </c>
@@ -1591,7 +1587,7 @@
       <c r="I35" s="21"/>
       <c r="J35" s="19"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="19">
         <v>31</v>
       </c>
@@ -1608,7 +1604,7 @@
       <c r="I36" s="21"/>
       <c r="J36" s="19"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="19">
         <v>32</v>
       </c>
@@ -1625,7 +1621,7 @@
       <c r="I37" s="21"/>
       <c r="J37" s="19"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="19">
         <v>33</v>
       </c>
@@ -1642,7 +1638,7 @@
       <c r="I38" s="21"/>
       <c r="J38" s="19"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="19">
         <v>34</v>
       </c>
@@ -1659,7 +1655,7 @@
       <c r="I39" s="21"/>
       <c r="J39" s="19"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="19">
         <v>35</v>
       </c>
@@ -1676,7 +1672,7 @@
       <c r="I40" s="21"/>
       <c r="J40" s="19"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="19">
         <v>36</v>
       </c>
@@ -1693,7 +1689,7 @@
       <c r="I41" s="21"/>
       <c r="J41" s="19"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="19">
         <v>37</v>
       </c>
@@ -1710,7 +1706,7 @@
       <c r="I42" s="21"/>
       <c r="J42" s="19"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="19">
         <v>38</v>
       </c>
@@ -1727,7 +1723,7 @@
       <c r="I43" s="21"/>
       <c r="J43" s="19"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="19">
         <v>39</v>
       </c>
@@ -1744,7 +1740,7 @@
       <c r="I44" s="21"/>
       <c r="J44" s="19"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="19">
         <v>40</v>
       </c>
@@ -1761,7 +1757,7 @@
       <c r="I45" s="21"/>
       <c r="J45" s="19"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="19">
         <v>41</v>
       </c>
@@ -1778,7 +1774,7 @@
       <c r="I46" s="21"/>
       <c r="J46" s="19"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="19">
         <v>42</v>
       </c>
@@ -1795,7 +1791,7 @@
       <c r="I47" s="21"/>
       <c r="J47" s="19"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="19">
         <v>43</v>
       </c>
@@ -1812,7 +1808,7 @@
       <c r="I48" s="21"/>
       <c r="J48" s="19"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="19">
         <v>44</v>
       </c>
@@ -1829,7 +1825,7 @@
       <c r="I49" s="21"/>
       <c r="J49" s="19"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="19">
         <v>45</v>
       </c>
@@ -1846,7 +1842,7 @@
       <c r="I50" s="21"/>
       <c r="J50" s="19"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="19">
         <v>46</v>
       </c>
@@ -1863,7 +1859,7 @@
       <c r="I51" s="21"/>
       <c r="J51" s="19"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="19">
         <v>47</v>
       </c>
@@ -1880,7 +1876,7 @@
       <c r="I52" s="21"/>
       <c r="J52" s="19"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="19">
         <v>48</v>
       </c>
@@ -1897,7 +1893,7 @@
       <c r="I53" s="21"/>
       <c r="J53" s="19"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="19">
         <v>49</v>
       </c>
@@ -1914,7 +1910,7 @@
       <c r="I54" s="21"/>
       <c r="J54" s="19"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="19">
         <v>50</v>
       </c>
@@ -1931,7 +1927,7 @@
       <c r="I55" s="21"/>
       <c r="J55" s="19"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="19">
         <v>51</v>
       </c>
@@ -1948,7 +1944,7 @@
       <c r="I56" s="21"/>
       <c r="J56" s="19"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="19">
         <v>52</v>
       </c>
@@ -1965,7 +1961,7 @@
       <c r="I57" s="21"/>
       <c r="J57" s="19"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="19">
         <v>53</v>
       </c>
@@ -1982,7 +1978,7 @@
       <c r="I58" s="21"/>
       <c r="J58" s="19"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="19">
         <v>54</v>
       </c>
@@ -1999,7 +1995,7 @@
       <c r="I59" s="21"/>
       <c r="J59" s="19"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="19">
         <v>55</v>
       </c>
@@ -2016,7 +2012,7 @@
       <c r="I60" s="21"/>
       <c r="J60" s="19"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="19">
         <v>56</v>
       </c>
@@ -2033,7 +2029,7 @@
       <c r="I61" s="21"/>
       <c r="J61" s="19"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="19">
         <v>57</v>
       </c>
@@ -2050,7 +2046,7 @@
       <c r="I62" s="21"/>
       <c r="J62" s="19"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="19">
         <v>58</v>
       </c>
@@ -2067,7 +2063,7 @@
       <c r="I63" s="21"/>
       <c r="J63" s="19"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="19">
         <v>59</v>
       </c>
@@ -2084,7 +2080,7 @@
       <c r="I64" s="21"/>
       <c r="J64" s="19"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="19">
         <v>60</v>
       </c>
@@ -2101,7 +2097,7 @@
       <c r="I65" s="21"/>
       <c r="J65" s="19"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="19">
         <v>61</v>
       </c>
@@ -2118,7 +2114,7 @@
       <c r="I66" s="21"/>
       <c r="J66" s="19"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="19">
         <v>62</v>
       </c>
@@ -2135,7 +2131,7 @@
       <c r="I67" s="21"/>
       <c r="J67" s="19"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="19">
         <v>63</v>
       </c>
@@ -2152,7 +2148,7 @@
       <c r="I68" s="21"/>
       <c r="J68" s="19"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="19">
         <v>64</v>
       </c>
@@ -2169,7 +2165,7 @@
       <c r="I69" s="21"/>
       <c r="J69" s="19"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="19">
         <v>65</v>
       </c>
@@ -2186,7 +2182,7 @@
       <c r="I70" s="21"/>
       <c r="J70" s="19"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="19">
         <v>66</v>
       </c>
@@ -2203,7 +2199,7 @@
       <c r="I71" s="21"/>
       <c r="J71" s="19"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="19">
         <v>67</v>
       </c>
@@ -2220,7 +2216,7 @@
       <c r="I72" s="21"/>
       <c r="J72" s="19"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="19">
         <v>68</v>
       </c>
@@ -2237,7 +2233,7 @@
       <c r="I73" s="21"/>
       <c r="J73" s="19"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="19">
         <v>69</v>
       </c>
@@ -2254,7 +2250,7 @@
       <c r="I74" s="21"/>
       <c r="J74" s="19"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="19">
         <v>70</v>
       </c>
@@ -2271,7 +2267,7 @@
       <c r="I75" s="21"/>
       <c r="J75" s="19"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="19">
         <v>71</v>
       </c>
@@ -2288,7 +2284,7 @@
       <c r="I76" s="21"/>
       <c r="J76" s="19"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="19">
         <v>72</v>
       </c>
@@ -2305,7 +2301,7 @@
       <c r="I77" s="21"/>
       <c r="J77" s="19"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="19">
         <v>73</v>
       </c>
@@ -2322,7 +2318,7 @@
       <c r="I78" s="21"/>
       <c r="J78" s="19"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="19">
         <v>74</v>
       </c>
@@ -2339,7 +2335,7 @@
       <c r="I79" s="21"/>
       <c r="J79" s="19"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="19">
         <v>75</v>
       </c>
@@ -2356,7 +2352,7 @@
       <c r="I80" s="21"/>
       <c r="J80" s="19"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="19">
         <v>76</v>
       </c>
@@ -2373,7 +2369,7 @@
       <c r="I81" s="21"/>
       <c r="J81" s="19"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="19">
         <v>77</v>
       </c>
@@ -2390,7 +2386,7 @@
       <c r="I82" s="21"/>
       <c r="J82" s="19"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="19">
         <v>78</v>
       </c>
@@ -2407,7 +2403,7 @@
       <c r="I83" s="21"/>
       <c r="J83" s="19"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="19">
         <v>79</v>
       </c>
@@ -2424,7 +2420,7 @@
       <c r="I84" s="21"/>
       <c r="J84" s="19"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="19">
         <v>80</v>
       </c>
@@ -2441,7 +2437,7 @@
       <c r="I85" s="21"/>
       <c r="J85" s="19"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="19">
         <v>81</v>
       </c>
@@ -2458,7 +2454,7 @@
       <c r="I86" s="21"/>
       <c r="J86" s="19"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="19">
         <v>82</v>
       </c>
@@ -2475,7 +2471,7 @@
       <c r="I87" s="21"/>
       <c r="J87" s="19"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="19">
         <v>83</v>
       </c>
@@ -2492,7 +2488,7 @@
       <c r="I88" s="21"/>
       <c r="J88" s="19"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="19">
         <v>84</v>
       </c>
@@ -2509,7 +2505,7 @@
       <c r="I89" s="21"/>
       <c r="J89" s="19"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="19">
         <v>85</v>
       </c>
@@ -2526,7 +2522,7 @@
       <c r="I90" s="21"/>
       <c r="J90" s="19"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="19">
         <v>86</v>
       </c>
@@ -2543,7 +2539,7 @@
       <c r="I91" s="21"/>
       <c r="J91" s="19"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="19">
         <v>87</v>
       </c>
@@ -2560,7 +2556,7 @@
       <c r="I92" s="21"/>
       <c r="J92" s="19"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="19">
         <v>88</v>
       </c>
@@ -2577,7 +2573,7 @@
       <c r="I93" s="21"/>
       <c r="J93" s="19"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="19">
         <v>89</v>
       </c>
@@ -2594,7 +2590,7 @@
       <c r="I94" s="21"/>
       <c r="J94" s="19"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="19">
         <v>90</v>
       </c>
@@ -2611,7 +2607,7 @@
       <c r="I95" s="21"/>
       <c r="J95" s="19"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="19">
         <v>91</v>
       </c>
@@ -2628,7 +2624,7 @@
       <c r="I96" s="21"/>
       <c r="J96" s="19"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="19">
         <v>92</v>
       </c>
@@ -2645,7 +2641,7 @@
       <c r="I97" s="21"/>
       <c r="J97" s="19"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="19">
         <v>93</v>
       </c>
@@ -2662,7 +2658,7 @@
       <c r="I98" s="21"/>
       <c r="J98" s="19"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="19">
         <v>94</v>
       </c>
@@ -2679,7 +2675,7 @@
       <c r="I99" s="21"/>
       <c r="J99" s="19"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="19">
         <v>95</v>
       </c>
@@ -2696,7 +2692,7 @@
       <c r="I100" s="21"/>
       <c r="J100" s="19"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="19">
         <v>96</v>
       </c>
@@ -2713,7 +2709,7 @@
       <c r="I101" s="21"/>
       <c r="J101" s="19"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="19">
         <v>97</v>
       </c>
@@ -2730,7 +2726,7 @@
       <c r="I102" s="21"/>
       <c r="J102" s="19"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="19">
         <v>98</v>
       </c>
@@ -2755,7 +2751,7 @@
       </c>
       <c r="M103" s="36"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="19">
         <v>99</v>
       </c>
@@ -2783,7 +2779,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="19">
         <v>100</v>
       </c>

--- a/blank.xlsx
+++ b/blank.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TT_GIT\UtnyilvantartoJava\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tamás\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1278416-46E5-4EEB-A868-A54CF2274BFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A39E691-9F1D-42A8-8B36-599613B52CD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="453" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="453" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nyomtat" sheetId="4" r:id="rId1"/>
@@ -181,7 +181,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -297,21 +297,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="hair">
         <color indexed="64"/>
@@ -458,7 +443,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -515,18 +500,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -541,15 +523,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -558,10 +540,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -974,51 +956,51 @@
   <sheetPr codeName="Munka4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M105"/>
+  <dimension ref="A1:M174"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A138" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M153" sqref="M153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="26" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="8" max="9" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="23"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="46"/>
+      <c r="E1" s="45"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -1028,22 +1010,22 @@
         <v>1</v>
       </c>
       <c r="G3" s="8"/>
-      <c r="J3" s="31"/>
-    </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J3" s="30"/>
+    </row>
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="31"/>
+      <c r="D4" s="30"/>
       <c r="F4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="8"/>
-      <c r="J4" s="31"/>
-    </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J4" s="30"/>
+    </row>
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>22</v>
       </c>
@@ -1056,9 +1038,9 @@
         <f>SUM(I10:I105)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J5" s="30"/>
+    </row>
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1071,28 +1053,28 @@
         <f>100*G7/G5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="33"/>
-    </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="32"/>
+    </row>
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="F7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="33"/>
-    </row>
-    <row r="8" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G7" s="29"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="32"/>
+    </row>
+    <row r="8" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="48"/>
+      <c r="C8" s="47"/>
       <c r="D8" s="11" t="s">
         <v>7</v>
       </c>
@@ -1100,7 +1082,7 @@
       <c r="F8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="27" t="s">
         <v>9</v>
       </c>
       <c r="H8" s="12" t="s">
@@ -1113,7 +1095,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="14" t="s">
         <v>17</v>
@@ -1130,7 +1112,7 @@
       <c r="F9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="18" t="s">
@@ -1139,16 +1121,16 @@
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="19">
         <v>1</v>
       </c>
-      <c r="B10" s="25"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="21"/>
-      <c r="G10" s="26" t="str">
+      <c r="G10" s="25" t="str">
         <f>IF(B10&lt;&gt;"",$C$5+I10,"")</f>
         <v/>
       </c>
@@ -1156,16 +1138,16 @@
       <c r="I10" s="21"/>
       <c r="J10" s="19"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="19">
         <v>2</v>
       </c>
-      <c r="B11" s="25"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
       <c r="F11" s="21"/>
-      <c r="G11" s="26" t="str">
+      <c r="G11" s="25" t="str">
         <f>IF(B11&lt;&gt;"",G10+I11,"")</f>
         <v/>
       </c>
@@ -1173,56 +1155,56 @@
       <c r="I11" s="21"/>
       <c r="J11" s="19"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="19">
         <v>3</v>
       </c>
-      <c r="B12" s="25"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="21"/>
-      <c r="G12" s="26" t="str">
+      <c r="G12" s="25" t="str">
         <f t="shared" ref="G12:G54" si="0">IF(B12&lt;&gt;"",G11+I12,"")</f>
         <v/>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="19"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="19">
         <v>4</v>
       </c>
-      <c r="B13" s="25"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="21"/>
-      <c r="G13" s="26" t="str">
+      <c r="G13" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
       <c r="J13" s="19"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="44"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="43"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="19">
         <v>5</v>
       </c>
-      <c r="B14" s="25"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="21"/>
-      <c r="G14" s="26" t="str">
+      <c r="G14" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1230,16 +1212,16 @@
       <c r="I14" s="21"/>
       <c r="J14" s="19"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="19">
         <v>6</v>
       </c>
-      <c r="B15" s="25"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="21"/>
-      <c r="G15" s="26" t="str">
+      <c r="G15" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1247,16 +1229,16 @@
       <c r="I15" s="21"/>
       <c r="J15" s="19"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="19">
         <v>7</v>
       </c>
-      <c r="B16" s="25"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="21"/>
-      <c r="G16" s="26" t="str">
+      <c r="G16" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1264,16 +1246,16 @@
       <c r="I16" s="21"/>
       <c r="J16" s="19"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="19">
         <v>8</v>
       </c>
-      <c r="B17" s="25"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="21"/>
-      <c r="G17" s="26" t="str">
+      <c r="G17" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1281,16 +1263,16 @@
       <c r="I17" s="21"/>
       <c r="J17" s="19"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="19">
         <v>9</v>
       </c>
-      <c r="B18" s="25"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="26" t="str">
+      <c r="G18" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1298,16 +1280,16 @@
       <c r="I18" s="21"/>
       <c r="J18" s="19"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="19">
         <v>10</v>
       </c>
-      <c r="B19" s="25"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
       <c r="F19" s="21"/>
-      <c r="G19" s="26" t="str">
+      <c r="G19" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1315,16 +1297,16 @@
       <c r="I19" s="21"/>
       <c r="J19" s="19"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="19">
-        <v>12</v>
-      </c>
-      <c r="B20" s="25"/>
+        <v>11</v>
+      </c>
+      <c r="B20" s="24"/>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
       <c r="F20" s="21"/>
-      <c r="G20" s="26" t="str">
+      <c r="G20" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1332,16 +1314,16 @@
       <c r="I20" s="21"/>
       <c r="J20" s="19"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="19">
-        <v>13</v>
-      </c>
-      <c r="B21" s="25"/>
+        <v>12</v>
+      </c>
+      <c r="B21" s="24"/>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
       <c r="F21" s="21"/>
-      <c r="G21" s="26" t="str">
+      <c r="G21" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1349,16 +1331,16 @@
       <c r="I21" s="21"/>
       <c r="J21" s="19"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="19">
-        <v>14</v>
-      </c>
-      <c r="B22" s="25"/>
+        <v>13</v>
+      </c>
+      <c r="B22" s="24"/>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
       <c r="F22" s="21"/>
-      <c r="G22" s="26" t="str">
+      <c r="G22" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1366,16 +1348,16 @@
       <c r="I22" s="21"/>
       <c r="J22" s="19"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="19">
-        <v>15</v>
-      </c>
-      <c r="B23" s="25"/>
+        <v>14</v>
+      </c>
+      <c r="B23" s="24"/>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
       <c r="F23" s="21"/>
-      <c r="G23" s="26" t="str">
+      <c r="G23" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1383,16 +1365,16 @@
       <c r="I23" s="21"/>
       <c r="J23" s="19"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="19">
-        <v>16</v>
-      </c>
-      <c r="B24" s="25"/>
+        <v>15</v>
+      </c>
+      <c r="B24" s="24"/>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="F24" s="21"/>
-      <c r="G24" s="26" t="str">
+      <c r="G24" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1400,16 +1382,16 @@
       <c r="I24" s="21"/>
       <c r="J24" s="19"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="19">
-        <v>17</v>
-      </c>
-      <c r="B25" s="25"/>
+        <v>16</v>
+      </c>
+      <c r="B25" s="24"/>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
       <c r="F25" s="21"/>
-      <c r="G25" s="26" t="str">
+      <c r="G25" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1417,16 +1399,16 @@
       <c r="I25" s="21"/>
       <c r="J25" s="19"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="19">
-        <v>19</v>
-      </c>
-      <c r="B26" s="25"/>
+        <v>17</v>
+      </c>
+      <c r="B26" s="24"/>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
       <c r="F26" s="21"/>
-      <c r="G26" s="26" t="str">
+      <c r="G26" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1434,16 +1416,16 @@
       <c r="I26" s="21"/>
       <c r="J26" s="19"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="19">
-        <v>20</v>
-      </c>
-      <c r="B27" s="25"/>
+        <v>18</v>
+      </c>
+      <c r="B27" s="24"/>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
       <c r="F27" s="21"/>
-      <c r="G27" s="26" t="str">
+      <c r="G27" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1451,16 +1433,16 @@
       <c r="I27" s="21"/>
       <c r="J27" s="19"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="19">
-        <v>21</v>
-      </c>
-      <c r="B28" s="25"/>
+        <v>19</v>
+      </c>
+      <c r="B28" s="24"/>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="21"/>
-      <c r="G28" s="26" t="str">
+      <c r="G28" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1468,16 +1450,16 @@
       <c r="I28" s="21"/>
       <c r="J28" s="19"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="19">
-        <v>22</v>
-      </c>
-      <c r="B29" s="25"/>
+        <v>20</v>
+      </c>
+      <c r="B29" s="24"/>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
       <c r="F29" s="21"/>
-      <c r="G29" s="26" t="str">
+      <c r="G29" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1485,16 +1467,16 @@
       <c r="I29" s="21"/>
       <c r="J29" s="19"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="19">
-        <v>23</v>
-      </c>
-      <c r="B30" s="25"/>
+        <v>21</v>
+      </c>
+      <c r="B30" s="24"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="26" t="str">
+      <c r="G30" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1502,16 +1484,16 @@
       <c r="I30" s="21"/>
       <c r="J30" s="19"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="19">
-        <v>24</v>
-      </c>
-      <c r="B31" s="25"/>
+        <v>22</v>
+      </c>
+      <c r="B31" s="24"/>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
       <c r="F31" s="21"/>
-      <c r="G31" s="26" t="str">
+      <c r="G31" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1519,16 +1501,16 @@
       <c r="I31" s="21"/>
       <c r="J31" s="19"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="19">
-        <v>25</v>
-      </c>
-      <c r="B32" s="25"/>
+        <v>23</v>
+      </c>
+      <c r="B32" s="24"/>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
       <c r="F32" s="21"/>
-      <c r="G32" s="26" t="str">
+      <c r="G32" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1536,16 +1518,16 @@
       <c r="I32" s="21"/>
       <c r="J32" s="19"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="19">
-        <v>26</v>
-      </c>
-      <c r="B33" s="25"/>
+        <v>24</v>
+      </c>
+      <c r="B33" s="24"/>
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
       <c r="E33" s="20"/>
       <c r="F33" s="21"/>
-      <c r="G33" s="26" t="str">
+      <c r="G33" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1553,16 +1535,16 @@
       <c r="I33" s="21"/>
       <c r="J33" s="19"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="19">
-        <v>29</v>
-      </c>
-      <c r="B34" s="25"/>
+        <v>25</v>
+      </c>
+      <c r="B34" s="24"/>
       <c r="C34" s="20"/>
       <c r="D34" s="20"/>
       <c r="E34" s="20"/>
       <c r="F34" s="21"/>
-      <c r="G34" s="26" t="str">
+      <c r="G34" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1570,16 +1552,16 @@
       <c r="I34" s="21"/>
       <c r="J34" s="19"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="24">
-        <v>30</v>
-      </c>
-      <c r="B35" s="25"/>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="19">
+        <v>26</v>
+      </c>
+      <c r="B35" s="24"/>
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
       <c r="E35" s="20"/>
       <c r="F35" s="21"/>
-      <c r="G35" s="26" t="str">
+      <c r="G35" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1587,16 +1569,16 @@
       <c r="I35" s="21"/>
       <c r="J35" s="19"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="19">
-        <v>31</v>
-      </c>
-      <c r="B36" s="25"/>
+        <v>27</v>
+      </c>
+      <c r="B36" s="24"/>
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
       <c r="E36" s="20"/>
       <c r="F36" s="21"/>
-      <c r="G36" s="26" t="str">
+      <c r="G36" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1604,16 +1586,16 @@
       <c r="I36" s="21"/>
       <c r="J36" s="19"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="19">
-        <v>32</v>
-      </c>
-      <c r="B37" s="25"/>
+        <v>28</v>
+      </c>
+      <c r="B37" s="24"/>
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
       <c r="E37" s="20"/>
       <c r="F37" s="21"/>
-      <c r="G37" s="26" t="str">
+      <c r="G37" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1621,33 +1603,33 @@
       <c r="I37" s="21"/>
       <c r="J37" s="19"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="19">
-        <v>33</v>
-      </c>
-      <c r="B38" s="25"/>
+        <v>29</v>
+      </c>
+      <c r="B38" s="24"/>
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
       <c r="E38" s="20"/>
       <c r="F38" s="21"/>
-      <c r="G38" s="26" t="str">
-        <f t="shared" si="0"/>
+      <c r="G38" s="25" t="str">
+        <f t="shared" ref="G38" si="1">IF(B38&lt;&gt;"",G37+I38,"")</f>
         <v/>
       </c>
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="19"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="19">
-        <v>34</v>
-      </c>
-      <c r="B39" s="25"/>
+        <v>30</v>
+      </c>
+      <c r="B39" s="24"/>
       <c r="C39" s="20"/>
       <c r="D39" s="20"/>
       <c r="E39" s="20"/>
       <c r="F39" s="21"/>
-      <c r="G39" s="26" t="str">
+      <c r="G39" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1655,16 +1637,16 @@
       <c r="I39" s="21"/>
       <c r="J39" s="19"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="19">
-        <v>35</v>
-      </c>
-      <c r="B40" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="B40" s="24"/>
       <c r="C40" s="20"/>
       <c r="D40" s="20"/>
       <c r="E40" s="20"/>
       <c r="F40" s="21"/>
-      <c r="G40" s="26" t="str">
+      <c r="G40" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1672,16 +1654,16 @@
       <c r="I40" s="21"/>
       <c r="J40" s="19"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="19">
-        <v>36</v>
-      </c>
-      <c r="B41" s="25"/>
+        <v>32</v>
+      </c>
+      <c r="B41" s="24"/>
       <c r="C41" s="20"/>
       <c r="D41" s="20"/>
       <c r="E41" s="20"/>
       <c r="F41" s="21"/>
-      <c r="G41" s="26" t="str">
+      <c r="G41" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1689,16 +1671,16 @@
       <c r="I41" s="21"/>
       <c r="J41" s="19"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="19">
-        <v>37</v>
-      </c>
-      <c r="B42" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="B42" s="24"/>
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
       <c r="E42" s="20"/>
       <c r="F42" s="21"/>
-      <c r="G42" s="26" t="str">
+      <c r="G42" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1706,16 +1688,16 @@
       <c r="I42" s="21"/>
       <c r="J42" s="19"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="19">
-        <v>38</v>
-      </c>
-      <c r="B43" s="25"/>
+        <v>34</v>
+      </c>
+      <c r="B43" s="24"/>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
       <c r="E43" s="20"/>
       <c r="F43" s="21"/>
-      <c r="G43" s="26" t="str">
+      <c r="G43" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1723,16 +1705,16 @@
       <c r="I43" s="21"/>
       <c r="J43" s="19"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="19">
-        <v>39</v>
-      </c>
-      <c r="B44" s="25"/>
+        <v>35</v>
+      </c>
+      <c r="B44" s="24"/>
       <c r="C44" s="20"/>
       <c r="D44" s="20"/>
       <c r="E44" s="20"/>
       <c r="F44" s="21"/>
-      <c r="G44" s="26" t="str">
+      <c r="G44" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1740,16 +1722,16 @@
       <c r="I44" s="21"/>
       <c r="J44" s="19"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="19">
-        <v>40</v>
-      </c>
-      <c r="B45" s="25"/>
+        <v>36</v>
+      </c>
+      <c r="B45" s="24"/>
       <c r="C45" s="20"/>
       <c r="D45" s="20"/>
       <c r="E45" s="20"/>
       <c r="F45" s="21"/>
-      <c r="G45" s="26" t="str">
+      <c r="G45" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1757,16 +1739,16 @@
       <c r="I45" s="21"/>
       <c r="J45" s="19"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="19">
-        <v>41</v>
-      </c>
-      <c r="B46" s="25"/>
+        <v>37</v>
+      </c>
+      <c r="B46" s="24"/>
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
       <c r="E46" s="20"/>
       <c r="F46" s="21"/>
-      <c r="G46" s="26" t="str">
+      <c r="G46" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1774,16 +1756,16 @@
       <c r="I46" s="21"/>
       <c r="J46" s="19"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="19">
-        <v>42</v>
-      </c>
-      <c r="B47" s="25"/>
+        <v>38</v>
+      </c>
+      <c r="B47" s="24"/>
       <c r="C47" s="20"/>
       <c r="D47" s="20"/>
       <c r="E47" s="20"/>
       <c r="F47" s="21"/>
-      <c r="G47" s="26" t="str">
+      <c r="G47" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1791,16 +1773,16 @@
       <c r="I47" s="21"/>
       <c r="J47" s="19"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="19">
-        <v>43</v>
-      </c>
-      <c r="B48" s="25"/>
+        <v>39</v>
+      </c>
+      <c r="B48" s="24"/>
       <c r="C48" s="20"/>
       <c r="D48" s="20"/>
       <c r="E48" s="20"/>
       <c r="F48" s="21"/>
-      <c r="G48" s="26" t="str">
+      <c r="G48" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1808,16 +1790,16 @@
       <c r="I48" s="21"/>
       <c r="J48" s="19"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="19">
-        <v>44</v>
-      </c>
-      <c r="B49" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="B49" s="24"/>
       <c r="C49" s="20"/>
       <c r="D49" s="20"/>
       <c r="E49" s="20"/>
       <c r="F49" s="21"/>
-      <c r="G49" s="26" t="str">
+      <c r="G49" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1825,16 +1807,16 @@
       <c r="I49" s="21"/>
       <c r="J49" s="19"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="19">
-        <v>45</v>
-      </c>
-      <c r="B50" s="25"/>
+        <v>41</v>
+      </c>
+      <c r="B50" s="24"/>
       <c r="C50" s="20"/>
       <c r="D50" s="20"/>
       <c r="E50" s="20"/>
       <c r="F50" s="21"/>
-      <c r="G50" s="26" t="str">
+      <c r="G50" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1842,16 +1824,16 @@
       <c r="I50" s="21"/>
       <c r="J50" s="19"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="19">
-        <v>46</v>
-      </c>
-      <c r="B51" s="25"/>
+        <v>42</v>
+      </c>
+      <c r="B51" s="24"/>
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
       <c r="E51" s="20"/>
       <c r="F51" s="21"/>
-      <c r="G51" s="26" t="str">
+      <c r="G51" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1859,16 +1841,16 @@
       <c r="I51" s="21"/>
       <c r="J51" s="19"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="19">
-        <v>47</v>
-      </c>
-      <c r="B52" s="25"/>
+        <v>43</v>
+      </c>
+      <c r="B52" s="24"/>
       <c r="C52" s="20"/>
       <c r="D52" s="20"/>
       <c r="E52" s="20"/>
       <c r="F52" s="21"/>
-      <c r="G52" s="26" t="str">
+      <c r="G52" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1876,16 +1858,16 @@
       <c r="I52" s="21"/>
       <c r="J52" s="19"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="19">
-        <v>48</v>
-      </c>
-      <c r="B53" s="25"/>
+        <v>44</v>
+      </c>
+      <c r="B53" s="24"/>
       <c r="C53" s="20"/>
       <c r="D53" s="20"/>
       <c r="E53" s="20"/>
       <c r="F53" s="21"/>
-      <c r="G53" s="26" t="str">
+      <c r="G53" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1893,16 +1875,16 @@
       <c r="I53" s="21"/>
       <c r="J53" s="19"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="19">
-        <v>49</v>
-      </c>
-      <c r="B54" s="25"/>
+        <v>45</v>
+      </c>
+      <c r="B54" s="24"/>
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
       <c r="E54" s="20"/>
       <c r="F54" s="21"/>
-      <c r="G54" s="26" t="str">
+      <c r="G54" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1910,899 +1892,2072 @@
       <c r="I54" s="21"/>
       <c r="J54" s="19"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="19">
-        <v>50</v>
-      </c>
-      <c r="B55" s="25"/>
+        <v>46</v>
+      </c>
+      <c r="B55" s="24"/>
       <c r="C55" s="20"/>
       <c r="D55" s="20"/>
       <c r="E55" s="20"/>
       <c r="F55" s="21"/>
-      <c r="G55" s="26" t="str">
-        <f t="shared" ref="G55:G65" si="1">IF(B55&lt;&gt;"",G54+I55,"")</f>
+      <c r="G55" s="25" t="str">
+        <f t="shared" ref="G55:G65" si="2">IF(B55&lt;&gt;"",G54+I55,"")</f>
         <v/>
       </c>
       <c r="H55" s="21"/>
       <c r="I55" s="21"/>
       <c r="J55" s="19"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="19">
-        <v>51</v>
-      </c>
-      <c r="B56" s="25"/>
+        <v>47</v>
+      </c>
+      <c r="B56" s="24"/>
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
       <c r="E56" s="20"/>
       <c r="F56" s="21"/>
-      <c r="G56" s="26" t="str">
-        <f t="shared" si="1"/>
+      <c r="G56" s="25" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H56" s="21"/>
       <c r="I56" s="21"/>
       <c r="J56" s="19"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="19">
-        <v>52</v>
-      </c>
-      <c r="B57" s="25"/>
+        <v>48</v>
+      </c>
+      <c r="B57" s="24"/>
       <c r="C57" s="20"/>
       <c r="D57" s="20"/>
       <c r="E57" s="20"/>
       <c r="F57" s="21"/>
-      <c r="G57" s="26" t="str">
-        <f t="shared" si="1"/>
+      <c r="G57" s="25" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H57" s="21"/>
       <c r="I57" s="21"/>
       <c r="J57" s="19"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="19">
-        <v>53</v>
-      </c>
-      <c r="B58" s="25"/>
+        <v>49</v>
+      </c>
+      <c r="B58" s="24"/>
       <c r="C58" s="20"/>
       <c r="D58" s="20"/>
       <c r="E58" s="20"/>
       <c r="F58" s="21"/>
-      <c r="G58" s="26" t="str">
-        <f t="shared" si="1"/>
+      <c r="G58" s="25" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H58" s="21"/>
       <c r="I58" s="21"/>
       <c r="J58" s="19"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="19">
-        <v>54</v>
-      </c>
-      <c r="B59" s="25"/>
+        <v>50</v>
+      </c>
+      <c r="B59" s="24"/>
       <c r="C59" s="20"/>
       <c r="D59" s="20"/>
       <c r="E59" s="20"/>
       <c r="F59" s="21"/>
-      <c r="G59" s="26" t="str">
-        <f t="shared" si="1"/>
+      <c r="G59" s="25" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H59" s="21"/>
       <c r="I59" s="21"/>
       <c r="J59" s="19"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="19">
-        <v>55</v>
-      </c>
-      <c r="B60" s="25"/>
+        <v>51</v>
+      </c>
+      <c r="B60" s="24"/>
       <c r="C60" s="20"/>
       <c r="D60" s="20"/>
       <c r="E60" s="20"/>
       <c r="F60" s="21"/>
-      <c r="G60" s="26" t="str">
-        <f t="shared" si="1"/>
+      <c r="G60" s="25" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H60" s="21"/>
       <c r="I60" s="21"/>
       <c r="J60" s="19"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="19">
-        <v>56</v>
-      </c>
-      <c r="B61" s="25"/>
+        <v>52</v>
+      </c>
+      <c r="B61" s="24"/>
       <c r="C61" s="20"/>
       <c r="D61" s="20"/>
       <c r="E61" s="20"/>
       <c r="F61" s="21"/>
-      <c r="G61" s="26" t="str">
-        <f t="shared" si="1"/>
+      <c r="G61" s="25" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H61" s="21"/>
       <c r="I61" s="21"/>
       <c r="J61" s="19"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="19">
-        <v>57</v>
-      </c>
-      <c r="B62" s="25"/>
+        <v>53</v>
+      </c>
+      <c r="B62" s="24"/>
       <c r="C62" s="20"/>
       <c r="D62" s="20"/>
       <c r="E62" s="20"/>
       <c r="F62" s="21"/>
-      <c r="G62" s="26" t="str">
-        <f t="shared" si="1"/>
+      <c r="G62" s="25" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H62" s="21"/>
       <c r="I62" s="21"/>
       <c r="J62" s="19"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="19">
-        <v>58</v>
-      </c>
-      <c r="B63" s="25"/>
+        <v>54</v>
+      </c>
+      <c r="B63" s="24"/>
       <c r="C63" s="20"/>
       <c r="D63" s="20"/>
       <c r="E63" s="20"/>
       <c r="F63" s="21"/>
-      <c r="G63" s="26" t="str">
-        <f t="shared" si="1"/>
+      <c r="G63" s="25" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H63" s="21"/>
       <c r="I63" s="21"/>
       <c r="J63" s="19"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="19">
-        <v>59</v>
-      </c>
-      <c r="B64" s="25"/>
+        <v>55</v>
+      </c>
+      <c r="B64" s="24"/>
       <c r="C64" s="20"/>
       <c r="D64" s="20"/>
       <c r="E64" s="20"/>
       <c r="F64" s="21"/>
-      <c r="G64" s="26" t="str">
-        <f t="shared" si="1"/>
+      <c r="G64" s="25" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H64" s="21"/>
       <c r="I64" s="21"/>
       <c r="J64" s="19"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="19">
-        <v>60</v>
-      </c>
-      <c r="B65" s="25"/>
+        <v>56</v>
+      </c>
+      <c r="B65" s="24"/>
       <c r="C65" s="20"/>
       <c r="D65" s="20"/>
       <c r="E65" s="20"/>
       <c r="F65" s="21"/>
-      <c r="G65" s="26" t="str">
-        <f t="shared" si="1"/>
+      <c r="G65" s="25" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H65" s="21"/>
       <c r="I65" s="21"/>
       <c r="J65" s="19"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="19">
-        <v>61</v>
-      </c>
-      <c r="B66" s="25"/>
+        <v>57</v>
+      </c>
+      <c r="B66" s="24"/>
       <c r="C66" s="20"/>
       <c r="D66" s="20"/>
       <c r="E66" s="20"/>
       <c r="F66" s="21"/>
-      <c r="G66" s="26" t="str">
-        <f t="shared" ref="G66:G105" si="2">IF(B66&lt;&gt;"",G65+I66,"")</f>
+      <c r="G66" s="25" t="str">
+        <f t="shared" ref="G66:G80" si="3">IF(B66&lt;&gt;"",G65+I66,"")</f>
         <v/>
       </c>
       <c r="H66" s="21"/>
       <c r="I66" s="21"/>
       <c r="J66" s="19"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="19">
-        <v>62</v>
-      </c>
-      <c r="B67" s="25"/>
+        <v>58</v>
+      </c>
+      <c r="B67" s="24"/>
       <c r="C67" s="20"/>
       <c r="D67" s="20"/>
       <c r="E67" s="20"/>
       <c r="F67" s="21"/>
-      <c r="G67" s="26" t="str">
-        <f t="shared" si="2"/>
+      <c r="G67" s="25" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H67" s="21"/>
       <c r="I67" s="21"/>
       <c r="J67" s="19"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="19">
-        <v>63</v>
-      </c>
-      <c r="B68" s="25"/>
+        <v>59</v>
+      </c>
+      <c r="B68" s="24"/>
       <c r="C68" s="20"/>
       <c r="D68" s="20"/>
       <c r="E68" s="20"/>
       <c r="F68" s="21"/>
-      <c r="G68" s="26" t="str">
-        <f t="shared" si="2"/>
+      <c r="G68" s="25" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H68" s="21"/>
       <c r="I68" s="21"/>
       <c r="J68" s="19"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="19">
-        <v>64</v>
-      </c>
-      <c r="B69" s="25"/>
+        <v>60</v>
+      </c>
+      <c r="B69" s="24"/>
       <c r="C69" s="20"/>
       <c r="D69" s="20"/>
       <c r="E69" s="20"/>
       <c r="F69" s="21"/>
-      <c r="G69" s="26" t="str">
-        <f t="shared" si="2"/>
+      <c r="G69" s="25" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H69" s="21"/>
       <c r="I69" s="21"/>
       <c r="J69" s="19"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="19">
-        <v>65</v>
-      </c>
-      <c r="B70" s="25"/>
+        <v>61</v>
+      </c>
+      <c r="B70" s="24"/>
       <c r="C70" s="20"/>
       <c r="D70" s="20"/>
       <c r="E70" s="20"/>
       <c r="F70" s="21"/>
-      <c r="G70" s="26" t="str">
-        <f t="shared" si="2"/>
+      <c r="G70" s="25" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H70" s="21"/>
       <c r="I70" s="21"/>
       <c r="J70" s="19"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="19">
-        <v>66</v>
-      </c>
-      <c r="B71" s="25"/>
+        <v>62</v>
+      </c>
+      <c r="B71" s="24"/>
       <c r="C71" s="20"/>
       <c r="D71" s="20"/>
       <c r="E71" s="20"/>
       <c r="F71" s="21"/>
-      <c r="G71" s="26" t="str">
-        <f t="shared" si="2"/>
+      <c r="G71" s="25" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H71" s="21"/>
       <c r="I71" s="21"/>
       <c r="J71" s="19"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="19">
-        <v>67</v>
-      </c>
-      <c r="B72" s="25"/>
+        <v>63</v>
+      </c>
+      <c r="B72" s="24"/>
       <c r="C72" s="20"/>
       <c r="D72" s="20"/>
       <c r="E72" s="20"/>
       <c r="F72" s="21"/>
-      <c r="G72" s="26" t="str">
-        <f t="shared" si="2"/>
+      <c r="G72" s="25" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H72" s="21"/>
       <c r="I72" s="21"/>
       <c r="J72" s="19"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="19">
-        <v>68</v>
-      </c>
-      <c r="B73" s="25"/>
+        <v>64</v>
+      </c>
+      <c r="B73" s="24"/>
       <c r="C73" s="20"/>
       <c r="D73" s="20"/>
       <c r="E73" s="20"/>
       <c r="F73" s="21"/>
-      <c r="G73" s="26" t="str">
-        <f t="shared" si="2"/>
+      <c r="G73" s="25" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H73" s="21"/>
       <c r="I73" s="21"/>
       <c r="J73" s="19"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="19">
-        <v>69</v>
-      </c>
-      <c r="B74" s="25"/>
+        <v>65</v>
+      </c>
+      <c r="B74" s="24"/>
       <c r="C74" s="20"/>
       <c r="D74" s="20"/>
       <c r="E74" s="20"/>
       <c r="F74" s="21"/>
-      <c r="G74" s="26" t="str">
-        <f t="shared" si="2"/>
+      <c r="G74" s="25" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H74" s="21"/>
       <c r="I74" s="21"/>
       <c r="J74" s="19"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="19">
-        <v>70</v>
-      </c>
-      <c r="B75" s="25"/>
+        <v>66</v>
+      </c>
+      <c r="B75" s="24"/>
       <c r="C75" s="20"/>
       <c r="D75" s="20"/>
       <c r="E75" s="20"/>
       <c r="F75" s="21"/>
-      <c r="G75" s="26" t="str">
-        <f t="shared" si="2"/>
+      <c r="G75" s="25" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H75" s="21"/>
       <c r="I75" s="21"/>
       <c r="J75" s="19"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="19">
-        <v>71</v>
-      </c>
-      <c r="B76" s="25"/>
+        <v>67</v>
+      </c>
+      <c r="B76" s="24"/>
       <c r="C76" s="20"/>
       <c r="D76" s="20"/>
       <c r="E76" s="20"/>
       <c r="F76" s="21"/>
-      <c r="G76" s="26" t="str">
-        <f t="shared" si="2"/>
+      <c r="G76" s="25" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H76" s="21"/>
       <c r="I76" s="21"/>
       <c r="J76" s="19"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="19">
-        <v>72</v>
-      </c>
-      <c r="B77" s="25"/>
+        <v>68</v>
+      </c>
+      <c r="B77" s="24"/>
       <c r="C77" s="20"/>
       <c r="D77" s="20"/>
       <c r="E77" s="20"/>
       <c r="F77" s="21"/>
-      <c r="G77" s="26" t="str">
-        <f t="shared" si="2"/>
+      <c r="G77" s="25" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H77" s="21"/>
       <c r="I77" s="21"/>
       <c r="J77" s="19"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="19">
-        <v>73</v>
-      </c>
-      <c r="B78" s="25"/>
+        <v>69</v>
+      </c>
+      <c r="B78" s="24"/>
       <c r="C78" s="20"/>
       <c r="D78" s="20"/>
       <c r="E78" s="20"/>
       <c r="F78" s="21"/>
-      <c r="G78" s="26" t="str">
-        <f t="shared" si="2"/>
+      <c r="G78" s="25" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
       <c r="J78" s="19"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="19">
-        <v>74</v>
-      </c>
-      <c r="B79" s="25"/>
+        <v>70</v>
+      </c>
+      <c r="B79" s="24"/>
       <c r="C79" s="20"/>
       <c r="D79" s="20"/>
       <c r="E79" s="20"/>
       <c r="F79" s="21"/>
-      <c r="G79" s="26" t="str">
-        <f t="shared" si="2"/>
+      <c r="G79" s="25" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H79" s="21"/>
       <c r="I79" s="21"/>
       <c r="J79" s="19"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="19">
-        <v>75</v>
-      </c>
-      <c r="B80" s="25"/>
+        <v>71</v>
+      </c>
+      <c r="B80" s="24"/>
       <c r="C80" s="20"/>
       <c r="D80" s="20"/>
       <c r="E80" s="20"/>
       <c r="F80" s="21"/>
-      <c r="G80" s="26" t="str">
-        <f t="shared" si="2"/>
+      <c r="G80" s="25" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H80" s="21"/>
       <c r="I80" s="21"/>
       <c r="J80" s="19"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="19">
-        <v>76</v>
-      </c>
-      <c r="B81" s="25"/>
+        <v>72</v>
+      </c>
+      <c r="B81" s="24"/>
       <c r="C81" s="20"/>
       <c r="D81" s="20"/>
       <c r="E81" s="20"/>
       <c r="F81" s="21"/>
-      <c r="G81" s="26" t="str">
-        <f t="shared" si="2"/>
+      <c r="G81" s="25" t="str">
+        <f>IF(B81&lt;&gt;"",$C$5+I81,"")</f>
         <v/>
       </c>
       <c r="H81" s="21"/>
       <c r="I81" s="21"/>
       <c r="J81" s="19"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="19">
-        <v>77</v>
-      </c>
-      <c r="B82" s="25"/>
+        <v>73</v>
+      </c>
+      <c r="B82" s="24"/>
       <c r="C82" s="20"/>
       <c r="D82" s="20"/>
       <c r="E82" s="20"/>
       <c r="F82" s="21"/>
-      <c r="G82" s="26" t="str">
-        <f t="shared" si="2"/>
+      <c r="G82" s="25" t="str">
+        <f>IF(B82&lt;&gt;"",G81+I82,"")</f>
         <v/>
       </c>
       <c r="H82" s="21"/>
       <c r="I82" s="21"/>
       <c r="J82" s="19"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="19">
-        <v>78</v>
-      </c>
-      <c r="B83" s="25"/>
+        <v>74</v>
+      </c>
+      <c r="B83" s="24"/>
       <c r="C83" s="20"/>
       <c r="D83" s="20"/>
       <c r="E83" s="20"/>
       <c r="F83" s="21"/>
-      <c r="G83" s="26" t="str">
-        <f t="shared" si="2"/>
+      <c r="G83" s="25" t="str">
+        <f t="shared" ref="G83:G146" si="4">IF(B83&lt;&gt;"",G82+I83,"")</f>
         <v/>
       </c>
       <c r="H83" s="21"/>
       <c r="I83" s="21"/>
       <c r="J83" s="19"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="19">
-        <v>79</v>
-      </c>
-      <c r="B84" s="25"/>
+        <v>75</v>
+      </c>
+      <c r="B84" s="24"/>
       <c r="C84" s="20"/>
       <c r="D84" s="20"/>
       <c r="E84" s="20"/>
       <c r="F84" s="21"/>
-      <c r="G84" s="26" t="str">
-        <f t="shared" si="2"/>
+      <c r="G84" s="25" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H84" s="21"/>
       <c r="I84" s="21"/>
       <c r="J84" s="19"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="19">
-        <v>80</v>
-      </c>
-      <c r="B85" s="25"/>
+        <v>76</v>
+      </c>
+      <c r="B85" s="24"/>
       <c r="C85" s="20"/>
       <c r="D85" s="20"/>
       <c r="E85" s="20"/>
       <c r="F85" s="21"/>
-      <c r="G85" s="26" t="str">
-        <f t="shared" si="2"/>
+      <c r="G85" s="25" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H85" s="21"/>
       <c r="I85" s="21"/>
       <c r="J85" s="19"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="19">
-        <v>81</v>
-      </c>
-      <c r="B86" s="25"/>
+        <v>77</v>
+      </c>
+      <c r="B86" s="24"/>
       <c r="C86" s="20"/>
       <c r="D86" s="20"/>
       <c r="E86" s="20"/>
       <c r="F86" s="21"/>
-      <c r="G86" s="26" t="str">
-        <f t="shared" si="2"/>
+      <c r="G86" s="25" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H86" s="21"/>
       <c r="I86" s="21"/>
       <c r="J86" s="19"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="19">
-        <v>82</v>
-      </c>
-      <c r="B87" s="25"/>
+        <v>78</v>
+      </c>
+      <c r="B87" s="24"/>
       <c r="C87" s="20"/>
       <c r="D87" s="20"/>
       <c r="E87" s="20"/>
       <c r="F87" s="21"/>
-      <c r="G87" s="26" t="str">
-        <f t="shared" si="2"/>
+      <c r="G87" s="25" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H87" s="21"/>
       <c r="I87" s="21"/>
       <c r="J87" s="19"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="19">
-        <v>83</v>
-      </c>
-      <c r="B88" s="25"/>
+        <v>79</v>
+      </c>
+      <c r="B88" s="24"/>
       <c r="C88" s="20"/>
       <c r="D88" s="20"/>
       <c r="E88" s="20"/>
       <c r="F88" s="21"/>
-      <c r="G88" s="26" t="str">
-        <f t="shared" si="2"/>
+      <c r="G88" s="25" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H88" s="21"/>
       <c r="I88" s="21"/>
       <c r="J88" s="19"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="19">
-        <v>84</v>
-      </c>
-      <c r="B89" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="B89" s="24"/>
       <c r="C89" s="20"/>
       <c r="D89" s="20"/>
       <c r="E89" s="20"/>
       <c r="F89" s="21"/>
-      <c r="G89" s="26" t="str">
-        <f t="shared" si="2"/>
+      <c r="G89" s="25" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H89" s="21"/>
       <c r="I89" s="21"/>
       <c r="J89" s="19"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="19">
-        <v>85</v>
-      </c>
-      <c r="B90" s="25"/>
+        <v>81</v>
+      </c>
+      <c r="B90" s="24"/>
       <c r="C90" s="20"/>
       <c r="D90" s="20"/>
       <c r="E90" s="20"/>
       <c r="F90" s="21"/>
-      <c r="G90" s="26" t="str">
-        <f t="shared" si="2"/>
+      <c r="G90" s="25" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H90" s="21"/>
       <c r="I90" s="21"/>
       <c r="J90" s="19"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="19">
-        <v>86</v>
-      </c>
-      <c r="B91" s="25"/>
+        <v>82</v>
+      </c>
+      <c r="B91" s="24"/>
       <c r="C91" s="20"/>
       <c r="D91" s="20"/>
       <c r="E91" s="20"/>
       <c r="F91" s="21"/>
-      <c r="G91" s="26" t="str">
-        <f t="shared" si="2"/>
+      <c r="G91" s="25" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H91" s="21"/>
       <c r="I91" s="21"/>
       <c r="J91" s="19"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="19">
-        <v>87</v>
-      </c>
-      <c r="B92" s="25"/>
+        <v>83</v>
+      </c>
+      <c r="B92" s="24"/>
       <c r="C92" s="20"/>
       <c r="D92" s="20"/>
       <c r="E92" s="20"/>
       <c r="F92" s="21"/>
-      <c r="G92" s="26" t="str">
-        <f t="shared" si="2"/>
+      <c r="G92" s="25" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H92" s="21"/>
       <c r="I92" s="21"/>
       <c r="J92" s="19"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="19">
-        <v>88</v>
-      </c>
-      <c r="B93" s="25"/>
+        <v>84</v>
+      </c>
+      <c r="B93" s="24"/>
       <c r="C93" s="20"/>
       <c r="D93" s="20"/>
       <c r="E93" s="20"/>
       <c r="F93" s="21"/>
-      <c r="G93" s="26" t="str">
-        <f t="shared" si="2"/>
+      <c r="G93" s="25" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H93" s="21"/>
       <c r="I93" s="21"/>
       <c r="J93" s="19"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="19">
-        <v>89</v>
-      </c>
-      <c r="B94" s="25"/>
+        <v>85</v>
+      </c>
+      <c r="B94" s="24"/>
       <c r="C94" s="20"/>
       <c r="D94" s="20"/>
       <c r="E94" s="20"/>
       <c r="F94" s="21"/>
-      <c r="G94" s="26" t="str">
-        <f t="shared" si="2"/>
+      <c r="G94" s="25" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H94" s="21"/>
       <c r="I94" s="21"/>
       <c r="J94" s="19"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="19">
-        <v>90</v>
-      </c>
-      <c r="B95" s="25"/>
+        <v>86</v>
+      </c>
+      <c r="B95" s="24"/>
       <c r="C95" s="20"/>
       <c r="D95" s="20"/>
       <c r="E95" s="20"/>
       <c r="F95" s="21"/>
-      <c r="G95" s="26" t="str">
-        <f t="shared" si="2"/>
+      <c r="G95" s="25" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H95" s="21"/>
       <c r="I95" s="21"/>
       <c r="J95" s="19"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="19">
-        <v>91</v>
-      </c>
-      <c r="B96" s="25"/>
+        <v>87</v>
+      </c>
+      <c r="B96" s="24"/>
       <c r="C96" s="20"/>
       <c r="D96" s="20"/>
       <c r="E96" s="20"/>
       <c r="F96" s="21"/>
-      <c r="G96" s="26" t="str">
-        <f t="shared" si="2"/>
+      <c r="G96" s="25" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H96" s="21"/>
       <c r="I96" s="21"/>
       <c r="J96" s="19"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="19">
-        <v>92</v>
-      </c>
-      <c r="B97" s="25"/>
+        <v>88</v>
+      </c>
+      <c r="B97" s="24"/>
       <c r="C97" s="20"/>
       <c r="D97" s="20"/>
       <c r="E97" s="20"/>
       <c r="F97" s="21"/>
-      <c r="G97" s="26" t="str">
-        <f t="shared" si="2"/>
+      <c r="G97" s="25" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H97" s="21"/>
       <c r="I97" s="21"/>
       <c r="J97" s="19"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="19">
-        <v>93</v>
-      </c>
-      <c r="B98" s="25"/>
+        <v>89</v>
+      </c>
+      <c r="B98" s="24"/>
       <c r="C98" s="20"/>
       <c r="D98" s="20"/>
       <c r="E98" s="20"/>
       <c r="F98" s="21"/>
-      <c r="G98" s="26" t="str">
-        <f t="shared" si="2"/>
+      <c r="G98" s="25" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H98" s="21"/>
       <c r="I98" s="21"/>
       <c r="J98" s="19"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="19">
-        <v>94</v>
-      </c>
-      <c r="B99" s="25"/>
+        <v>90</v>
+      </c>
+      <c r="B99" s="24"/>
       <c r="C99" s="20"/>
       <c r="D99" s="20"/>
       <c r="E99" s="20"/>
       <c r="F99" s="21"/>
-      <c r="G99" s="26" t="str">
-        <f t="shared" si="2"/>
+      <c r="G99" s="25" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H99" s="21"/>
       <c r="I99" s="21"/>
       <c r="J99" s="19"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="19">
-        <v>95</v>
-      </c>
-      <c r="B100" s="25"/>
+        <v>91</v>
+      </c>
+      <c r="B100" s="24"/>
       <c r="C100" s="20"/>
       <c r="D100" s="20"/>
       <c r="E100" s="20"/>
       <c r="F100" s="21"/>
-      <c r="G100" s="26" t="str">
-        <f t="shared" si="2"/>
+      <c r="G100" s="25" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H100" s="21"/>
       <c r="I100" s="21"/>
       <c r="J100" s="19"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="19">
-        <v>96</v>
-      </c>
-      <c r="B101" s="25"/>
+        <v>92</v>
+      </c>
+      <c r="B101" s="24"/>
       <c r="C101" s="20"/>
       <c r="D101" s="20"/>
       <c r="E101" s="20"/>
       <c r="F101" s="21"/>
-      <c r="G101" s="26" t="str">
-        <f t="shared" si="2"/>
+      <c r="G101" s="25" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H101" s="21"/>
       <c r="I101" s="21"/>
       <c r="J101" s="19"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="19">
-        <v>97</v>
-      </c>
-      <c r="B102" s="25"/>
+        <v>93</v>
+      </c>
+      <c r="B102" s="24"/>
       <c r="C102" s="20"/>
       <c r="D102" s="20"/>
       <c r="E102" s="20"/>
       <c r="F102" s="21"/>
-      <c r="G102" s="26" t="str">
-        <f t="shared" si="2"/>
+      <c r="G102" s="25" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H102" s="21"/>
       <c r="I102" s="21"/>
       <c r="J102" s="19"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="19">
-        <v>98</v>
-      </c>
-      <c r="B103" s="25"/>
+        <v>94</v>
+      </c>
+      <c r="B103" s="24"/>
       <c r="C103" s="20"/>
       <c r="D103" s="20"/>
       <c r="E103" s="20"/>
       <c r="F103" s="21"/>
-      <c r="G103" s="26" t="str">
-        <f t="shared" si="2"/>
+      <c r="G103" s="25" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H103" s="21"/>
       <c r="I103" s="21"/>
       <c r="J103" s="19"/>
-      <c r="K103" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="L103" s="35">
-        <f>SUM(I10:I105)</f>
-        <v>0</v>
-      </c>
-      <c r="M103" s="36"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="19">
-        <v>99</v>
-      </c>
-      <c r="B104" s="25"/>
+        <v>95</v>
+      </c>
+      <c r="B104" s="24"/>
       <c r="C104" s="20"/>
       <c r="D104" s="20"/>
       <c r="E104" s="20"/>
       <c r="F104" s="21"/>
-      <c r="G104" s="26" t="str">
-        <f t="shared" si="2"/>
+      <c r="G104" s="25" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H104" s="21"/>
       <c r="I104" s="21"/>
       <c r="J104" s="19"/>
-      <c r="K104" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="L104" s="38">
-        <f>SUMIF(J10:J105,"M",I10:I105)</f>
-        <v>0</v>
-      </c>
-      <c r="M104" s="39" t="e">
-        <f>L104/L103</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="19">
-        <v>100</v>
-      </c>
-      <c r="B105" s="25"/>
+        <v>96</v>
+      </c>
+      <c r="B105" s="24"/>
       <c r="C105" s="20"/>
       <c r="D105" s="20"/>
       <c r="E105" s="20"/>
       <c r="F105" s="21"/>
-      <c r="G105" s="26" t="str">
-        <f t="shared" si="2"/>
+      <c r="G105" s="25" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H105" s="21"/>
       <c r="I105" s="21"/>
       <c r="J105" s="19"/>
-      <c r="K105" s="40" t="s">
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106" s="19">
+        <v>97</v>
+      </c>
+      <c r="B106" s="24"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="20"/>
+      <c r="F106" s="21"/>
+      <c r="G106" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H106" s="21"/>
+      <c r="I106" s="21"/>
+      <c r="J106" s="19"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A107" s="19">
+        <v>98</v>
+      </c>
+      <c r="B107" s="24"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="20"/>
+      <c r="E107" s="20"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H107" s="21"/>
+      <c r="I107" s="21"/>
+      <c r="J107" s="19"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A108" s="19">
+        <v>99</v>
+      </c>
+      <c r="B108" s="24"/>
+      <c r="C108" s="20"/>
+      <c r="D108" s="20"/>
+      <c r="E108" s="20"/>
+      <c r="F108" s="21"/>
+      <c r="G108" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H108" s="21"/>
+      <c r="I108" s="21"/>
+      <c r="J108" s="19"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A109" s="19">
+        <v>100</v>
+      </c>
+      <c r="B109" s="24"/>
+      <c r="C109" s="20"/>
+      <c r="D109" s="20"/>
+      <c r="E109" s="20"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H109" s="21"/>
+      <c r="I109" s="21"/>
+      <c r="J109" s="19"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A110" s="19">
+        <v>101</v>
+      </c>
+      <c r="B110" s="24"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="20"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H110" s="21"/>
+      <c r="I110" s="21"/>
+      <c r="J110" s="19"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A111" s="19">
+        <v>102</v>
+      </c>
+      <c r="B111" s="24"/>
+      <c r="C111" s="20"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="20"/>
+      <c r="F111" s="21"/>
+      <c r="G111" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H111" s="21"/>
+      <c r="I111" s="21"/>
+      <c r="J111" s="19"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A112" s="19">
+        <v>103</v>
+      </c>
+      <c r="B112" s="24"/>
+      <c r="C112" s="20"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="20"/>
+      <c r="F112" s="21"/>
+      <c r="G112" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H112" s="21"/>
+      <c r="I112" s="21"/>
+      <c r="J112" s="19"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A113" s="19">
+        <v>104</v>
+      </c>
+      <c r="B113" s="24"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="21"/>
+      <c r="G113" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H113" s="21"/>
+      <c r="I113" s="21"/>
+      <c r="J113" s="19"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A114" s="19">
+        <v>105</v>
+      </c>
+      <c r="B114" s="24"/>
+      <c r="C114" s="20"/>
+      <c r="D114" s="20"/>
+      <c r="E114" s="20"/>
+      <c r="F114" s="21"/>
+      <c r="G114" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H114" s="21"/>
+      <c r="I114" s="21"/>
+      <c r="J114" s="19"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A115" s="19">
+        <v>106</v>
+      </c>
+      <c r="B115" s="24"/>
+      <c r="C115" s="20"/>
+      <c r="D115" s="20"/>
+      <c r="E115" s="20"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H115" s="21"/>
+      <c r="I115" s="21"/>
+      <c r="J115" s="19"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A116" s="19">
+        <v>107</v>
+      </c>
+      <c r="B116" s="24"/>
+      <c r="C116" s="20"/>
+      <c r="D116" s="20"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="21"/>
+      <c r="G116" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H116" s="21"/>
+      <c r="I116" s="21"/>
+      <c r="J116" s="19"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A117" s="19">
+        <v>108</v>
+      </c>
+      <c r="B117" s="24"/>
+      <c r="C117" s="20"/>
+      <c r="D117" s="20"/>
+      <c r="E117" s="20"/>
+      <c r="F117" s="21"/>
+      <c r="G117" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H117" s="21"/>
+      <c r="I117" s="21"/>
+      <c r="J117" s="19"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A118" s="19">
+        <v>109</v>
+      </c>
+      <c r="B118" s="24"/>
+      <c r="C118" s="20"/>
+      <c r="D118" s="20"/>
+      <c r="E118" s="20"/>
+      <c r="F118" s="21"/>
+      <c r="G118" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H118" s="21"/>
+      <c r="I118" s="21"/>
+      <c r="J118" s="19"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119" s="19">
+        <v>110</v>
+      </c>
+      <c r="B119" s="24"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="20"/>
+      <c r="E119" s="20"/>
+      <c r="F119" s="21"/>
+      <c r="G119" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H119" s="21"/>
+      <c r="I119" s="21"/>
+      <c r="J119" s="19"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A120" s="19">
+        <v>111</v>
+      </c>
+      <c r="B120" s="24"/>
+      <c r="C120" s="20"/>
+      <c r="D120" s="20"/>
+      <c r="E120" s="20"/>
+      <c r="F120" s="21"/>
+      <c r="G120" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H120" s="21"/>
+      <c r="I120" s="21"/>
+      <c r="J120" s="19"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A121" s="19">
+        <v>112</v>
+      </c>
+      <c r="B121" s="24"/>
+      <c r="C121" s="20"/>
+      <c r="D121" s="20"/>
+      <c r="E121" s="20"/>
+      <c r="F121" s="21"/>
+      <c r="G121" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H121" s="21"/>
+      <c r="I121" s="21"/>
+      <c r="J121" s="19"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A122" s="19">
+        <v>113</v>
+      </c>
+      <c r="B122" s="24"/>
+      <c r="C122" s="20"/>
+      <c r="D122" s="20"/>
+      <c r="E122" s="20"/>
+      <c r="F122" s="21"/>
+      <c r="G122" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H122" s="21"/>
+      <c r="I122" s="21"/>
+      <c r="J122" s="19"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A123" s="19">
+        <v>114</v>
+      </c>
+      <c r="B123" s="24"/>
+      <c r="C123" s="20"/>
+      <c r="D123" s="20"/>
+      <c r="E123" s="20"/>
+      <c r="F123" s="21"/>
+      <c r="G123" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H123" s="21"/>
+      <c r="I123" s="21"/>
+      <c r="J123" s="19"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A124" s="19">
+        <v>115</v>
+      </c>
+      <c r="B124" s="24"/>
+      <c r="C124" s="20"/>
+      <c r="D124" s="20"/>
+      <c r="E124" s="20"/>
+      <c r="F124" s="21"/>
+      <c r="G124" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H124" s="21"/>
+      <c r="I124" s="21"/>
+      <c r="J124" s="19"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125" s="19">
+        <v>116</v>
+      </c>
+      <c r="B125" s="24"/>
+      <c r="C125" s="20"/>
+      <c r="D125" s="20"/>
+      <c r="E125" s="20"/>
+      <c r="F125" s="21"/>
+      <c r="G125" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H125" s="21"/>
+      <c r="I125" s="21"/>
+      <c r="J125" s="19"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A126" s="19">
+        <v>117</v>
+      </c>
+      <c r="B126" s="24"/>
+      <c r="C126" s="20"/>
+      <c r="D126" s="20"/>
+      <c r="E126" s="20"/>
+      <c r="F126" s="21"/>
+      <c r="G126" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H126" s="21"/>
+      <c r="I126" s="21"/>
+      <c r="J126" s="19"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A127" s="19">
+        <v>118</v>
+      </c>
+      <c r="B127" s="24"/>
+      <c r="C127" s="20"/>
+      <c r="D127" s="20"/>
+      <c r="E127" s="20"/>
+      <c r="F127" s="21"/>
+      <c r="G127" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H127" s="21"/>
+      <c r="I127" s="21"/>
+      <c r="J127" s="19"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A128" s="19">
+        <v>119</v>
+      </c>
+      <c r="B128" s="24"/>
+      <c r="C128" s="20"/>
+      <c r="D128" s="20"/>
+      <c r="E128" s="20"/>
+      <c r="F128" s="21"/>
+      <c r="G128" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H128" s="21"/>
+      <c r="I128" s="21"/>
+      <c r="J128" s="19"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129" s="19">
+        <v>120</v>
+      </c>
+      <c r="B129" s="24"/>
+      <c r="C129" s="20"/>
+      <c r="D129" s="20"/>
+      <c r="E129" s="20"/>
+      <c r="F129" s="21"/>
+      <c r="G129" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H129" s="21"/>
+      <c r="I129" s="21"/>
+      <c r="J129" s="19"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130" s="19">
+        <v>121</v>
+      </c>
+      <c r="B130" s="24"/>
+      <c r="C130" s="20"/>
+      <c r="D130" s="20"/>
+      <c r="E130" s="20"/>
+      <c r="F130" s="21"/>
+      <c r="G130" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H130" s="21"/>
+      <c r="I130" s="21"/>
+      <c r="J130" s="19"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131" s="19">
+        <v>122</v>
+      </c>
+      <c r="B131" s="24"/>
+      <c r="C131" s="20"/>
+      <c r="D131" s="20"/>
+      <c r="E131" s="20"/>
+      <c r="F131" s="21"/>
+      <c r="G131" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H131" s="21"/>
+      <c r="I131" s="21"/>
+      <c r="J131" s="19"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132" s="19">
+        <v>123</v>
+      </c>
+      <c r="B132" s="24"/>
+      <c r="C132" s="20"/>
+      <c r="D132" s="20"/>
+      <c r="E132" s="20"/>
+      <c r="F132" s="21"/>
+      <c r="G132" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H132" s="21"/>
+      <c r="I132" s="21"/>
+      <c r="J132" s="19"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A133" s="19">
+        <v>124</v>
+      </c>
+      <c r="B133" s="24"/>
+      <c r="C133" s="20"/>
+      <c r="D133" s="20"/>
+      <c r="E133" s="20"/>
+      <c r="F133" s="21"/>
+      <c r="G133" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H133" s="21"/>
+      <c r="I133" s="21"/>
+      <c r="J133" s="19"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134" s="19">
+        <v>125</v>
+      </c>
+      <c r="B134" s="24"/>
+      <c r="C134" s="20"/>
+      <c r="D134" s="20"/>
+      <c r="E134" s="20"/>
+      <c r="F134" s="21"/>
+      <c r="G134" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H134" s="21"/>
+      <c r="I134" s="21"/>
+      <c r="J134" s="19"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A135" s="19">
+        <v>126</v>
+      </c>
+      <c r="B135" s="24"/>
+      <c r="C135" s="20"/>
+      <c r="D135" s="20"/>
+      <c r="E135" s="20"/>
+      <c r="F135" s="21"/>
+      <c r="G135" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H135" s="21"/>
+      <c r="I135" s="21"/>
+      <c r="J135" s="19"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A136" s="19">
+        <v>127</v>
+      </c>
+      <c r="B136" s="24"/>
+      <c r="C136" s="20"/>
+      <c r="D136" s="20"/>
+      <c r="E136" s="20"/>
+      <c r="F136" s="21"/>
+      <c r="G136" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H136" s="21"/>
+      <c r="I136" s="21"/>
+      <c r="J136" s="19"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A137" s="19">
+        <v>128</v>
+      </c>
+      <c r="B137" s="24"/>
+      <c r="C137" s="20"/>
+      <c r="D137" s="20"/>
+      <c r="E137" s="20"/>
+      <c r="F137" s="21"/>
+      <c r="G137" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H137" s="21"/>
+      <c r="I137" s="21"/>
+      <c r="J137" s="19"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A138" s="19">
+        <v>129</v>
+      </c>
+      <c r="B138" s="24"/>
+      <c r="C138" s="20"/>
+      <c r="D138" s="20"/>
+      <c r="E138" s="20"/>
+      <c r="F138" s="21"/>
+      <c r="G138" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H138" s="21"/>
+      <c r="I138" s="21"/>
+      <c r="J138" s="19"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A139" s="19">
+        <v>130</v>
+      </c>
+      <c r="B139" s="24"/>
+      <c r="C139" s="20"/>
+      <c r="D139" s="20"/>
+      <c r="E139" s="20"/>
+      <c r="F139" s="21"/>
+      <c r="G139" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H139" s="21"/>
+      <c r="I139" s="21"/>
+      <c r="J139" s="19"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A140" s="19">
+        <v>131</v>
+      </c>
+      <c r="B140" s="24"/>
+      <c r="C140" s="20"/>
+      <c r="D140" s="20"/>
+      <c r="E140" s="20"/>
+      <c r="F140" s="21"/>
+      <c r="G140" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H140" s="21"/>
+      <c r="I140" s="21"/>
+      <c r="J140" s="19"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A141" s="19">
+        <v>132</v>
+      </c>
+      <c r="B141" s="24"/>
+      <c r="C141" s="20"/>
+      <c r="D141" s="20"/>
+      <c r="E141" s="20"/>
+      <c r="F141" s="21"/>
+      <c r="G141" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H141" s="21"/>
+      <c r="I141" s="21"/>
+      <c r="J141" s="19"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A142" s="19">
+        <v>133</v>
+      </c>
+      <c r="B142" s="24"/>
+      <c r="C142" s="20"/>
+      <c r="D142" s="20"/>
+      <c r="E142" s="20"/>
+      <c r="F142" s="21"/>
+      <c r="G142" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H142" s="21"/>
+      <c r="I142" s="21"/>
+      <c r="J142" s="19"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A143" s="19">
+        <v>134</v>
+      </c>
+      <c r="B143" s="24"/>
+      <c r="C143" s="20"/>
+      <c r="D143" s="20"/>
+      <c r="E143" s="20"/>
+      <c r="F143" s="21"/>
+      <c r="G143" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H143" s="21"/>
+      <c r="I143" s="21"/>
+      <c r="J143" s="19"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A144" s="19">
+        <v>135</v>
+      </c>
+      <c r="B144" s="24"/>
+      <c r="C144" s="20"/>
+      <c r="D144" s="20"/>
+      <c r="E144" s="20"/>
+      <c r="F144" s="21"/>
+      <c r="G144" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H144" s="21"/>
+      <c r="I144" s="21"/>
+      <c r="J144" s="19"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A145" s="19">
+        <v>136</v>
+      </c>
+      <c r="B145" s="24"/>
+      <c r="C145" s="20"/>
+      <c r="D145" s="20"/>
+      <c r="E145" s="20"/>
+      <c r="F145" s="21"/>
+      <c r="G145" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H145" s="21"/>
+      <c r="I145" s="21"/>
+      <c r="J145" s="19"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A146" s="19">
+        <v>137</v>
+      </c>
+      <c r="B146" s="24"/>
+      <c r="C146" s="20"/>
+      <c r="D146" s="20"/>
+      <c r="E146" s="20"/>
+      <c r="F146" s="21"/>
+      <c r="G146" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H146" s="21"/>
+      <c r="I146" s="21"/>
+      <c r="J146" s="19"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A147" s="19">
+        <v>138</v>
+      </c>
+      <c r="B147" s="24"/>
+      <c r="C147" s="20"/>
+      <c r="D147" s="20"/>
+      <c r="E147" s="20"/>
+      <c r="F147" s="21"/>
+      <c r="G147" s="25" t="str">
+        <f t="shared" ref="G147:G161" si="5">IF(B147&lt;&gt;"",G146+I147,"")</f>
+        <v/>
+      </c>
+      <c r="H147" s="21"/>
+      <c r="I147" s="21"/>
+      <c r="J147" s="19"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A148" s="19">
+        <v>139</v>
+      </c>
+      <c r="B148" s="24"/>
+      <c r="C148" s="20"/>
+      <c r="D148" s="20"/>
+      <c r="E148" s="20"/>
+      <c r="F148" s="21"/>
+      <c r="G148" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H148" s="21"/>
+      <c r="I148" s="21"/>
+      <c r="J148" s="19"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A149" s="19">
+        <v>140</v>
+      </c>
+      <c r="B149" s="24"/>
+      <c r="C149" s="20"/>
+      <c r="D149" s="20"/>
+      <c r="E149" s="20"/>
+      <c r="F149" s="21"/>
+      <c r="G149" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H149" s="21"/>
+      <c r="I149" s="21"/>
+      <c r="J149" s="19"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A150" s="19">
+        <v>141</v>
+      </c>
+      <c r="B150" s="24"/>
+      <c r="C150" s="20"/>
+      <c r="D150" s="20"/>
+      <c r="E150" s="20"/>
+      <c r="F150" s="21"/>
+      <c r="G150" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H150" s="21"/>
+      <c r="I150" s="21"/>
+      <c r="J150" s="19"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A151" s="19">
+        <v>142</v>
+      </c>
+      <c r="B151" s="24"/>
+      <c r="C151" s="20"/>
+      <c r="D151" s="20"/>
+      <c r="E151" s="20"/>
+      <c r="F151" s="21"/>
+      <c r="G151" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H151" s="21"/>
+      <c r="I151" s="21"/>
+      <c r="J151" s="19"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A152" s="19">
+        <v>143</v>
+      </c>
+      <c r="B152" s="24"/>
+      <c r="C152" s="20"/>
+      <c r="D152" s="20"/>
+      <c r="E152" s="20"/>
+      <c r="F152" s="21"/>
+      <c r="G152" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H152" s="21"/>
+      <c r="I152" s="21"/>
+      <c r="J152" s="19"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A153" s="19">
+        <v>144</v>
+      </c>
+      <c r="B153" s="24"/>
+      <c r="C153" s="20"/>
+      <c r="D153" s="20"/>
+      <c r="E153" s="20"/>
+      <c r="F153" s="21"/>
+      <c r="G153" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H153" s="21"/>
+      <c r="I153" s="21"/>
+      <c r="J153" s="19"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A154" s="19">
+        <v>145</v>
+      </c>
+      <c r="B154" s="24"/>
+      <c r="C154" s="20"/>
+      <c r="D154" s="20"/>
+      <c r="E154" s="20"/>
+      <c r="F154" s="21"/>
+      <c r="G154" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H154" s="21"/>
+      <c r="I154" s="21"/>
+      <c r="J154" s="19"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A155" s="19">
+        <v>146</v>
+      </c>
+      <c r="B155" s="24"/>
+      <c r="C155" s="20"/>
+      <c r="D155" s="20"/>
+      <c r="E155" s="20"/>
+      <c r="F155" s="21"/>
+      <c r="G155" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H155" s="21"/>
+      <c r="I155" s="21"/>
+      <c r="J155" s="19"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A156" s="19">
+        <v>147</v>
+      </c>
+      <c r="B156" s="24"/>
+      <c r="C156" s="20"/>
+      <c r="D156" s="20"/>
+      <c r="E156" s="20"/>
+      <c r="F156" s="21"/>
+      <c r="G156" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H156" s="21"/>
+      <c r="I156" s="21"/>
+      <c r="J156" s="19"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A157" s="19">
+        <v>148</v>
+      </c>
+      <c r="B157" s="24"/>
+      <c r="C157" s="20"/>
+      <c r="D157" s="20"/>
+      <c r="E157" s="20"/>
+      <c r="F157" s="21"/>
+      <c r="G157" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H157" s="21"/>
+      <c r="I157" s="21"/>
+      <c r="J157" s="19"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A158" s="19">
+        <v>149</v>
+      </c>
+      <c r="B158" s="24"/>
+      <c r="C158" s="20"/>
+      <c r="D158" s="20"/>
+      <c r="E158" s="20"/>
+      <c r="F158" s="21"/>
+      <c r="G158" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H158" s="21"/>
+      <c r="I158" s="21"/>
+      <c r="J158" s="19"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A159" s="19">
+        <v>150</v>
+      </c>
+      <c r="B159" s="24"/>
+      <c r="C159" s="20"/>
+      <c r="D159" s="20"/>
+      <c r="E159" s="20"/>
+      <c r="F159" s="21"/>
+      <c r="G159" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H159" s="21"/>
+      <c r="I159" s="21"/>
+      <c r="J159" s="19"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A160" s="19">
+        <v>151</v>
+      </c>
+      <c r="B160" s="24"/>
+      <c r="C160" s="20"/>
+      <c r="D160" s="20"/>
+      <c r="E160" s="20"/>
+      <c r="F160" s="21"/>
+      <c r="G160" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H160" s="21"/>
+      <c r="I160" s="21"/>
+      <c r="J160" s="19"/>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A161" s="19">
+        <v>152</v>
+      </c>
+      <c r="B161" s="24"/>
+      <c r="C161" s="20"/>
+      <c r="D161" s="20"/>
+      <c r="E161" s="20"/>
+      <c r="F161" s="21"/>
+      <c r="G161" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H161" s="21"/>
+      <c r="I161" s="21"/>
+      <c r="J161" s="19"/>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A162" s="19">
+        <v>153</v>
+      </c>
+      <c r="B162" s="24"/>
+      <c r="C162" s="20"/>
+      <c r="D162" s="20"/>
+      <c r="E162" s="20"/>
+      <c r="F162" s="21"/>
+      <c r="G162" s="25" t="str">
+        <f>IF(B162&lt;&gt;"",G146+I162,"")</f>
+        <v/>
+      </c>
+      <c r="H162" s="21"/>
+      <c r="I162" s="21"/>
+      <c r="J162" s="19"/>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A163" s="19">
+        <v>154</v>
+      </c>
+      <c r="B163" s="24"/>
+      <c r="C163" s="20"/>
+      <c r="D163" s="20"/>
+      <c r="E163" s="20"/>
+      <c r="F163" s="21"/>
+      <c r="G163" s="25" t="str">
+        <f t="shared" ref="G163:G169" si="6">IF(B163&lt;&gt;"",G162+I163,"")</f>
+        <v/>
+      </c>
+      <c r="H163" s="21"/>
+      <c r="I163" s="21"/>
+      <c r="J163" s="19"/>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A164" s="19">
+        <v>155</v>
+      </c>
+      <c r="B164" s="24"/>
+      <c r="C164" s="20"/>
+      <c r="D164" s="20"/>
+      <c r="E164" s="20"/>
+      <c r="F164" s="21"/>
+      <c r="G164" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H164" s="21"/>
+      <c r="I164" s="21"/>
+      <c r="J164" s="19"/>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A165" s="19">
+        <v>156</v>
+      </c>
+      <c r="B165" s="24"/>
+      <c r="C165" s="20"/>
+      <c r="D165" s="20"/>
+      <c r="E165" s="20"/>
+      <c r="F165" s="21"/>
+      <c r="G165" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H165" s="21"/>
+      <c r="I165" s="21"/>
+      <c r="J165" s="19"/>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A166" s="19">
+        <v>157</v>
+      </c>
+      <c r="B166" s="24"/>
+      <c r="C166" s="20"/>
+      <c r="D166" s="20"/>
+      <c r="E166" s="20"/>
+      <c r="F166" s="21"/>
+      <c r="G166" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H166" s="21"/>
+      <c r="I166" s="21"/>
+      <c r="J166" s="19"/>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A167" s="19">
+        <v>158</v>
+      </c>
+      <c r="B167" s="24"/>
+      <c r="C167" s="20"/>
+      <c r="D167" s="20"/>
+      <c r="E167" s="20"/>
+      <c r="F167" s="21"/>
+      <c r="G167" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H167" s="21"/>
+      <c r="I167" s="21"/>
+      <c r="J167" s="19"/>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A168" s="19">
+        <v>159</v>
+      </c>
+      <c r="B168" s="24"/>
+      <c r="C168" s="20"/>
+      <c r="D168" s="20"/>
+      <c r="E168" s="20"/>
+      <c r="F168" s="21"/>
+      <c r="G168" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H168" s="21"/>
+      <c r="I168" s="21"/>
+      <c r="J168" s="19"/>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A169" s="19">
+        <v>160</v>
+      </c>
+      <c r="B169" s="24"/>
+      <c r="C169" s="20"/>
+      <c r="D169" s="20"/>
+      <c r="E169" s="20"/>
+      <c r="F169" s="21"/>
+      <c r="G169" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H169" s="21"/>
+      <c r="I169" s="21"/>
+      <c r="J169" s="19"/>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A170" s="19">
+        <v>161</v>
+      </c>
+      <c r="B170" s="24"/>
+      <c r="C170" s="20"/>
+      <c r="D170" s="20"/>
+      <c r="E170" s="20"/>
+      <c r="F170" s="21"/>
+      <c r="G170" s="25" t="str">
+        <f>IF(B170&lt;&gt;"",G146+I170,"")</f>
+        <v/>
+      </c>
+      <c r="H170" s="21"/>
+      <c r="I170" s="21"/>
+      <c r="J170" s="19"/>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A171" s="19">
+        <v>162</v>
+      </c>
+      <c r="B171" s="24"/>
+      <c r="C171" s="20"/>
+      <c r="D171" s="20"/>
+      <c r="E171" s="20"/>
+      <c r="F171" s="21"/>
+      <c r="G171" s="25" t="str">
+        <f t="shared" ref="G171:G174" si="7">IF(B171&lt;&gt;"",G170+I171,"")</f>
+        <v/>
+      </c>
+      <c r="H171" s="21"/>
+      <c r="I171" s="21"/>
+      <c r="J171" s="19"/>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A172" s="19">
+        <v>163</v>
+      </c>
+      <c r="B172" s="24"/>
+      <c r="C172" s="20"/>
+      <c r="D172" s="20"/>
+      <c r="E172" s="20"/>
+      <c r="F172" s="21"/>
+      <c r="G172" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H172" s="21"/>
+      <c r="I172" s="21"/>
+      <c r="J172" s="19"/>
+      <c r="K172" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="L172" s="34">
+        <f>SUM(I10:I105)</f>
+        <v>0</v>
+      </c>
+      <c r="M172" s="35"/>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A173" s="19">
+        <v>164</v>
+      </c>
+      <c r="B173" s="24"/>
+      <c r="C173" s="20"/>
+      <c r="D173" s="20"/>
+      <c r="E173" s="20"/>
+      <c r="F173" s="21"/>
+      <c r="G173" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H173" s="21"/>
+      <c r="I173" s="21"/>
+      <c r="J173" s="19"/>
+      <c r="K173" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="L173" s="37">
+        <f>SUMIF(J10:J105,"M",I10:I105)</f>
+        <v>0</v>
+      </c>
+      <c r="M173" s="38" t="e">
+        <f>L173/L172</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A174" s="19">
+        <v>165</v>
+      </c>
+      <c r="B174" s="24"/>
+      <c r="C174" s="20"/>
+      <c r="D174" s="20"/>
+      <c r="E174" s="20"/>
+      <c r="F174" s="21"/>
+      <c r="G174" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H174" s="21"/>
+      <c r="I174" s="21"/>
+      <c r="J174" s="19"/>
+      <c r="K174" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="L105" s="41">
-        <f>C5+L103</f>
+      <c r="L174" s="40">
+        <f>C5+L172</f>
         <v>0</v>
       </c>
-      <c r="M105" s="42"/>
+      <c r="M174" s="41"/>
     </row>
   </sheetData>
   <autoFilter ref="A9:J57" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -2814,7 +3969,7 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions gridLinesSet="0"/>
   <pageMargins left="0.27" right="0.25" top="0.39370078740157483" bottom="0.39370078740157483" header="0.35433070866141736" footer="0.35433070866141736"/>
-  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
   </headerFooter>

--- a/blank.xlsx
+++ b/blank.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tamás\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TT_GIT\UtnyilvantartoJava\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A39E691-9F1D-42A8-8B36-599613B52CD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6817B357-B224-4DCD-9132-7E1E91D2A043}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="453" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="453" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nyomtat" sheetId="4" r:id="rId1"/>
@@ -958,25 +958,25 @@
   </sheetPr>
   <dimension ref="A1:M174"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A138" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M153" sqref="M153"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="22" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="26" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="9" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="23"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -989,7 +989,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
@@ -1000,7 +1000,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="G3" s="8"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1025,7 +1025,7 @@
       <c r="G4" s="8"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>22</v>
       </c>
@@ -1034,13 +1034,10 @@
       <c r="F5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="8">
-        <f>SUM(I10:I105)</f>
-        <v>0</v>
-      </c>
+      <c r="G5" s="8"/>
       <c r="J5" s="30"/>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1049,15 +1046,12 @@
       <c r="F6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="9" t="e">
-        <f>100*G7/G5</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G6" s="9"/>
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
       <c r="J6" s="32"/>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
       <c r="F7" s="5" t="s">
         <v>21</v>
@@ -1067,7 +1061,7 @@
       <c r="I7" s="26"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -1095,7 +1089,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="B9" s="14" t="s">
         <v>17</v>
@@ -1121,7 +1115,7 @@
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>1</v>
       </c>
@@ -1138,7 +1132,7 @@
       <c r="I10" s="21"/>
       <c r="J10" s="19"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>2</v>
       </c>
@@ -1155,7 +1149,7 @@
       <c r="I11" s="21"/>
       <c r="J11" s="19"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>3</v>
       </c>
@@ -1175,7 +1169,7 @@
       <c r="L12" s="42"/>
       <c r="M12" s="42"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>4</v>
       </c>
@@ -1195,7 +1189,7 @@
       <c r="L13" s="42"/>
       <c r="M13" s="43"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>5</v>
       </c>
@@ -1212,7 +1206,7 @@
       <c r="I14" s="21"/>
       <c r="J14" s="19"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
         <v>6</v>
       </c>
@@ -1229,7 +1223,7 @@
       <c r="I15" s="21"/>
       <c r="J15" s="19"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
         <v>7</v>
       </c>
@@ -1246,7 +1240,7 @@
       <c r="I16" s="21"/>
       <c r="J16" s="19"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
         <v>8</v>
       </c>
@@ -1263,7 +1257,7 @@
       <c r="I17" s="21"/>
       <c r="J17" s="19"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>9</v>
       </c>
@@ -1280,7 +1274,7 @@
       <c r="I18" s="21"/>
       <c r="J18" s="19"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>10</v>
       </c>
@@ -1297,7 +1291,7 @@
       <c r="I19" s="21"/>
       <c r="J19" s="19"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>11</v>
       </c>
@@ -1314,7 +1308,7 @@
       <c r="I20" s="21"/>
       <c r="J20" s="19"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>12</v>
       </c>
@@ -1331,7 +1325,7 @@
       <c r="I21" s="21"/>
       <c r="J21" s="19"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>13</v>
       </c>
@@ -1348,7 +1342,7 @@
       <c r="I22" s="21"/>
       <c r="J22" s="19"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>14</v>
       </c>
@@ -1365,7 +1359,7 @@
       <c r="I23" s="21"/>
       <c r="J23" s="19"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>15</v>
       </c>
@@ -1382,7 +1376,7 @@
       <c r="I24" s="21"/>
       <c r="J24" s="19"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>16</v>
       </c>
@@ -1399,7 +1393,7 @@
       <c r="I25" s="21"/>
       <c r="J25" s="19"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>17</v>
       </c>
@@ -1416,7 +1410,7 @@
       <c r="I26" s="21"/>
       <c r="J26" s="19"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
         <v>18</v>
       </c>
@@ -1433,7 +1427,7 @@
       <c r="I27" s="21"/>
       <c r="J27" s="19"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
         <v>19</v>
       </c>
@@ -1450,7 +1444,7 @@
       <c r="I28" s="21"/>
       <c r="J28" s="19"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
         <v>20</v>
       </c>
@@ -1467,7 +1461,7 @@
       <c r="I29" s="21"/>
       <c r="J29" s="19"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
         <v>21</v>
       </c>
@@ -1484,7 +1478,7 @@
       <c r="I30" s="21"/>
       <c r="J30" s="19"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
         <v>22</v>
       </c>
@@ -1501,7 +1495,7 @@
       <c r="I31" s="21"/>
       <c r="J31" s="19"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="19">
         <v>23</v>
       </c>
@@ -1518,7 +1512,7 @@
       <c r="I32" s="21"/>
       <c r="J32" s="19"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>24</v>
       </c>
@@ -1535,7 +1529,7 @@
       <c r="I33" s="21"/>
       <c r="J33" s="19"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
         <v>25</v>
       </c>
@@ -1552,7 +1546,7 @@
       <c r="I34" s="21"/>
       <c r="J34" s="19"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="19">
         <v>26</v>
       </c>
@@ -1569,7 +1563,7 @@
       <c r="I35" s="21"/>
       <c r="J35" s="19"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="19">
         <v>27</v>
       </c>
@@ -1586,7 +1580,7 @@
       <c r="I36" s="21"/>
       <c r="J36" s="19"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="19">
         <v>28</v>
       </c>
@@ -1603,7 +1597,7 @@
       <c r="I37" s="21"/>
       <c r="J37" s="19"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="19">
         <v>29</v>
       </c>
@@ -1620,7 +1614,7 @@
       <c r="I38" s="21"/>
       <c r="J38" s="19"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="19">
         <v>30</v>
       </c>
@@ -1637,7 +1631,7 @@
       <c r="I39" s="21"/>
       <c r="J39" s="19"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="19">
         <v>31</v>
       </c>
@@ -1654,7 +1648,7 @@
       <c r="I40" s="21"/>
       <c r="J40" s="19"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="19">
         <v>32</v>
       </c>
@@ -1671,7 +1665,7 @@
       <c r="I41" s="21"/>
       <c r="J41" s="19"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="19">
         <v>33</v>
       </c>
@@ -1688,7 +1682,7 @@
       <c r="I42" s="21"/>
       <c r="J42" s="19"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="19">
         <v>34</v>
       </c>
@@ -1705,7 +1699,7 @@
       <c r="I43" s="21"/>
       <c r="J43" s="19"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="19">
         <v>35</v>
       </c>
@@ -1722,7 +1716,7 @@
       <c r="I44" s="21"/>
       <c r="J44" s="19"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="19">
         <v>36</v>
       </c>
@@ -1739,7 +1733,7 @@
       <c r="I45" s="21"/>
       <c r="J45" s="19"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="19">
         <v>37</v>
       </c>
@@ -1756,7 +1750,7 @@
       <c r="I46" s="21"/>
       <c r="J46" s="19"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="19">
         <v>38</v>
       </c>
@@ -1773,7 +1767,7 @@
       <c r="I47" s="21"/>
       <c r="J47" s="19"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="19">
         <v>39</v>
       </c>
@@ -1790,7 +1784,7 @@
       <c r="I48" s="21"/>
       <c r="J48" s="19"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="19">
         <v>40</v>
       </c>
@@ -1807,7 +1801,7 @@
       <c r="I49" s="21"/>
       <c r="J49" s="19"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="19">
         <v>41</v>
       </c>
@@ -1824,7 +1818,7 @@
       <c r="I50" s="21"/>
       <c r="J50" s="19"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="19">
         <v>42</v>
       </c>
@@ -1841,7 +1835,7 @@
       <c r="I51" s="21"/>
       <c r="J51" s="19"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="19">
         <v>43</v>
       </c>
@@ -1858,7 +1852,7 @@
       <c r="I52" s="21"/>
       <c r="J52" s="19"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="19">
         <v>44</v>
       </c>
@@ -1875,7 +1869,7 @@
       <c r="I53" s="21"/>
       <c r="J53" s="19"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="19">
         <v>45</v>
       </c>
@@ -1892,7 +1886,7 @@
       <c r="I54" s="21"/>
       <c r="J54" s="19"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="19">
         <v>46</v>
       </c>
@@ -1909,7 +1903,7 @@
       <c r="I55" s="21"/>
       <c r="J55" s="19"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="19">
         <v>47</v>
       </c>
@@ -1926,7 +1920,7 @@
       <c r="I56" s="21"/>
       <c r="J56" s="19"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="19">
         <v>48</v>
       </c>
@@ -1943,7 +1937,7 @@
       <c r="I57" s="21"/>
       <c r="J57" s="19"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="19">
         <v>49</v>
       </c>
@@ -1960,7 +1954,7 @@
       <c r="I58" s="21"/>
       <c r="J58" s="19"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="19">
         <v>50</v>
       </c>
@@ -1977,7 +1971,7 @@
       <c r="I59" s="21"/>
       <c r="J59" s="19"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="19">
         <v>51</v>
       </c>
@@ -1994,7 +1988,7 @@
       <c r="I60" s="21"/>
       <c r="J60" s="19"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="19">
         <v>52</v>
       </c>
@@ -2011,7 +2005,7 @@
       <c r="I61" s="21"/>
       <c r="J61" s="19"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="19">
         <v>53</v>
       </c>
@@ -2028,7 +2022,7 @@
       <c r="I62" s="21"/>
       <c r="J62" s="19"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="19">
         <v>54</v>
       </c>
@@ -2045,7 +2039,7 @@
       <c r="I63" s="21"/>
       <c r="J63" s="19"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="19">
         <v>55</v>
       </c>
@@ -2062,7 +2056,7 @@
       <c r="I64" s="21"/>
       <c r="J64" s="19"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="19">
         <v>56</v>
       </c>
@@ -2079,7 +2073,7 @@
       <c r="I65" s="21"/>
       <c r="J65" s="19"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="19">
         <v>57</v>
       </c>
@@ -2096,7 +2090,7 @@
       <c r="I66" s="21"/>
       <c r="J66" s="19"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="19">
         <v>58</v>
       </c>
@@ -2113,7 +2107,7 @@
       <c r="I67" s="21"/>
       <c r="J67" s="19"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="19">
         <v>59</v>
       </c>
@@ -2130,7 +2124,7 @@
       <c r="I68" s="21"/>
       <c r="J68" s="19"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="19">
         <v>60</v>
       </c>
@@ -2147,7 +2141,7 @@
       <c r="I69" s="21"/>
       <c r="J69" s="19"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="19">
         <v>61</v>
       </c>
@@ -2164,7 +2158,7 @@
       <c r="I70" s="21"/>
       <c r="J70" s="19"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="19">
         <v>62</v>
       </c>
@@ -2181,7 +2175,7 @@
       <c r="I71" s="21"/>
       <c r="J71" s="19"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="19">
         <v>63</v>
       </c>
@@ -2198,7 +2192,7 @@
       <c r="I72" s="21"/>
       <c r="J72" s="19"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="19">
         <v>64</v>
       </c>
@@ -2215,7 +2209,7 @@
       <c r="I73" s="21"/>
       <c r="J73" s="19"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="19">
         <v>65</v>
       </c>
@@ -2232,7 +2226,7 @@
       <c r="I74" s="21"/>
       <c r="J74" s="19"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="19">
         <v>66</v>
       </c>
@@ -2249,7 +2243,7 @@
       <c r="I75" s="21"/>
       <c r="J75" s="19"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="19">
         <v>67</v>
       </c>
@@ -2266,7 +2260,7 @@
       <c r="I76" s="21"/>
       <c r="J76" s="19"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="19">
         <v>68</v>
       </c>
@@ -2283,7 +2277,7 @@
       <c r="I77" s="21"/>
       <c r="J77" s="19"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="19">
         <v>69</v>
       </c>
@@ -2300,7 +2294,7 @@
       <c r="I78" s="21"/>
       <c r="J78" s="19"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="19">
         <v>70</v>
       </c>
@@ -2317,7 +2311,7 @@
       <c r="I79" s="21"/>
       <c r="J79" s="19"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="19">
         <v>71</v>
       </c>
@@ -2334,7 +2328,7 @@
       <c r="I80" s="21"/>
       <c r="J80" s="19"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="19">
         <v>72</v>
       </c>
@@ -2351,7 +2345,7 @@
       <c r="I81" s="21"/>
       <c r="J81" s="19"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="19">
         <v>73</v>
       </c>
@@ -2368,7 +2362,7 @@
       <c r="I82" s="21"/>
       <c r="J82" s="19"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="19">
         <v>74</v>
       </c>
@@ -2385,7 +2379,7 @@
       <c r="I83" s="21"/>
       <c r="J83" s="19"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="19">
         <v>75</v>
       </c>
@@ -2402,7 +2396,7 @@
       <c r="I84" s="21"/>
       <c r="J84" s="19"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="19">
         <v>76</v>
       </c>
@@ -2419,7 +2413,7 @@
       <c r="I85" s="21"/>
       <c r="J85" s="19"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="19">
         <v>77</v>
       </c>
@@ -2436,7 +2430,7 @@
       <c r="I86" s="21"/>
       <c r="J86" s="19"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="19">
         <v>78</v>
       </c>
@@ -2453,7 +2447,7 @@
       <c r="I87" s="21"/>
       <c r="J87" s="19"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="19">
         <v>79</v>
       </c>
@@ -2470,7 +2464,7 @@
       <c r="I88" s="21"/>
       <c r="J88" s="19"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="19">
         <v>80</v>
       </c>
@@ -2487,7 +2481,7 @@
       <c r="I89" s="21"/>
       <c r="J89" s="19"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="19">
         <v>81</v>
       </c>
@@ -2504,7 +2498,7 @@
       <c r="I90" s="21"/>
       <c r="J90" s="19"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="19">
         <v>82</v>
       </c>
@@ -2521,7 +2515,7 @@
       <c r="I91" s="21"/>
       <c r="J91" s="19"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="19">
         <v>83</v>
       </c>
@@ -2538,7 +2532,7 @@
       <c r="I92" s="21"/>
       <c r="J92" s="19"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="19">
         <v>84</v>
       </c>
@@ -2555,7 +2549,7 @@
       <c r="I93" s="21"/>
       <c r="J93" s="19"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="19">
         <v>85</v>
       </c>
@@ -2572,7 +2566,7 @@
       <c r="I94" s="21"/>
       <c r="J94" s="19"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="19">
         <v>86</v>
       </c>
@@ -2589,7 +2583,7 @@
       <c r="I95" s="21"/>
       <c r="J95" s="19"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="19">
         <v>87</v>
       </c>
@@ -2606,7 +2600,7 @@
       <c r="I96" s="21"/>
       <c r="J96" s="19"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="19">
         <v>88</v>
       </c>
@@ -2623,7 +2617,7 @@
       <c r="I97" s="21"/>
       <c r="J97" s="19"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="19">
         <v>89</v>
       </c>
@@ -2640,7 +2634,7 @@
       <c r="I98" s="21"/>
       <c r="J98" s="19"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="19">
         <v>90</v>
       </c>
@@ -2657,7 +2651,7 @@
       <c r="I99" s="21"/>
       <c r="J99" s="19"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="19">
         <v>91</v>
       </c>
@@ -2674,7 +2668,7 @@
       <c r="I100" s="21"/>
       <c r="J100" s="19"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="19">
         <v>92</v>
       </c>
@@ -2691,7 +2685,7 @@
       <c r="I101" s="21"/>
       <c r="J101" s="19"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="19">
         <v>93</v>
       </c>
@@ -2708,7 +2702,7 @@
       <c r="I102" s="21"/>
       <c r="J102" s="19"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="19">
         <v>94</v>
       </c>
@@ -2725,7 +2719,7 @@
       <c r="I103" s="21"/>
       <c r="J103" s="19"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="19">
         <v>95</v>
       </c>
@@ -2742,7 +2736,7 @@
       <c r="I104" s="21"/>
       <c r="J104" s="19"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="19">
         <v>96</v>
       </c>
@@ -2759,7 +2753,7 @@
       <c r="I105" s="21"/>
       <c r="J105" s="19"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="19">
         <v>97</v>
       </c>
@@ -2776,7 +2770,7 @@
       <c r="I106" s="21"/>
       <c r="J106" s="19"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="19">
         <v>98</v>
       </c>
@@ -2793,7 +2787,7 @@
       <c r="I107" s="21"/>
       <c r="J107" s="19"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="19">
         <v>99</v>
       </c>
@@ -2810,7 +2804,7 @@
       <c r="I108" s="21"/>
       <c r="J108" s="19"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="19">
         <v>100</v>
       </c>
@@ -2827,7 +2821,7 @@
       <c r="I109" s="21"/>
       <c r="J109" s="19"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="19">
         <v>101</v>
       </c>
@@ -2844,7 +2838,7 @@
       <c r="I110" s="21"/>
       <c r="J110" s="19"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="19">
         <v>102</v>
       </c>
@@ -2861,7 +2855,7 @@
       <c r="I111" s="21"/>
       <c r="J111" s="19"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="19">
         <v>103</v>
       </c>
@@ -2878,7 +2872,7 @@
       <c r="I112" s="21"/>
       <c r="J112" s="19"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="19">
         <v>104</v>
       </c>
@@ -2895,7 +2889,7 @@
       <c r="I113" s="21"/>
       <c r="J113" s="19"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="19">
         <v>105</v>
       </c>
@@ -2912,7 +2906,7 @@
       <c r="I114" s="21"/>
       <c r="J114" s="19"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="19">
         <v>106</v>
       </c>
@@ -2929,7 +2923,7 @@
       <c r="I115" s="21"/>
       <c r="J115" s="19"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="19">
         <v>107</v>
       </c>
@@ -2946,7 +2940,7 @@
       <c r="I116" s="21"/>
       <c r="J116" s="19"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="19">
         <v>108</v>
       </c>
@@ -2963,7 +2957,7 @@
       <c r="I117" s="21"/>
       <c r="J117" s="19"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="19">
         <v>109</v>
       </c>
@@ -2980,7 +2974,7 @@
       <c r="I118" s="21"/>
       <c r="J118" s="19"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="19">
         <v>110</v>
       </c>
@@ -2997,7 +2991,7 @@
       <c r="I119" s="21"/>
       <c r="J119" s="19"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="19">
         <v>111</v>
       </c>
@@ -3014,7 +3008,7 @@
       <c r="I120" s="21"/>
       <c r="J120" s="19"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="19">
         <v>112</v>
       </c>
@@ -3031,7 +3025,7 @@
       <c r="I121" s="21"/>
       <c r="J121" s="19"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="19">
         <v>113</v>
       </c>
@@ -3048,7 +3042,7 @@
       <c r="I122" s="21"/>
       <c r="J122" s="19"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="19">
         <v>114</v>
       </c>
@@ -3065,7 +3059,7 @@
       <c r="I123" s="21"/>
       <c r="J123" s="19"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="19">
         <v>115</v>
       </c>
@@ -3082,7 +3076,7 @@
       <c r="I124" s="21"/>
       <c r="J124" s="19"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="19">
         <v>116</v>
       </c>
@@ -3099,7 +3093,7 @@
       <c r="I125" s="21"/>
       <c r="J125" s="19"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="19">
         <v>117</v>
       </c>
@@ -3116,7 +3110,7 @@
       <c r="I126" s="21"/>
       <c r="J126" s="19"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="19">
         <v>118</v>
       </c>
@@ -3133,7 +3127,7 @@
       <c r="I127" s="21"/>
       <c r="J127" s="19"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="19">
         <v>119</v>
       </c>
@@ -3150,7 +3144,7 @@
       <c r="I128" s="21"/>
       <c r="J128" s="19"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="19">
         <v>120</v>
       </c>
@@ -3167,7 +3161,7 @@
       <c r="I129" s="21"/>
       <c r="J129" s="19"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="19">
         <v>121</v>
       </c>
@@ -3184,7 +3178,7 @@
       <c r="I130" s="21"/>
       <c r="J130" s="19"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="19">
         <v>122</v>
       </c>
@@ -3201,7 +3195,7 @@
       <c r="I131" s="21"/>
       <c r="J131" s="19"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="19">
         <v>123</v>
       </c>
@@ -3218,7 +3212,7 @@
       <c r="I132" s="21"/>
       <c r="J132" s="19"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="19">
         <v>124</v>
       </c>
@@ -3235,7 +3229,7 @@
       <c r="I133" s="21"/>
       <c r="J133" s="19"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="19">
         <v>125</v>
       </c>
@@ -3252,7 +3246,7 @@
       <c r="I134" s="21"/>
       <c r="J134" s="19"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="19">
         <v>126</v>
       </c>
@@ -3269,7 +3263,7 @@
       <c r="I135" s="21"/>
       <c r="J135" s="19"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="19">
         <v>127</v>
       </c>
@@ -3286,7 +3280,7 @@
       <c r="I136" s="21"/>
       <c r="J136" s="19"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="19">
         <v>128</v>
       </c>
@@ -3303,7 +3297,7 @@
       <c r="I137" s="21"/>
       <c r="J137" s="19"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="19">
         <v>129</v>
       </c>
@@ -3320,7 +3314,7 @@
       <c r="I138" s="21"/>
       <c r="J138" s="19"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="19">
         <v>130</v>
       </c>
@@ -3337,7 +3331,7 @@
       <c r="I139" s="21"/>
       <c r="J139" s="19"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="19">
         <v>131</v>
       </c>
@@ -3354,7 +3348,7 @@
       <c r="I140" s="21"/>
       <c r="J140" s="19"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="19">
         <v>132</v>
       </c>
@@ -3371,7 +3365,7 @@
       <c r="I141" s="21"/>
       <c r="J141" s="19"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="19">
         <v>133</v>
       </c>
@@ -3388,7 +3382,7 @@
       <c r="I142" s="21"/>
       <c r="J142" s="19"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="19">
         <v>134</v>
       </c>
@@ -3405,7 +3399,7 @@
       <c r="I143" s="21"/>
       <c r="J143" s="19"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="19">
         <v>135</v>
       </c>
@@ -3422,7 +3416,7 @@
       <c r="I144" s="21"/>
       <c r="J144" s="19"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="19">
         <v>136</v>
       </c>
@@ -3439,7 +3433,7 @@
       <c r="I145" s="21"/>
       <c r="J145" s="19"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="19">
         <v>137</v>
       </c>
@@ -3456,7 +3450,7 @@
       <c r="I146" s="21"/>
       <c r="J146" s="19"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="19">
         <v>138</v>
       </c>
@@ -3473,7 +3467,7 @@
       <c r="I147" s="21"/>
       <c r="J147" s="19"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="19">
         <v>139</v>
       </c>
@@ -3490,7 +3484,7 @@
       <c r="I148" s="21"/>
       <c r="J148" s="19"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="19">
         <v>140</v>
       </c>
@@ -3507,7 +3501,7 @@
       <c r="I149" s="21"/>
       <c r="J149" s="19"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="19">
         <v>141</v>
       </c>
@@ -3524,7 +3518,7 @@
       <c r="I150" s="21"/>
       <c r="J150" s="19"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="19">
         <v>142</v>
       </c>
@@ -3541,7 +3535,7 @@
       <c r="I151" s="21"/>
       <c r="J151" s="19"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="19">
         <v>143</v>
       </c>
@@ -3558,7 +3552,7 @@
       <c r="I152" s="21"/>
       <c r="J152" s="19"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="19">
         <v>144</v>
       </c>
@@ -3575,7 +3569,7 @@
       <c r="I153" s="21"/>
       <c r="J153" s="19"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="19">
         <v>145</v>
       </c>
@@ -3592,7 +3586,7 @@
       <c r="I154" s="21"/>
       <c r="J154" s="19"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="19">
         <v>146</v>
       </c>
@@ -3609,7 +3603,7 @@
       <c r="I155" s="21"/>
       <c r="J155" s="19"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="19">
         <v>147</v>
       </c>
@@ -3626,7 +3620,7 @@
       <c r="I156" s="21"/>
       <c r="J156" s="19"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="19">
         <v>148</v>
       </c>
@@ -3643,7 +3637,7 @@
       <c r="I157" s="21"/>
       <c r="J157" s="19"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="19">
         <v>149</v>
       </c>
@@ -3660,7 +3654,7 @@
       <c r="I158" s="21"/>
       <c r="J158" s="19"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="19">
         <v>150</v>
       </c>
@@ -3677,7 +3671,7 @@
       <c r="I159" s="21"/>
       <c r="J159" s="19"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="19">
         <v>151</v>
       </c>
@@ -3694,7 +3688,7 @@
       <c r="I160" s="21"/>
       <c r="J160" s="19"/>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="19">
         <v>152</v>
       </c>
@@ -3711,7 +3705,7 @@
       <c r="I161" s="21"/>
       <c r="J161" s="19"/>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="19">
         <v>153</v>
       </c>
@@ -3728,7 +3722,7 @@
       <c r="I162" s="21"/>
       <c r="J162" s="19"/>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="19">
         <v>154</v>
       </c>
@@ -3745,7 +3739,7 @@
       <c r="I163" s="21"/>
       <c r="J163" s="19"/>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="19">
         <v>155</v>
       </c>
@@ -3762,7 +3756,7 @@
       <c r="I164" s="21"/>
       <c r="J164" s="19"/>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="19">
         <v>156</v>
       </c>
@@ -3779,7 +3773,7 @@
       <c r="I165" s="21"/>
       <c r="J165" s="19"/>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="19">
         <v>157</v>
       </c>
@@ -3796,7 +3790,7 @@
       <c r="I166" s="21"/>
       <c r="J166" s="19"/>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="19">
         <v>158</v>
       </c>
@@ -3813,7 +3807,7 @@
       <c r="I167" s="21"/>
       <c r="J167" s="19"/>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="19">
         <v>159</v>
       </c>
@@ -3830,7 +3824,7 @@
       <c r="I168" s="21"/>
       <c r="J168" s="19"/>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="19">
         <v>160</v>
       </c>
@@ -3847,7 +3841,7 @@
       <c r="I169" s="21"/>
       <c r="J169" s="19"/>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="19">
         <v>161</v>
       </c>
@@ -3864,7 +3858,7 @@
       <c r="I170" s="21"/>
       <c r="J170" s="19"/>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="19">
         <v>162</v>
       </c>
@@ -3881,7 +3875,7 @@
       <c r="I171" s="21"/>
       <c r="J171" s="19"/>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="19">
         <v>163</v>
       </c>
@@ -3906,7 +3900,7 @@
       </c>
       <c r="M172" s="35"/>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="19">
         <v>164</v>
       </c>
@@ -3934,7 +3928,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="19">
         <v>165</v>
       </c>

--- a/blank.xlsx
+++ b/blank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TT_GIT\UtnyilvantartoJava\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\TT_GIT\Útnyilvántartó Projekt\UtnyilvantartoJava\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6817B357-B224-4DCD-9132-7E1E91D2A043}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941AC1D1-3EDA-47D2-8D5C-21E68397ED8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="453" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="453" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nyomtat" sheetId="4" r:id="rId1"/>
@@ -959,24 +959,24 @@
   <dimension ref="A1:M174"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="26" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="8" max="9" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="23"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -989,7 +989,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
@@ -1000,7 +1000,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="G3" s="8"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1025,7 +1025,7 @@
       <c r="G4" s="8"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>22</v>
       </c>
@@ -1037,7 +1037,7 @@
       <c r="G5" s="8"/>
       <c r="J5" s="30"/>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1051,7 +1051,7 @@
       <c r="I6" s="26"/>
       <c r="J6" s="32"/>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="F7" s="5" t="s">
         <v>21</v>
@@ -1061,7 +1061,7 @@
       <c r="I7" s="26"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="14" t="s">
         <v>17</v>
@@ -1115,7 +1115,7 @@
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="19">
         <v>1</v>
       </c>
@@ -1124,15 +1124,12 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="21"/>
-      <c r="G10" s="25" t="str">
-        <f>IF(B10&lt;&gt;"",$C$5+I10,"")</f>
-        <v/>
-      </c>
+      <c r="G10" s="25"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="19"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="19">
         <v>2</v>
       </c>
@@ -1141,15 +1138,12 @@
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
       <c r="F11" s="21"/>
-      <c r="G11" s="25" t="str">
-        <f>IF(B11&lt;&gt;"",G10+I11,"")</f>
-        <v/>
-      </c>
+      <c r="G11" s="25"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="19"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="19">
         <v>3</v>
       </c>
@@ -1158,10 +1152,7 @@
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="21"/>
-      <c r="G12" s="25" t="str">
-        <f t="shared" ref="G12:G54" si="0">IF(B12&lt;&gt;"",G11+I12,"")</f>
-        <v/>
-      </c>
+      <c r="G12" s="25"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="19"/>
@@ -1169,7 +1160,7 @@
       <c r="L12" s="42"/>
       <c r="M12" s="42"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="19">
         <v>4</v>
       </c>
@@ -1178,10 +1169,7 @@
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="21"/>
-      <c r="G13" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G13" s="25"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
       <c r="J13" s="19"/>
@@ -1189,7 +1177,7 @@
       <c r="L13" s="42"/>
       <c r="M13" s="43"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="19">
         <v>5</v>
       </c>
@@ -1198,15 +1186,12 @@
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="21"/>
-      <c r="G14" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G14" s="25"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="19"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="19">
         <v>6</v>
       </c>
@@ -1215,15 +1200,12 @@
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="21"/>
-      <c r="G15" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G15" s="25"/>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="19"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="19">
         <v>7</v>
       </c>
@@ -1232,15 +1214,12 @@
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="21"/>
-      <c r="G16" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G16" s="25"/>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
       <c r="J16" s="19"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="19">
         <v>8</v>
       </c>
@@ -1249,15 +1228,12 @@
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="21"/>
-      <c r="G17" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G17" s="25"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17" s="19"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="19">
         <v>9</v>
       </c>
@@ -1266,15 +1242,12 @@
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G18" s="25"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="19"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="19">
         <v>10</v>
       </c>
@@ -1283,15 +1256,12 @@
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
       <c r="F19" s="21"/>
-      <c r="G19" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G19" s="25"/>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="19"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="19">
         <v>11</v>
       </c>
@@ -1300,15 +1270,12 @@
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
       <c r="F20" s="21"/>
-      <c r="G20" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G20" s="25"/>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="19"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="19">
         <v>12</v>
       </c>
@@ -1317,15 +1284,12 @@
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
       <c r="F21" s="21"/>
-      <c r="G21" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G21" s="25"/>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="19"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="19">
         <v>13</v>
       </c>
@@ -1334,15 +1298,12 @@
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
       <c r="F22" s="21"/>
-      <c r="G22" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G22" s="25"/>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22" s="19"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="19">
         <v>14</v>
       </c>
@@ -1351,15 +1312,12 @@
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
       <c r="F23" s="21"/>
-      <c r="G23" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G23" s="25"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="19"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="19">
         <v>15</v>
       </c>
@@ -1368,15 +1326,12 @@
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="F24" s="21"/>
-      <c r="G24" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G24" s="25"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="19"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="19">
         <v>16</v>
       </c>
@@ -1385,15 +1340,12 @@
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
       <c r="F25" s="21"/>
-      <c r="G25" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G25" s="25"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="19"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="19">
         <v>17</v>
       </c>
@@ -1402,15 +1354,12 @@
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
       <c r="F26" s="21"/>
-      <c r="G26" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G26" s="25"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="19"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="19">
         <v>18</v>
       </c>
@@ -1419,15 +1368,12 @@
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
       <c r="F27" s="21"/>
-      <c r="G27" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G27" s="25"/>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="19"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="19">
         <v>19</v>
       </c>
@@ -1436,15 +1382,12 @@
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="21"/>
-      <c r="G28" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G28" s="25"/>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="19"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="19">
         <v>20</v>
       </c>
@@ -1453,15 +1396,12 @@
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
       <c r="F29" s="21"/>
-      <c r="G29" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G29" s="25"/>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
       <c r="J29" s="19"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="19">
         <v>21</v>
       </c>
@@ -1470,15 +1410,12 @@
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G30" s="25"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="19"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="19">
         <v>22</v>
       </c>
@@ -1487,15 +1424,12 @@
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
       <c r="F31" s="21"/>
-      <c r="G31" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G31" s="25"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="19"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="19">
         <v>23</v>
       </c>
@@ -1504,15 +1438,12 @@
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
       <c r="F32" s="21"/>
-      <c r="G32" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G32" s="25"/>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="19"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="19">
         <v>24</v>
       </c>
@@ -1521,15 +1452,12 @@
       <c r="D33" s="20"/>
       <c r="E33" s="20"/>
       <c r="F33" s="21"/>
-      <c r="G33" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G33" s="25"/>
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="19"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="19">
         <v>25</v>
       </c>
@@ -1538,15 +1466,12 @@
       <c r="D34" s="20"/>
       <c r="E34" s="20"/>
       <c r="F34" s="21"/>
-      <c r="G34" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G34" s="25"/>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="19"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="19">
         <v>26</v>
       </c>
@@ -1555,15 +1480,12 @@
       <c r="D35" s="20"/>
       <c r="E35" s="20"/>
       <c r="F35" s="21"/>
-      <c r="G35" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G35" s="25"/>
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
       <c r="J35" s="19"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="19">
         <v>27</v>
       </c>
@@ -1572,15 +1494,12 @@
       <c r="D36" s="20"/>
       <c r="E36" s="20"/>
       <c r="F36" s="21"/>
-      <c r="G36" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G36" s="25"/>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="19"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="19">
         <v>28</v>
       </c>
@@ -1589,15 +1508,12 @@
       <c r="D37" s="20"/>
       <c r="E37" s="20"/>
       <c r="F37" s="21"/>
-      <c r="G37" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G37" s="25"/>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
       <c r="J37" s="19"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="19">
         <v>29</v>
       </c>
@@ -1606,15 +1522,12 @@
       <c r="D38" s="20"/>
       <c r="E38" s="20"/>
       <c r="F38" s="21"/>
-      <c r="G38" s="25" t="str">
-        <f t="shared" ref="G38" si="1">IF(B38&lt;&gt;"",G37+I38,"")</f>
-        <v/>
-      </c>
+      <c r="G38" s="25"/>
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="19"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="19">
         <v>30</v>
       </c>
@@ -1623,15 +1536,12 @@
       <c r="D39" s="20"/>
       <c r="E39" s="20"/>
       <c r="F39" s="21"/>
-      <c r="G39" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G39" s="25"/>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="19"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="19">
         <v>31</v>
       </c>
@@ -1640,15 +1550,12 @@
       <c r="D40" s="20"/>
       <c r="E40" s="20"/>
       <c r="F40" s="21"/>
-      <c r="G40" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G40" s="25"/>
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
       <c r="J40" s="19"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="19">
         <v>32</v>
       </c>
@@ -1657,15 +1564,12 @@
       <c r="D41" s="20"/>
       <c r="E41" s="20"/>
       <c r="F41" s="21"/>
-      <c r="G41" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G41" s="25"/>
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
       <c r="J41" s="19"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="19">
         <v>33</v>
       </c>
@@ -1674,15 +1578,12 @@
       <c r="D42" s="20"/>
       <c r="E42" s="20"/>
       <c r="F42" s="21"/>
-      <c r="G42" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G42" s="25"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="19"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="19">
         <v>34</v>
       </c>
@@ -1691,15 +1592,12 @@
       <c r="D43" s="20"/>
       <c r="E43" s="20"/>
       <c r="F43" s="21"/>
-      <c r="G43" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G43" s="25"/>
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
       <c r="J43" s="19"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="19">
         <v>35</v>
       </c>
@@ -1708,15 +1606,12 @@
       <c r="D44" s="20"/>
       <c r="E44" s="20"/>
       <c r="F44" s="21"/>
-      <c r="G44" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G44" s="25"/>
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
       <c r="J44" s="19"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="19">
         <v>36</v>
       </c>
@@ -1725,15 +1620,12 @@
       <c r="D45" s="20"/>
       <c r="E45" s="20"/>
       <c r="F45" s="21"/>
-      <c r="G45" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G45" s="25"/>
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
       <c r="J45" s="19"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="19">
         <v>37</v>
       </c>
@@ -1742,15 +1634,12 @@
       <c r="D46" s="20"/>
       <c r="E46" s="20"/>
       <c r="F46" s="21"/>
-      <c r="G46" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G46" s="25"/>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
       <c r="J46" s="19"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="19">
         <v>38</v>
       </c>
@@ -1759,15 +1648,12 @@
       <c r="D47" s="20"/>
       <c r="E47" s="20"/>
       <c r="F47" s="21"/>
-      <c r="G47" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G47" s="25"/>
       <c r="H47" s="21"/>
       <c r="I47" s="21"/>
       <c r="J47" s="19"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="19">
         <v>39</v>
       </c>
@@ -1776,15 +1662,12 @@
       <c r="D48" s="20"/>
       <c r="E48" s="20"/>
       <c r="F48" s="21"/>
-      <c r="G48" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G48" s="25"/>
       <c r="H48" s="21"/>
       <c r="I48" s="21"/>
       <c r="J48" s="19"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="19">
         <v>40</v>
       </c>
@@ -1793,15 +1676,12 @@
       <c r="D49" s="20"/>
       <c r="E49" s="20"/>
       <c r="F49" s="21"/>
-      <c r="G49" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G49" s="25"/>
       <c r="H49" s="21"/>
       <c r="I49" s="21"/>
       <c r="J49" s="19"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="19">
         <v>41</v>
       </c>
@@ -1810,15 +1690,12 @@
       <c r="D50" s="20"/>
       <c r="E50" s="20"/>
       <c r="F50" s="21"/>
-      <c r="G50" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G50" s="25"/>
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
       <c r="J50" s="19"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="19">
         <v>42</v>
       </c>
@@ -1827,15 +1704,12 @@
       <c r="D51" s="20"/>
       <c r="E51" s="20"/>
       <c r="F51" s="21"/>
-      <c r="G51" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G51" s="25"/>
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
       <c r="J51" s="19"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="19">
         <v>43</v>
       </c>
@@ -1844,15 +1718,12 @@
       <c r="D52" s="20"/>
       <c r="E52" s="20"/>
       <c r="F52" s="21"/>
-      <c r="G52" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G52" s="25"/>
       <c r="H52" s="21"/>
       <c r="I52" s="21"/>
       <c r="J52" s="19"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="19">
         <v>44</v>
       </c>
@@ -1861,15 +1732,12 @@
       <c r="D53" s="20"/>
       <c r="E53" s="20"/>
       <c r="F53" s="21"/>
-      <c r="G53" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G53" s="25"/>
       <c r="H53" s="21"/>
       <c r="I53" s="21"/>
       <c r="J53" s="19"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="19">
         <v>45</v>
       </c>
@@ -1878,15 +1746,12 @@
       <c r="D54" s="20"/>
       <c r="E54" s="20"/>
       <c r="F54" s="21"/>
-      <c r="G54" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G54" s="25"/>
       <c r="H54" s="21"/>
       <c r="I54" s="21"/>
       <c r="J54" s="19"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="19">
         <v>46</v>
       </c>
@@ -1895,15 +1760,12 @@
       <c r="D55" s="20"/>
       <c r="E55" s="20"/>
       <c r="F55" s="21"/>
-      <c r="G55" s="25" t="str">
-        <f t="shared" ref="G55:G65" si="2">IF(B55&lt;&gt;"",G54+I55,"")</f>
-        <v/>
-      </c>
+      <c r="G55" s="25"/>
       <c r="H55" s="21"/>
       <c r="I55" s="21"/>
       <c r="J55" s="19"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="19">
         <v>47</v>
       </c>
@@ -1912,15 +1774,12 @@
       <c r="D56" s="20"/>
       <c r="E56" s="20"/>
       <c r="F56" s="21"/>
-      <c r="G56" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="G56" s="25"/>
       <c r="H56" s="21"/>
       <c r="I56" s="21"/>
       <c r="J56" s="19"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="19">
         <v>48</v>
       </c>
@@ -1929,15 +1788,12 @@
       <c r="D57" s="20"/>
       <c r="E57" s="20"/>
       <c r="F57" s="21"/>
-      <c r="G57" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="G57" s="25"/>
       <c r="H57" s="21"/>
       <c r="I57" s="21"/>
       <c r="J57" s="19"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="19">
         <v>49</v>
       </c>
@@ -1946,15 +1802,12 @@
       <c r="D58" s="20"/>
       <c r="E58" s="20"/>
       <c r="F58" s="21"/>
-      <c r="G58" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="G58" s="25"/>
       <c r="H58" s="21"/>
       <c r="I58" s="21"/>
       <c r="J58" s="19"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="19">
         <v>50</v>
       </c>
@@ -1963,15 +1816,12 @@
       <c r="D59" s="20"/>
       <c r="E59" s="20"/>
       <c r="F59" s="21"/>
-      <c r="G59" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="G59" s="25"/>
       <c r="H59" s="21"/>
       <c r="I59" s="21"/>
       <c r="J59" s="19"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="19">
         <v>51</v>
       </c>
@@ -1980,15 +1830,12 @@
       <c r="D60" s="20"/>
       <c r="E60" s="20"/>
       <c r="F60" s="21"/>
-      <c r="G60" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="G60" s="25"/>
       <c r="H60" s="21"/>
       <c r="I60" s="21"/>
       <c r="J60" s="19"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="19">
         <v>52</v>
       </c>
@@ -1997,15 +1844,12 @@
       <c r="D61" s="20"/>
       <c r="E61" s="20"/>
       <c r="F61" s="21"/>
-      <c r="G61" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="G61" s="25"/>
       <c r="H61" s="21"/>
       <c r="I61" s="21"/>
       <c r="J61" s="19"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="19">
         <v>53</v>
       </c>
@@ -2014,15 +1858,12 @@
       <c r="D62" s="20"/>
       <c r="E62" s="20"/>
       <c r="F62" s="21"/>
-      <c r="G62" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="G62" s="25"/>
       <c r="H62" s="21"/>
       <c r="I62" s="21"/>
       <c r="J62" s="19"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="19">
         <v>54</v>
       </c>
@@ -2031,15 +1872,12 @@
       <c r="D63" s="20"/>
       <c r="E63" s="20"/>
       <c r="F63" s="21"/>
-      <c r="G63" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="G63" s="25"/>
       <c r="H63" s="21"/>
       <c r="I63" s="21"/>
       <c r="J63" s="19"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="19">
         <v>55</v>
       </c>
@@ -2048,15 +1886,12 @@
       <c r="D64" s="20"/>
       <c r="E64" s="20"/>
       <c r="F64" s="21"/>
-      <c r="G64" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="G64" s="25"/>
       <c r="H64" s="21"/>
       <c r="I64" s="21"/>
       <c r="J64" s="19"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="19">
         <v>56</v>
       </c>
@@ -2065,15 +1900,12 @@
       <c r="D65" s="20"/>
       <c r="E65" s="20"/>
       <c r="F65" s="21"/>
-      <c r="G65" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="G65" s="25"/>
       <c r="H65" s="21"/>
       <c r="I65" s="21"/>
       <c r="J65" s="19"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="19">
         <v>57</v>
       </c>
@@ -2082,15 +1914,12 @@
       <c r="D66" s="20"/>
       <c r="E66" s="20"/>
       <c r="F66" s="21"/>
-      <c r="G66" s="25" t="str">
-        <f t="shared" ref="G66:G80" si="3">IF(B66&lt;&gt;"",G65+I66,"")</f>
-        <v/>
-      </c>
+      <c r="G66" s="25"/>
       <c r="H66" s="21"/>
       <c r="I66" s="21"/>
       <c r="J66" s="19"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="19">
         <v>58</v>
       </c>
@@ -2099,15 +1928,12 @@
       <c r="D67" s="20"/>
       <c r="E67" s="20"/>
       <c r="F67" s="21"/>
-      <c r="G67" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="G67" s="25"/>
       <c r="H67" s="21"/>
       <c r="I67" s="21"/>
       <c r="J67" s="19"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="19">
         <v>59</v>
       </c>
@@ -2116,15 +1942,12 @@
       <c r="D68" s="20"/>
       <c r="E68" s="20"/>
       <c r="F68" s="21"/>
-      <c r="G68" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="G68" s="25"/>
       <c r="H68" s="21"/>
       <c r="I68" s="21"/>
       <c r="J68" s="19"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="19">
         <v>60</v>
       </c>
@@ -2133,15 +1956,12 @@
       <c r="D69" s="20"/>
       <c r="E69" s="20"/>
       <c r="F69" s="21"/>
-      <c r="G69" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="G69" s="25"/>
       <c r="H69" s="21"/>
       <c r="I69" s="21"/>
       <c r="J69" s="19"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="19">
         <v>61</v>
       </c>
@@ -2150,15 +1970,12 @@
       <c r="D70" s="20"/>
       <c r="E70" s="20"/>
       <c r="F70" s="21"/>
-      <c r="G70" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="G70" s="25"/>
       <c r="H70" s="21"/>
       <c r="I70" s="21"/>
       <c r="J70" s="19"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="19">
         <v>62</v>
       </c>
@@ -2167,15 +1984,12 @@
       <c r="D71" s="20"/>
       <c r="E71" s="20"/>
       <c r="F71" s="21"/>
-      <c r="G71" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="G71" s="25"/>
       <c r="H71" s="21"/>
       <c r="I71" s="21"/>
       <c r="J71" s="19"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="19">
         <v>63</v>
       </c>
@@ -2184,15 +1998,12 @@
       <c r="D72" s="20"/>
       <c r="E72" s="20"/>
       <c r="F72" s="21"/>
-      <c r="G72" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="G72" s="25"/>
       <c r="H72" s="21"/>
       <c r="I72" s="21"/>
       <c r="J72" s="19"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="19">
         <v>64</v>
       </c>
@@ -2201,15 +2012,12 @@
       <c r="D73" s="20"/>
       <c r="E73" s="20"/>
       <c r="F73" s="21"/>
-      <c r="G73" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="G73" s="25"/>
       <c r="H73" s="21"/>
       <c r="I73" s="21"/>
       <c r="J73" s="19"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="19">
         <v>65</v>
       </c>
@@ -2218,15 +2026,12 @@
       <c r="D74" s="20"/>
       <c r="E74" s="20"/>
       <c r="F74" s="21"/>
-      <c r="G74" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="G74" s="25"/>
       <c r="H74" s="21"/>
       <c r="I74" s="21"/>
       <c r="J74" s="19"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="19">
         <v>66</v>
       </c>
@@ -2235,15 +2040,12 @@
       <c r="D75" s="20"/>
       <c r="E75" s="20"/>
       <c r="F75" s="21"/>
-      <c r="G75" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="G75" s="25"/>
       <c r="H75" s="21"/>
       <c r="I75" s="21"/>
       <c r="J75" s="19"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="19">
         <v>67</v>
       </c>
@@ -2252,15 +2054,12 @@
       <c r="D76" s="20"/>
       <c r="E76" s="20"/>
       <c r="F76" s="21"/>
-      <c r="G76" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="G76" s="25"/>
       <c r="H76" s="21"/>
       <c r="I76" s="21"/>
       <c r="J76" s="19"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="19">
         <v>68</v>
       </c>
@@ -2269,15 +2068,12 @@
       <c r="D77" s="20"/>
       <c r="E77" s="20"/>
       <c r="F77" s="21"/>
-      <c r="G77" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="G77" s="25"/>
       <c r="H77" s="21"/>
       <c r="I77" s="21"/>
       <c r="J77" s="19"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="19">
         <v>69</v>
       </c>
@@ -2286,15 +2082,12 @@
       <c r="D78" s="20"/>
       <c r="E78" s="20"/>
       <c r="F78" s="21"/>
-      <c r="G78" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="G78" s="25"/>
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
       <c r="J78" s="19"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="19">
         <v>70</v>
       </c>
@@ -2303,15 +2096,12 @@
       <c r="D79" s="20"/>
       <c r="E79" s="20"/>
       <c r="F79" s="21"/>
-      <c r="G79" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="G79" s="25"/>
       <c r="H79" s="21"/>
       <c r="I79" s="21"/>
       <c r="J79" s="19"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="19">
         <v>71</v>
       </c>
@@ -2320,15 +2110,12 @@
       <c r="D80" s="20"/>
       <c r="E80" s="20"/>
       <c r="F80" s="21"/>
-      <c r="G80" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="G80" s="25"/>
       <c r="H80" s="21"/>
       <c r="I80" s="21"/>
       <c r="J80" s="19"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="19">
         <v>72</v>
       </c>
@@ -2337,15 +2124,12 @@
       <c r="D81" s="20"/>
       <c r="E81" s="20"/>
       <c r="F81" s="21"/>
-      <c r="G81" s="25" t="str">
-        <f>IF(B81&lt;&gt;"",$C$5+I81,"")</f>
-        <v/>
-      </c>
+      <c r="G81" s="25"/>
       <c r="H81" s="21"/>
       <c r="I81" s="21"/>
       <c r="J81" s="19"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="19">
         <v>73</v>
       </c>
@@ -2354,15 +2138,12 @@
       <c r="D82" s="20"/>
       <c r="E82" s="20"/>
       <c r="F82" s="21"/>
-      <c r="G82" s="25" t="str">
-        <f>IF(B82&lt;&gt;"",G81+I82,"")</f>
-        <v/>
-      </c>
+      <c r="G82" s="25"/>
       <c r="H82" s="21"/>
       <c r="I82" s="21"/>
       <c r="J82" s="19"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="19">
         <v>74</v>
       </c>
@@ -2371,15 +2152,12 @@
       <c r="D83" s="20"/>
       <c r="E83" s="20"/>
       <c r="F83" s="21"/>
-      <c r="G83" s="25" t="str">
-        <f t="shared" ref="G83:G146" si="4">IF(B83&lt;&gt;"",G82+I83,"")</f>
-        <v/>
-      </c>
+      <c r="G83" s="25"/>
       <c r="H83" s="21"/>
       <c r="I83" s="21"/>
       <c r="J83" s="19"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="19">
         <v>75</v>
       </c>
@@ -2388,15 +2166,12 @@
       <c r="D84" s="20"/>
       <c r="E84" s="20"/>
       <c r="F84" s="21"/>
-      <c r="G84" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G84" s="25"/>
       <c r="H84" s="21"/>
       <c r="I84" s="21"/>
       <c r="J84" s="19"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="19">
         <v>76</v>
       </c>
@@ -2405,15 +2180,12 @@
       <c r="D85" s="20"/>
       <c r="E85" s="20"/>
       <c r="F85" s="21"/>
-      <c r="G85" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G85" s="25"/>
       <c r="H85" s="21"/>
       <c r="I85" s="21"/>
       <c r="J85" s="19"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="19">
         <v>77</v>
       </c>
@@ -2422,15 +2194,12 @@
       <c r="D86" s="20"/>
       <c r="E86" s="20"/>
       <c r="F86" s="21"/>
-      <c r="G86" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G86" s="25"/>
       <c r="H86" s="21"/>
       <c r="I86" s="21"/>
       <c r="J86" s="19"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="19">
         <v>78</v>
       </c>
@@ -2439,15 +2208,12 @@
       <c r="D87" s="20"/>
       <c r="E87" s="20"/>
       <c r="F87" s="21"/>
-      <c r="G87" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G87" s="25"/>
       <c r="H87" s="21"/>
       <c r="I87" s="21"/>
       <c r="J87" s="19"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="19">
         <v>79</v>
       </c>
@@ -2456,15 +2222,12 @@
       <c r="D88" s="20"/>
       <c r="E88" s="20"/>
       <c r="F88" s="21"/>
-      <c r="G88" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G88" s="25"/>
       <c r="H88" s="21"/>
       <c r="I88" s="21"/>
       <c r="J88" s="19"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="19">
         <v>80</v>
       </c>
@@ -2473,15 +2236,12 @@
       <c r="D89" s="20"/>
       <c r="E89" s="20"/>
       <c r="F89" s="21"/>
-      <c r="G89" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G89" s="25"/>
       <c r="H89" s="21"/>
       <c r="I89" s="21"/>
       <c r="J89" s="19"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="19">
         <v>81</v>
       </c>
@@ -2490,15 +2250,12 @@
       <c r="D90" s="20"/>
       <c r="E90" s="20"/>
       <c r="F90" s="21"/>
-      <c r="G90" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G90" s="25"/>
       <c r="H90" s="21"/>
       <c r="I90" s="21"/>
       <c r="J90" s="19"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="19">
         <v>82</v>
       </c>
@@ -2507,15 +2264,12 @@
       <c r="D91" s="20"/>
       <c r="E91" s="20"/>
       <c r="F91" s="21"/>
-      <c r="G91" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G91" s="25"/>
       <c r="H91" s="21"/>
       <c r="I91" s="21"/>
       <c r="J91" s="19"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="19">
         <v>83</v>
       </c>
@@ -2524,15 +2278,12 @@
       <c r="D92" s="20"/>
       <c r="E92" s="20"/>
       <c r="F92" s="21"/>
-      <c r="G92" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G92" s="25"/>
       <c r="H92" s="21"/>
       <c r="I92" s="21"/>
       <c r="J92" s="19"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="19">
         <v>84</v>
       </c>
@@ -2541,15 +2292,12 @@
       <c r="D93" s="20"/>
       <c r="E93" s="20"/>
       <c r="F93" s="21"/>
-      <c r="G93" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G93" s="25"/>
       <c r="H93" s="21"/>
       <c r="I93" s="21"/>
       <c r="J93" s="19"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="19">
         <v>85</v>
       </c>
@@ -2558,15 +2306,12 @@
       <c r="D94" s="20"/>
       <c r="E94" s="20"/>
       <c r="F94" s="21"/>
-      <c r="G94" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G94" s="25"/>
       <c r="H94" s="21"/>
       <c r="I94" s="21"/>
       <c r="J94" s="19"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="19">
         <v>86</v>
       </c>
@@ -2575,15 +2320,12 @@
       <c r="D95" s="20"/>
       <c r="E95" s="20"/>
       <c r="F95" s="21"/>
-      <c r="G95" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G95" s="25"/>
       <c r="H95" s="21"/>
       <c r="I95" s="21"/>
       <c r="J95" s="19"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="19">
         <v>87</v>
       </c>
@@ -2592,15 +2334,12 @@
       <c r="D96" s="20"/>
       <c r="E96" s="20"/>
       <c r="F96" s="21"/>
-      <c r="G96" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G96" s="25"/>
       <c r="H96" s="21"/>
       <c r="I96" s="21"/>
       <c r="J96" s="19"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="19">
         <v>88</v>
       </c>
@@ -2609,15 +2348,12 @@
       <c r="D97" s="20"/>
       <c r="E97" s="20"/>
       <c r="F97" s="21"/>
-      <c r="G97" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G97" s="25"/>
       <c r="H97" s="21"/>
       <c r="I97" s="21"/>
       <c r="J97" s="19"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="19">
         <v>89</v>
       </c>
@@ -2626,15 +2362,12 @@
       <c r="D98" s="20"/>
       <c r="E98" s="20"/>
       <c r="F98" s="21"/>
-      <c r="G98" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G98" s="25"/>
       <c r="H98" s="21"/>
       <c r="I98" s="21"/>
       <c r="J98" s="19"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="19">
         <v>90</v>
       </c>
@@ -2643,15 +2376,12 @@
       <c r="D99" s="20"/>
       <c r="E99" s="20"/>
       <c r="F99" s="21"/>
-      <c r="G99" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G99" s="25"/>
       <c r="H99" s="21"/>
       <c r="I99" s="21"/>
       <c r="J99" s="19"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="19">
         <v>91</v>
       </c>
@@ -2660,15 +2390,12 @@
       <c r="D100" s="20"/>
       <c r="E100" s="20"/>
       <c r="F100" s="21"/>
-      <c r="G100" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G100" s="25"/>
       <c r="H100" s="21"/>
       <c r="I100" s="21"/>
       <c r="J100" s="19"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="19">
         <v>92</v>
       </c>
@@ -2677,15 +2404,12 @@
       <c r="D101" s="20"/>
       <c r="E101" s="20"/>
       <c r="F101" s="21"/>
-      <c r="G101" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G101" s="25"/>
       <c r="H101" s="21"/>
       <c r="I101" s="21"/>
       <c r="J101" s="19"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="19">
         <v>93</v>
       </c>
@@ -2694,15 +2418,12 @@
       <c r="D102" s="20"/>
       <c r="E102" s="20"/>
       <c r="F102" s="21"/>
-      <c r="G102" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G102" s="25"/>
       <c r="H102" s="21"/>
       <c r="I102" s="21"/>
       <c r="J102" s="19"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="19">
         <v>94</v>
       </c>
@@ -2711,15 +2432,12 @@
       <c r="D103" s="20"/>
       <c r="E103" s="20"/>
       <c r="F103" s="21"/>
-      <c r="G103" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G103" s="25"/>
       <c r="H103" s="21"/>
       <c r="I103" s="21"/>
       <c r="J103" s="19"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="19">
         <v>95</v>
       </c>
@@ -2728,15 +2446,12 @@
       <c r="D104" s="20"/>
       <c r="E104" s="20"/>
       <c r="F104" s="21"/>
-      <c r="G104" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G104" s="25"/>
       <c r="H104" s="21"/>
       <c r="I104" s="21"/>
       <c r="J104" s="19"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="19">
         <v>96</v>
       </c>
@@ -2745,15 +2460,12 @@
       <c r="D105" s="20"/>
       <c r="E105" s="20"/>
       <c r="F105" s="21"/>
-      <c r="G105" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G105" s="25"/>
       <c r="H105" s="21"/>
       <c r="I105" s="21"/>
       <c r="J105" s="19"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="19">
         <v>97</v>
       </c>
@@ -2762,15 +2474,12 @@
       <c r="D106" s="20"/>
       <c r="E106" s="20"/>
       <c r="F106" s="21"/>
-      <c r="G106" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G106" s="25"/>
       <c r="H106" s="21"/>
       <c r="I106" s="21"/>
       <c r="J106" s="19"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="19">
         <v>98</v>
       </c>
@@ -2779,15 +2488,12 @@
       <c r="D107" s="20"/>
       <c r="E107" s="20"/>
       <c r="F107" s="21"/>
-      <c r="G107" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G107" s="25"/>
       <c r="H107" s="21"/>
       <c r="I107" s="21"/>
       <c r="J107" s="19"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="19">
         <v>99</v>
       </c>
@@ -2796,15 +2502,12 @@
       <c r="D108" s="20"/>
       <c r="E108" s="20"/>
       <c r="F108" s="21"/>
-      <c r="G108" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G108" s="25"/>
       <c r="H108" s="21"/>
       <c r="I108" s="21"/>
       <c r="J108" s="19"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="19">
         <v>100</v>
       </c>
@@ -2813,15 +2516,12 @@
       <c r="D109" s="20"/>
       <c r="E109" s="20"/>
       <c r="F109" s="21"/>
-      <c r="G109" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G109" s="25"/>
       <c r="H109" s="21"/>
       <c r="I109" s="21"/>
       <c r="J109" s="19"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="19">
         <v>101</v>
       </c>
@@ -2830,15 +2530,12 @@
       <c r="D110" s="20"/>
       <c r="E110" s="20"/>
       <c r="F110" s="21"/>
-      <c r="G110" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G110" s="25"/>
       <c r="H110" s="21"/>
       <c r="I110" s="21"/>
       <c r="J110" s="19"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="19">
         <v>102</v>
       </c>
@@ -2847,15 +2544,12 @@
       <c r="D111" s="20"/>
       <c r="E111" s="20"/>
       <c r="F111" s="21"/>
-      <c r="G111" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G111" s="25"/>
       <c r="H111" s="21"/>
       <c r="I111" s="21"/>
       <c r="J111" s="19"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="19">
         <v>103</v>
       </c>
@@ -2864,15 +2558,12 @@
       <c r="D112" s="20"/>
       <c r="E112" s="20"/>
       <c r="F112" s="21"/>
-      <c r="G112" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G112" s="25"/>
       <c r="H112" s="21"/>
       <c r="I112" s="21"/>
       <c r="J112" s="19"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="19">
         <v>104</v>
       </c>
@@ -2881,15 +2572,12 @@
       <c r="D113" s="20"/>
       <c r="E113" s="20"/>
       <c r="F113" s="21"/>
-      <c r="G113" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G113" s="25"/>
       <c r="H113" s="21"/>
       <c r="I113" s="21"/>
       <c r="J113" s="19"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="19">
         <v>105</v>
       </c>
@@ -2898,15 +2586,12 @@
       <c r="D114" s="20"/>
       <c r="E114" s="20"/>
       <c r="F114" s="21"/>
-      <c r="G114" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G114" s="25"/>
       <c r="H114" s="21"/>
       <c r="I114" s="21"/>
       <c r="J114" s="19"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="19">
         <v>106</v>
       </c>
@@ -2915,15 +2600,12 @@
       <c r="D115" s="20"/>
       <c r="E115" s="20"/>
       <c r="F115" s="21"/>
-      <c r="G115" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G115" s="25"/>
       <c r="H115" s="21"/>
       <c r="I115" s="21"/>
       <c r="J115" s="19"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="19">
         <v>107</v>
       </c>
@@ -2932,15 +2614,12 @@
       <c r="D116" s="20"/>
       <c r="E116" s="20"/>
       <c r="F116" s="21"/>
-      <c r="G116" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G116" s="25"/>
       <c r="H116" s="21"/>
       <c r="I116" s="21"/>
       <c r="J116" s="19"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="19">
         <v>108</v>
       </c>
@@ -2949,15 +2628,12 @@
       <c r="D117" s="20"/>
       <c r="E117" s="20"/>
       <c r="F117" s="21"/>
-      <c r="G117" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G117" s="25"/>
       <c r="H117" s="21"/>
       <c r="I117" s="21"/>
       <c r="J117" s="19"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="19">
         <v>109</v>
       </c>
@@ -2966,15 +2642,12 @@
       <c r="D118" s="20"/>
       <c r="E118" s="20"/>
       <c r="F118" s="21"/>
-      <c r="G118" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G118" s="25"/>
       <c r="H118" s="21"/>
       <c r="I118" s="21"/>
       <c r="J118" s="19"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="19">
         <v>110</v>
       </c>
@@ -2983,15 +2656,12 @@
       <c r="D119" s="20"/>
       <c r="E119" s="20"/>
       <c r="F119" s="21"/>
-      <c r="G119" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G119" s="25"/>
       <c r="H119" s="21"/>
       <c r="I119" s="21"/>
       <c r="J119" s="19"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="19">
         <v>111</v>
       </c>
@@ -3000,15 +2670,12 @@
       <c r="D120" s="20"/>
       <c r="E120" s="20"/>
       <c r="F120" s="21"/>
-      <c r="G120" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G120" s="25"/>
       <c r="H120" s="21"/>
       <c r="I120" s="21"/>
       <c r="J120" s="19"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="19">
         <v>112</v>
       </c>
@@ -3017,15 +2684,12 @@
       <c r="D121" s="20"/>
       <c r="E121" s="20"/>
       <c r="F121" s="21"/>
-      <c r="G121" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G121" s="25"/>
       <c r="H121" s="21"/>
       <c r="I121" s="21"/>
       <c r="J121" s="19"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="19">
         <v>113</v>
       </c>
@@ -3034,15 +2698,12 @@
       <c r="D122" s="20"/>
       <c r="E122" s="20"/>
       <c r="F122" s="21"/>
-      <c r="G122" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G122" s="25"/>
       <c r="H122" s="21"/>
       <c r="I122" s="21"/>
       <c r="J122" s="19"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="19">
         <v>114</v>
       </c>
@@ -3051,15 +2712,12 @@
       <c r="D123" s="20"/>
       <c r="E123" s="20"/>
       <c r="F123" s="21"/>
-      <c r="G123" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G123" s="25"/>
       <c r="H123" s="21"/>
       <c r="I123" s="21"/>
       <c r="J123" s="19"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="19">
         <v>115</v>
       </c>
@@ -3068,15 +2726,12 @@
       <c r="D124" s="20"/>
       <c r="E124" s="20"/>
       <c r="F124" s="21"/>
-      <c r="G124" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G124" s="25"/>
       <c r="H124" s="21"/>
       <c r="I124" s="21"/>
       <c r="J124" s="19"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="19">
         <v>116</v>
       </c>
@@ -3085,15 +2740,12 @@
       <c r="D125" s="20"/>
       <c r="E125" s="20"/>
       <c r="F125" s="21"/>
-      <c r="G125" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G125" s="25"/>
       <c r="H125" s="21"/>
       <c r="I125" s="21"/>
       <c r="J125" s="19"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="19">
         <v>117</v>
       </c>
@@ -3102,15 +2754,12 @@
       <c r="D126" s="20"/>
       <c r="E126" s="20"/>
       <c r="F126" s="21"/>
-      <c r="G126" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G126" s="25"/>
       <c r="H126" s="21"/>
       <c r="I126" s="21"/>
       <c r="J126" s="19"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="19">
         <v>118</v>
       </c>
@@ -3119,15 +2768,12 @@
       <c r="D127" s="20"/>
       <c r="E127" s="20"/>
       <c r="F127" s="21"/>
-      <c r="G127" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G127" s="25"/>
       <c r="H127" s="21"/>
       <c r="I127" s="21"/>
       <c r="J127" s="19"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="19">
         <v>119</v>
       </c>
@@ -3136,15 +2782,12 @@
       <c r="D128" s="20"/>
       <c r="E128" s="20"/>
       <c r="F128" s="21"/>
-      <c r="G128" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G128" s="25"/>
       <c r="H128" s="21"/>
       <c r="I128" s="21"/>
       <c r="J128" s="19"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="19">
         <v>120</v>
       </c>
@@ -3153,15 +2796,12 @@
       <c r="D129" s="20"/>
       <c r="E129" s="20"/>
       <c r="F129" s="21"/>
-      <c r="G129" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G129" s="25"/>
       <c r="H129" s="21"/>
       <c r="I129" s="21"/>
       <c r="J129" s="19"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="19">
         <v>121</v>
       </c>
@@ -3170,15 +2810,12 @@
       <c r="D130" s="20"/>
       <c r="E130" s="20"/>
       <c r="F130" s="21"/>
-      <c r="G130" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G130" s="25"/>
       <c r="H130" s="21"/>
       <c r="I130" s="21"/>
       <c r="J130" s="19"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="19">
         <v>122</v>
       </c>
@@ -3187,15 +2824,12 @@
       <c r="D131" s="20"/>
       <c r="E131" s="20"/>
       <c r="F131" s="21"/>
-      <c r="G131" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G131" s="25"/>
       <c r="H131" s="21"/>
       <c r="I131" s="21"/>
       <c r="J131" s="19"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="19">
         <v>123</v>
       </c>
@@ -3204,15 +2838,12 @@
       <c r="D132" s="20"/>
       <c r="E132" s="20"/>
       <c r="F132" s="21"/>
-      <c r="G132" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G132" s="25"/>
       <c r="H132" s="21"/>
       <c r="I132" s="21"/>
       <c r="J132" s="19"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="19">
         <v>124</v>
       </c>
@@ -3221,15 +2852,12 @@
       <c r="D133" s="20"/>
       <c r="E133" s="20"/>
       <c r="F133" s="21"/>
-      <c r="G133" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G133" s="25"/>
       <c r="H133" s="21"/>
       <c r="I133" s="21"/>
       <c r="J133" s="19"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="19">
         <v>125</v>
       </c>
@@ -3238,15 +2866,12 @@
       <c r="D134" s="20"/>
       <c r="E134" s="20"/>
       <c r="F134" s="21"/>
-      <c r="G134" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G134" s="25"/>
       <c r="H134" s="21"/>
       <c r="I134" s="21"/>
       <c r="J134" s="19"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="19">
         <v>126</v>
       </c>
@@ -3255,15 +2880,12 @@
       <c r="D135" s="20"/>
       <c r="E135" s="20"/>
       <c r="F135" s="21"/>
-      <c r="G135" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G135" s="25"/>
       <c r="H135" s="21"/>
       <c r="I135" s="21"/>
       <c r="J135" s="19"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="19">
         <v>127</v>
       </c>
@@ -3272,15 +2894,12 @@
       <c r="D136" s="20"/>
       <c r="E136" s="20"/>
       <c r="F136" s="21"/>
-      <c r="G136" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G136" s="25"/>
       <c r="H136" s="21"/>
       <c r="I136" s="21"/>
       <c r="J136" s="19"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="19">
         <v>128</v>
       </c>
@@ -3289,15 +2908,12 @@
       <c r="D137" s="20"/>
       <c r="E137" s="20"/>
       <c r="F137" s="21"/>
-      <c r="G137" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G137" s="25"/>
       <c r="H137" s="21"/>
       <c r="I137" s="21"/>
       <c r="J137" s="19"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="19">
         <v>129</v>
       </c>
@@ -3306,15 +2922,12 @@
       <c r="D138" s="20"/>
       <c r="E138" s="20"/>
       <c r="F138" s="21"/>
-      <c r="G138" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G138" s="25"/>
       <c r="H138" s="21"/>
       <c r="I138" s="21"/>
       <c r="J138" s="19"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="19">
         <v>130</v>
       </c>
@@ -3323,15 +2936,12 @@
       <c r="D139" s="20"/>
       <c r="E139" s="20"/>
       <c r="F139" s="21"/>
-      <c r="G139" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G139" s="25"/>
       <c r="H139" s="21"/>
       <c r="I139" s="21"/>
       <c r="J139" s="19"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="19">
         <v>131</v>
       </c>
@@ -3340,15 +2950,12 @@
       <c r="D140" s="20"/>
       <c r="E140" s="20"/>
       <c r="F140" s="21"/>
-      <c r="G140" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G140" s="25"/>
       <c r="H140" s="21"/>
       <c r="I140" s="21"/>
       <c r="J140" s="19"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="19">
         <v>132</v>
       </c>
@@ -3357,15 +2964,12 @@
       <c r="D141" s="20"/>
       <c r="E141" s="20"/>
       <c r="F141" s="21"/>
-      <c r="G141" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G141" s="25"/>
       <c r="H141" s="21"/>
       <c r="I141" s="21"/>
       <c r="J141" s="19"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="19">
         <v>133</v>
       </c>
@@ -3374,15 +2978,12 @@
       <c r="D142" s="20"/>
       <c r="E142" s="20"/>
       <c r="F142" s="21"/>
-      <c r="G142" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G142" s="25"/>
       <c r="H142" s="21"/>
       <c r="I142" s="21"/>
       <c r="J142" s="19"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="19">
         <v>134</v>
       </c>
@@ -3391,15 +2992,12 @@
       <c r="D143" s="20"/>
       <c r="E143" s="20"/>
       <c r="F143" s="21"/>
-      <c r="G143" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G143" s="25"/>
       <c r="H143" s="21"/>
       <c r="I143" s="21"/>
       <c r="J143" s="19"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="19">
         <v>135</v>
       </c>
@@ -3408,15 +3006,12 @@
       <c r="D144" s="20"/>
       <c r="E144" s="20"/>
       <c r="F144" s="21"/>
-      <c r="G144" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G144" s="25"/>
       <c r="H144" s="21"/>
       <c r="I144" s="21"/>
       <c r="J144" s="19"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="19">
         <v>136</v>
       </c>
@@ -3425,15 +3020,12 @@
       <c r="D145" s="20"/>
       <c r="E145" s="20"/>
       <c r="F145" s="21"/>
-      <c r="G145" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G145" s="25"/>
       <c r="H145" s="21"/>
       <c r="I145" s="21"/>
       <c r="J145" s="19"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="19">
         <v>137</v>
       </c>
@@ -3442,15 +3034,12 @@
       <c r="D146" s="20"/>
       <c r="E146" s="20"/>
       <c r="F146" s="21"/>
-      <c r="G146" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G146" s="25"/>
       <c r="H146" s="21"/>
       <c r="I146" s="21"/>
       <c r="J146" s="19"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="19">
         <v>138</v>
       </c>
@@ -3459,15 +3048,12 @@
       <c r="D147" s="20"/>
       <c r="E147" s="20"/>
       <c r="F147" s="21"/>
-      <c r="G147" s="25" t="str">
-        <f t="shared" ref="G147:G161" si="5">IF(B147&lt;&gt;"",G146+I147,"")</f>
-        <v/>
-      </c>
+      <c r="G147" s="25"/>
       <c r="H147" s="21"/>
       <c r="I147" s="21"/>
       <c r="J147" s="19"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="19">
         <v>139</v>
       </c>
@@ -3476,15 +3062,12 @@
       <c r="D148" s="20"/>
       <c r="E148" s="20"/>
       <c r="F148" s="21"/>
-      <c r="G148" s="25" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="G148" s="25"/>
       <c r="H148" s="21"/>
       <c r="I148" s="21"/>
       <c r="J148" s="19"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="19">
         <v>140</v>
       </c>
@@ -3493,15 +3076,12 @@
       <c r="D149" s="20"/>
       <c r="E149" s="20"/>
       <c r="F149" s="21"/>
-      <c r="G149" s="25" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="G149" s="25"/>
       <c r="H149" s="21"/>
       <c r="I149" s="21"/>
       <c r="J149" s="19"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="19">
         <v>141</v>
       </c>
@@ -3510,15 +3090,12 @@
       <c r="D150" s="20"/>
       <c r="E150" s="20"/>
       <c r="F150" s="21"/>
-      <c r="G150" s="25" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="G150" s="25"/>
       <c r="H150" s="21"/>
       <c r="I150" s="21"/>
       <c r="J150" s="19"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="19">
         <v>142</v>
       </c>
@@ -3527,15 +3104,12 @@
       <c r="D151" s="20"/>
       <c r="E151" s="20"/>
       <c r="F151" s="21"/>
-      <c r="G151" s="25" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="G151" s="25"/>
       <c r="H151" s="21"/>
       <c r="I151" s="21"/>
       <c r="J151" s="19"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="19">
         <v>143</v>
       </c>
@@ -3544,15 +3118,12 @@
       <c r="D152" s="20"/>
       <c r="E152" s="20"/>
       <c r="F152" s="21"/>
-      <c r="G152" s="25" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="G152" s="25"/>
       <c r="H152" s="21"/>
       <c r="I152" s="21"/>
       <c r="J152" s="19"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="19">
         <v>144</v>
       </c>
@@ -3561,15 +3132,12 @@
       <c r="D153" s="20"/>
       <c r="E153" s="20"/>
       <c r="F153" s="21"/>
-      <c r="G153" s="25" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="G153" s="25"/>
       <c r="H153" s="21"/>
       <c r="I153" s="21"/>
       <c r="J153" s="19"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="19">
         <v>145</v>
       </c>
@@ -3578,15 +3146,12 @@
       <c r="D154" s="20"/>
       <c r="E154" s="20"/>
       <c r="F154" s="21"/>
-      <c r="G154" s="25" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="G154" s="25"/>
       <c r="H154" s="21"/>
       <c r="I154" s="21"/>
       <c r="J154" s="19"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="19">
         <v>146</v>
       </c>
@@ -3595,15 +3160,12 @@
       <c r="D155" s="20"/>
       <c r="E155" s="20"/>
       <c r="F155" s="21"/>
-      <c r="G155" s="25" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="G155" s="25"/>
       <c r="H155" s="21"/>
       <c r="I155" s="21"/>
       <c r="J155" s="19"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="19">
         <v>147</v>
       </c>
@@ -3612,15 +3174,12 @@
       <c r="D156" s="20"/>
       <c r="E156" s="20"/>
       <c r="F156" s="21"/>
-      <c r="G156" s="25" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="G156" s="25"/>
       <c r="H156" s="21"/>
       <c r="I156" s="21"/>
       <c r="J156" s="19"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="19">
         <v>148</v>
       </c>
@@ -3629,15 +3188,12 @@
       <c r="D157" s="20"/>
       <c r="E157" s="20"/>
       <c r="F157" s="21"/>
-      <c r="G157" s="25" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="G157" s="25"/>
       <c r="H157" s="21"/>
       <c r="I157" s="21"/>
       <c r="J157" s="19"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="19">
         <v>149</v>
       </c>
@@ -3646,15 +3202,12 @@
       <c r="D158" s="20"/>
       <c r="E158" s="20"/>
       <c r="F158" s="21"/>
-      <c r="G158" s="25" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="G158" s="25"/>
       <c r="H158" s="21"/>
       <c r="I158" s="21"/>
       <c r="J158" s="19"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="19">
         <v>150</v>
       </c>
@@ -3663,15 +3216,12 @@
       <c r="D159" s="20"/>
       <c r="E159" s="20"/>
       <c r="F159" s="21"/>
-      <c r="G159" s="25" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="G159" s="25"/>
       <c r="H159" s="21"/>
       <c r="I159" s="21"/>
       <c r="J159" s="19"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="19">
         <v>151</v>
       </c>
@@ -3680,15 +3230,12 @@
       <c r="D160" s="20"/>
       <c r="E160" s="20"/>
       <c r="F160" s="21"/>
-      <c r="G160" s="25" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="G160" s="25"/>
       <c r="H160" s="21"/>
       <c r="I160" s="21"/>
       <c r="J160" s="19"/>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" s="19">
         <v>152</v>
       </c>
@@ -3697,15 +3244,12 @@
       <c r="D161" s="20"/>
       <c r="E161" s="20"/>
       <c r="F161" s="21"/>
-      <c r="G161" s="25" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="G161" s="25"/>
       <c r="H161" s="21"/>
       <c r="I161" s="21"/>
       <c r="J161" s="19"/>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" s="19">
         <v>153</v>
       </c>
@@ -3714,15 +3258,12 @@
       <c r="D162" s="20"/>
       <c r="E162" s="20"/>
       <c r="F162" s="21"/>
-      <c r="G162" s="25" t="str">
-        <f>IF(B162&lt;&gt;"",G146+I162,"")</f>
-        <v/>
-      </c>
+      <c r="G162" s="25"/>
       <c r="H162" s="21"/>
       <c r="I162" s="21"/>
       <c r="J162" s="19"/>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" s="19">
         <v>154</v>
       </c>
@@ -3731,15 +3272,12 @@
       <c r="D163" s="20"/>
       <c r="E163" s="20"/>
       <c r="F163" s="21"/>
-      <c r="G163" s="25" t="str">
-        <f t="shared" ref="G163:G169" si="6">IF(B163&lt;&gt;"",G162+I163,"")</f>
-        <v/>
-      </c>
+      <c r="G163" s="25"/>
       <c r="H163" s="21"/>
       <c r="I163" s="21"/>
       <c r="J163" s="19"/>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" s="19">
         <v>155</v>
       </c>
@@ -3748,15 +3286,12 @@
       <c r="D164" s="20"/>
       <c r="E164" s="20"/>
       <c r="F164" s="21"/>
-      <c r="G164" s="25" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+      <c r="G164" s="25"/>
       <c r="H164" s="21"/>
       <c r="I164" s="21"/>
       <c r="J164" s="19"/>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" s="19">
         <v>156</v>
       </c>
@@ -3765,15 +3300,12 @@
       <c r="D165" s="20"/>
       <c r="E165" s="20"/>
       <c r="F165" s="21"/>
-      <c r="G165" s="25" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+      <c r="G165" s="25"/>
       <c r="H165" s="21"/>
       <c r="I165" s="21"/>
       <c r="J165" s="19"/>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" s="19">
         <v>157</v>
       </c>
@@ -3782,15 +3314,12 @@
       <c r="D166" s="20"/>
       <c r="E166" s="20"/>
       <c r="F166" s="21"/>
-      <c r="G166" s="25" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+      <c r="G166" s="25"/>
       <c r="H166" s="21"/>
       <c r="I166" s="21"/>
       <c r="J166" s="19"/>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" s="19">
         <v>158</v>
       </c>
@@ -3799,15 +3328,12 @@
       <c r="D167" s="20"/>
       <c r="E167" s="20"/>
       <c r="F167" s="21"/>
-      <c r="G167" s="25" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+      <c r="G167" s="25"/>
       <c r="H167" s="21"/>
       <c r="I167" s="21"/>
       <c r="J167" s="19"/>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" s="19">
         <v>159</v>
       </c>
@@ -3816,15 +3342,12 @@
       <c r="D168" s="20"/>
       <c r="E168" s="20"/>
       <c r="F168" s="21"/>
-      <c r="G168" s="25" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+      <c r="G168" s="25"/>
       <c r="H168" s="21"/>
       <c r="I168" s="21"/>
       <c r="J168" s="19"/>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" s="19">
         <v>160</v>
       </c>
@@ -3833,15 +3356,12 @@
       <c r="D169" s="20"/>
       <c r="E169" s="20"/>
       <c r="F169" s="21"/>
-      <c r="G169" s="25" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+      <c r="G169" s="25"/>
       <c r="H169" s="21"/>
       <c r="I169" s="21"/>
       <c r="J169" s="19"/>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" s="19">
         <v>161</v>
       </c>
@@ -3850,15 +3370,12 @@
       <c r="D170" s="20"/>
       <c r="E170" s="20"/>
       <c r="F170" s="21"/>
-      <c r="G170" s="25" t="str">
-        <f>IF(B170&lt;&gt;"",G146+I170,"")</f>
-        <v/>
-      </c>
+      <c r="G170" s="25"/>
       <c r="H170" s="21"/>
       <c r="I170" s="21"/>
       <c r="J170" s="19"/>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" s="19">
         <v>162</v>
       </c>
@@ -3867,15 +3384,12 @@
       <c r="D171" s="20"/>
       <c r="E171" s="20"/>
       <c r="F171" s="21"/>
-      <c r="G171" s="25" t="str">
-        <f t="shared" ref="G171:G174" si="7">IF(B171&lt;&gt;"",G170+I171,"")</f>
-        <v/>
-      </c>
+      <c r="G171" s="25"/>
       <c r="H171" s="21"/>
       <c r="I171" s="21"/>
       <c r="J171" s="19"/>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" s="19">
         <v>163</v>
       </c>
@@ -3884,10 +3398,7 @@
       <c r="D172" s="20"/>
       <c r="E172" s="20"/>
       <c r="F172" s="21"/>
-      <c r="G172" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
+      <c r="G172" s="25"/>
       <c r="H172" s="21"/>
       <c r="I172" s="21"/>
       <c r="J172" s="19"/>
@@ -3900,7 +3411,7 @@
       </c>
       <c r="M172" s="35"/>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" s="19">
         <v>164</v>
       </c>
@@ -3909,10 +3420,7 @@
       <c r="D173" s="20"/>
       <c r="E173" s="20"/>
       <c r="F173" s="21"/>
-      <c r="G173" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
+      <c r="G173" s="25"/>
       <c r="H173" s="21"/>
       <c r="I173" s="21"/>
       <c r="J173" s="19"/>
@@ -3928,7 +3436,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" s="19">
         <v>165</v>
       </c>
@@ -3937,10 +3445,7 @@
       <c r="D174" s="20"/>
       <c r="E174" s="20"/>
       <c r="F174" s="21"/>
-      <c r="G174" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
+      <c r="G174" s="25"/>
       <c r="H174" s="21"/>
       <c r="I174" s="21"/>
       <c r="J174" s="19"/>

--- a/blank.xlsx
+++ b/blank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TT_GIT\UtnyilvantartoJava\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\TT_GIT\Útnyilvántartó Projekt\UtnyilvantartoJava\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6817B357-B224-4DCD-9132-7E1E91D2A043}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C229F0B1-31AC-45E8-ABA5-76B363272D45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="453" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="453" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nyomtat" sheetId="4" r:id="rId1"/>
@@ -959,24 +959,24 @@
   <dimension ref="A1:M174"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G10" sqref="G10:G174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="26" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="8" max="9" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="23"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -989,7 +989,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
@@ -1000,7 +1000,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="G3" s="8"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1025,7 +1025,7 @@
       <c r="G4" s="8"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>22</v>
       </c>
@@ -1037,7 +1037,7 @@
       <c r="G5" s="8"/>
       <c r="J5" s="30"/>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1051,7 +1051,7 @@
       <c r="I6" s="26"/>
       <c r="J6" s="32"/>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="F7" s="5" t="s">
         <v>21</v>
@@ -1061,7 +1061,7 @@
       <c r="I7" s="26"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="14" t="s">
         <v>17</v>
@@ -1115,7 +1115,7 @@
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="19">
         <v>1</v>
       </c>
@@ -1124,15 +1124,12 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="21"/>
-      <c r="G10" s="25" t="str">
-        <f>IF(B10&lt;&gt;"",$C$5+I10,"")</f>
-        <v/>
-      </c>
+      <c r="G10" s="25"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="19"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="19">
         <v>2</v>
       </c>
@@ -1141,15 +1138,12 @@
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
       <c r="F11" s="21"/>
-      <c r="G11" s="25" t="str">
-        <f>IF(B11&lt;&gt;"",G10+I11,"")</f>
-        <v/>
-      </c>
+      <c r="G11" s="25"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="19"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="19">
         <v>3</v>
       </c>
@@ -1158,10 +1152,7 @@
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="21"/>
-      <c r="G12" s="25" t="str">
-        <f t="shared" ref="G12:G54" si="0">IF(B12&lt;&gt;"",G11+I12,"")</f>
-        <v/>
-      </c>
+      <c r="G12" s="25"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="19"/>
@@ -1169,7 +1160,7 @@
       <c r="L12" s="42"/>
       <c r="M12" s="42"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="19">
         <v>4</v>
       </c>
@@ -1178,10 +1169,7 @@
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="21"/>
-      <c r="G13" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G13" s="25"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
       <c r="J13" s="19"/>
@@ -1189,7 +1177,7 @@
       <c r="L13" s="42"/>
       <c r="M13" s="43"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="19">
         <v>5</v>
       </c>
@@ -1198,15 +1186,12 @@
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="21"/>
-      <c r="G14" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G14" s="25"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="19"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="19">
         <v>6</v>
       </c>
@@ -1215,15 +1200,12 @@
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="21"/>
-      <c r="G15" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G15" s="25"/>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="19"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="19">
         <v>7</v>
       </c>
@@ -1232,15 +1214,12 @@
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="21"/>
-      <c r="G16" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G16" s="25"/>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
       <c r="J16" s="19"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="19">
         <v>8</v>
       </c>
@@ -1249,15 +1228,12 @@
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="21"/>
-      <c r="G17" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G17" s="25"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17" s="19"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="19">
         <v>9</v>
       </c>
@@ -1266,15 +1242,12 @@
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G18" s="25"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="19"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="19">
         <v>10</v>
       </c>
@@ -1283,15 +1256,12 @@
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
       <c r="F19" s="21"/>
-      <c r="G19" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G19" s="25"/>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="19"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="19">
         <v>11</v>
       </c>
@@ -1300,15 +1270,12 @@
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
       <c r="F20" s="21"/>
-      <c r="G20" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G20" s="25"/>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="19"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="19">
         <v>12</v>
       </c>
@@ -1317,15 +1284,12 @@
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
       <c r="F21" s="21"/>
-      <c r="G21" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G21" s="25"/>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="19"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="19">
         <v>13</v>
       </c>
@@ -1334,15 +1298,12 @@
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
       <c r="F22" s="21"/>
-      <c r="G22" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G22" s="25"/>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22" s="19"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="19">
         <v>14</v>
       </c>
@@ -1351,15 +1312,12 @@
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
       <c r="F23" s="21"/>
-      <c r="G23" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G23" s="25"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="19"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="19">
         <v>15</v>
       </c>
@@ -1368,15 +1326,12 @@
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="F24" s="21"/>
-      <c r="G24" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G24" s="25"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="19"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="19">
         <v>16</v>
       </c>
@@ -1385,15 +1340,12 @@
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
       <c r="F25" s="21"/>
-      <c r="G25" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G25" s="25"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="19"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="19">
         <v>17</v>
       </c>
@@ -1402,15 +1354,12 @@
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
       <c r="F26" s="21"/>
-      <c r="G26" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G26" s="25"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="19"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="19">
         <v>18</v>
       </c>
@@ -1419,15 +1368,12 @@
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
       <c r="F27" s="21"/>
-      <c r="G27" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G27" s="25"/>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="19"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="19">
         <v>19</v>
       </c>
@@ -1436,15 +1382,12 @@
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="21"/>
-      <c r="G28" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G28" s="25"/>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="19"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="19">
         <v>20</v>
       </c>
@@ -1453,15 +1396,12 @@
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
       <c r="F29" s="21"/>
-      <c r="G29" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G29" s="25"/>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
       <c r="J29" s="19"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="19">
         <v>21</v>
       </c>
@@ -1470,15 +1410,12 @@
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G30" s="25"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="19"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="19">
         <v>22</v>
       </c>
@@ -1487,15 +1424,12 @@
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
       <c r="F31" s="21"/>
-      <c r="G31" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G31" s="25"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="19"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="19">
         <v>23</v>
       </c>
@@ -1504,15 +1438,12 @@
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
       <c r="F32" s="21"/>
-      <c r="G32" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G32" s="25"/>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="19"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="19">
         <v>24</v>
       </c>
@@ -1521,15 +1452,12 @@
       <c r="D33" s="20"/>
       <c r="E33" s="20"/>
       <c r="F33" s="21"/>
-      <c r="G33" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G33" s="25"/>
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="19"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="19">
         <v>25</v>
       </c>
@@ -1538,15 +1466,12 @@
       <c r="D34" s="20"/>
       <c r="E34" s="20"/>
       <c r="F34" s="21"/>
-      <c r="G34" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G34" s="25"/>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="19"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="19">
         <v>26</v>
       </c>
@@ -1555,15 +1480,12 @@
       <c r="D35" s="20"/>
       <c r="E35" s="20"/>
       <c r="F35" s="21"/>
-      <c r="G35" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G35" s="25"/>
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
       <c r="J35" s="19"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="19">
         <v>27</v>
       </c>
@@ -1572,15 +1494,12 @@
       <c r="D36" s="20"/>
       <c r="E36" s="20"/>
       <c r="F36" s="21"/>
-      <c r="G36" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G36" s="25"/>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="19"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="19">
         <v>28</v>
       </c>
@@ -1589,15 +1508,12 @@
       <c r="D37" s="20"/>
       <c r="E37" s="20"/>
       <c r="F37" s="21"/>
-      <c r="G37" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G37" s="25"/>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
       <c r="J37" s="19"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="19">
         <v>29</v>
       </c>
@@ -1606,15 +1522,12 @@
       <c r="D38" s="20"/>
       <c r="E38" s="20"/>
       <c r="F38" s="21"/>
-      <c r="G38" s="25" t="str">
-        <f t="shared" ref="G38" si="1">IF(B38&lt;&gt;"",G37+I38,"")</f>
-        <v/>
-      </c>
+      <c r="G38" s="25"/>
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="19"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="19">
         <v>30</v>
       </c>
@@ -1623,15 +1536,12 @@
       <c r="D39" s="20"/>
       <c r="E39" s="20"/>
       <c r="F39" s="21"/>
-      <c r="G39" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G39" s="25"/>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="19"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="19">
         <v>31</v>
       </c>
@@ -1640,15 +1550,12 @@
       <c r="D40" s="20"/>
       <c r="E40" s="20"/>
       <c r="F40" s="21"/>
-      <c r="G40" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G40" s="25"/>
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
       <c r="J40" s="19"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="19">
         <v>32</v>
       </c>
@@ -1657,15 +1564,12 @@
       <c r="D41" s="20"/>
       <c r="E41" s="20"/>
       <c r="F41" s="21"/>
-      <c r="G41" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G41" s="25"/>
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
       <c r="J41" s="19"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="19">
         <v>33</v>
       </c>
@@ -1674,15 +1578,12 @@
       <c r="D42" s="20"/>
       <c r="E42" s="20"/>
       <c r="F42" s="21"/>
-      <c r="G42" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G42" s="25"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="19"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="19">
         <v>34</v>
       </c>
@@ -1691,15 +1592,12 @@
       <c r="D43" s="20"/>
       <c r="E43" s="20"/>
       <c r="F43" s="21"/>
-      <c r="G43" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G43" s="25"/>
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
       <c r="J43" s="19"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="19">
         <v>35</v>
       </c>
@@ -1708,15 +1606,12 @@
       <c r="D44" s="20"/>
       <c r="E44" s="20"/>
       <c r="F44" s="21"/>
-      <c r="G44" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G44" s="25"/>
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
       <c r="J44" s="19"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="19">
         <v>36</v>
       </c>
@@ -1725,15 +1620,12 @@
       <c r="D45" s="20"/>
       <c r="E45" s="20"/>
       <c r="F45" s="21"/>
-      <c r="G45" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G45" s="25"/>
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
       <c r="J45" s="19"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="19">
         <v>37</v>
       </c>
@@ -1742,15 +1634,12 @@
       <c r="D46" s="20"/>
       <c r="E46" s="20"/>
       <c r="F46" s="21"/>
-      <c r="G46" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G46" s="25"/>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
       <c r="J46" s="19"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="19">
         <v>38</v>
       </c>
@@ -1759,15 +1648,12 @@
       <c r="D47" s="20"/>
       <c r="E47" s="20"/>
       <c r="F47" s="21"/>
-      <c r="G47" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G47" s="25"/>
       <c r="H47" s="21"/>
       <c r="I47" s="21"/>
       <c r="J47" s="19"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="19">
         <v>39</v>
       </c>
@@ -1776,15 +1662,12 @@
       <c r="D48" s="20"/>
       <c r="E48" s="20"/>
       <c r="F48" s="21"/>
-      <c r="G48" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G48" s="25"/>
       <c r="H48" s="21"/>
       <c r="I48" s="21"/>
       <c r="J48" s="19"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="19">
         <v>40</v>
       </c>
@@ -1793,15 +1676,12 @@
       <c r="D49" s="20"/>
       <c r="E49" s="20"/>
       <c r="F49" s="21"/>
-      <c r="G49" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G49" s="25"/>
       <c r="H49" s="21"/>
       <c r="I49" s="21"/>
       <c r="J49" s="19"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="19">
         <v>41</v>
       </c>
@@ -1810,15 +1690,12 @@
       <c r="D50" s="20"/>
       <c r="E50" s="20"/>
       <c r="F50" s="21"/>
-      <c r="G50" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G50" s="25"/>
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
       <c r="J50" s="19"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="19">
         <v>42</v>
       </c>
@@ -1827,15 +1704,12 @@
       <c r="D51" s="20"/>
       <c r="E51" s="20"/>
       <c r="F51" s="21"/>
-      <c r="G51" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G51" s="25"/>
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
       <c r="J51" s="19"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="19">
         <v>43</v>
       </c>
@@ -1844,15 +1718,12 @@
       <c r="D52" s="20"/>
       <c r="E52" s="20"/>
       <c r="F52" s="21"/>
-      <c r="G52" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G52" s="25"/>
       <c r="H52" s="21"/>
       <c r="I52" s="21"/>
       <c r="J52" s="19"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="19">
         <v>44</v>
       </c>
@@ -1861,15 +1732,12 @@
       <c r="D53" s="20"/>
       <c r="E53" s="20"/>
       <c r="F53" s="21"/>
-      <c r="G53" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G53" s="25"/>
       <c r="H53" s="21"/>
       <c r="I53" s="21"/>
       <c r="J53" s="19"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="19">
         <v>45</v>
       </c>
@@ -1878,15 +1746,12 @@
       <c r="D54" s="20"/>
       <c r="E54" s="20"/>
       <c r="F54" s="21"/>
-      <c r="G54" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G54" s="25"/>
       <c r="H54" s="21"/>
       <c r="I54" s="21"/>
       <c r="J54" s="19"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="19">
         <v>46</v>
       </c>
@@ -1895,15 +1760,12 @@
       <c r="D55" s="20"/>
       <c r="E55" s="20"/>
       <c r="F55" s="21"/>
-      <c r="G55" s="25" t="str">
-        <f t="shared" ref="G55:G65" si="2">IF(B55&lt;&gt;"",G54+I55,"")</f>
-        <v/>
-      </c>
+      <c r="G55" s="25"/>
       <c r="H55" s="21"/>
       <c r="I55" s="21"/>
       <c r="J55" s="19"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="19">
         <v>47</v>
       </c>
@@ -1912,15 +1774,12 @@
       <c r="D56" s="20"/>
       <c r="E56" s="20"/>
       <c r="F56" s="21"/>
-      <c r="G56" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="G56" s="25"/>
       <c r="H56" s="21"/>
       <c r="I56" s="21"/>
       <c r="J56" s="19"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="19">
         <v>48</v>
       </c>
@@ -1929,15 +1788,12 @@
       <c r="D57" s="20"/>
       <c r="E57" s="20"/>
       <c r="F57" s="21"/>
-      <c r="G57" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="G57" s="25"/>
       <c r="H57" s="21"/>
       <c r="I57" s="21"/>
       <c r="J57" s="19"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="19">
         <v>49</v>
       </c>
@@ -1946,15 +1802,12 @@
       <c r="D58" s="20"/>
       <c r="E58" s="20"/>
       <c r="F58" s="21"/>
-      <c r="G58" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="G58" s="25"/>
       <c r="H58" s="21"/>
       <c r="I58" s="21"/>
       <c r="J58" s="19"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="19">
         <v>50</v>
       </c>
@@ -1963,15 +1816,12 @@
       <c r="D59" s="20"/>
       <c r="E59" s="20"/>
       <c r="F59" s="21"/>
-      <c r="G59" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="G59" s="25"/>
       <c r="H59" s="21"/>
       <c r="I59" s="21"/>
       <c r="J59" s="19"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="19">
         <v>51</v>
       </c>
@@ -1980,15 +1830,12 @@
       <c r="D60" s="20"/>
       <c r="E60" s="20"/>
       <c r="F60" s="21"/>
-      <c r="G60" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="G60" s="25"/>
       <c r="H60" s="21"/>
       <c r="I60" s="21"/>
       <c r="J60" s="19"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="19">
         <v>52</v>
       </c>
@@ -1997,15 +1844,12 @@
       <c r="D61" s="20"/>
       <c r="E61" s="20"/>
       <c r="F61" s="21"/>
-      <c r="G61" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="G61" s="25"/>
       <c r="H61" s="21"/>
       <c r="I61" s="21"/>
       <c r="J61" s="19"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="19">
         <v>53</v>
       </c>
@@ -2014,15 +1858,12 @@
       <c r="D62" s="20"/>
       <c r="E62" s="20"/>
       <c r="F62" s="21"/>
-      <c r="G62" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="G62" s="25"/>
       <c r="H62" s="21"/>
       <c r="I62" s="21"/>
       <c r="J62" s="19"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="19">
         <v>54</v>
       </c>
@@ -2031,15 +1872,12 @@
       <c r="D63" s="20"/>
       <c r="E63" s="20"/>
       <c r="F63" s="21"/>
-      <c r="G63" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="G63" s="25"/>
       <c r="H63" s="21"/>
       <c r="I63" s="21"/>
       <c r="J63" s="19"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="19">
         <v>55</v>
       </c>
@@ -2048,15 +1886,12 @@
       <c r="D64" s="20"/>
       <c r="E64" s="20"/>
       <c r="F64" s="21"/>
-      <c r="G64" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="G64" s="25"/>
       <c r="H64" s="21"/>
       <c r="I64" s="21"/>
       <c r="J64" s="19"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="19">
         <v>56</v>
       </c>
@@ -2065,15 +1900,12 @@
       <c r="D65" s="20"/>
       <c r="E65" s="20"/>
       <c r="F65" s="21"/>
-      <c r="G65" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="G65" s="25"/>
       <c r="H65" s="21"/>
       <c r="I65" s="21"/>
       <c r="J65" s="19"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="19">
         <v>57</v>
       </c>
@@ -2082,15 +1914,12 @@
       <c r="D66" s="20"/>
       <c r="E66" s="20"/>
       <c r="F66" s="21"/>
-      <c r="G66" s="25" t="str">
-        <f t="shared" ref="G66:G80" si="3">IF(B66&lt;&gt;"",G65+I66,"")</f>
-        <v/>
-      </c>
+      <c r="G66" s="25"/>
       <c r="H66" s="21"/>
       <c r="I66" s="21"/>
       <c r="J66" s="19"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="19">
         <v>58</v>
       </c>
@@ -2099,15 +1928,12 @@
       <c r="D67" s="20"/>
       <c r="E67" s="20"/>
       <c r="F67" s="21"/>
-      <c r="G67" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="G67" s="25"/>
       <c r="H67" s="21"/>
       <c r="I67" s="21"/>
       <c r="J67" s="19"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="19">
         <v>59</v>
       </c>
@@ -2116,15 +1942,12 @@
       <c r="D68" s="20"/>
       <c r="E68" s="20"/>
       <c r="F68" s="21"/>
-      <c r="G68" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="G68" s="25"/>
       <c r="H68" s="21"/>
       <c r="I68" s="21"/>
       <c r="J68" s="19"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="19">
         <v>60</v>
       </c>
@@ -2133,15 +1956,12 @@
       <c r="D69" s="20"/>
       <c r="E69" s="20"/>
       <c r="F69" s="21"/>
-      <c r="G69" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="G69" s="25"/>
       <c r="H69" s="21"/>
       <c r="I69" s="21"/>
       <c r="J69" s="19"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="19">
         <v>61</v>
       </c>
@@ -2150,15 +1970,12 @@
       <c r="D70" s="20"/>
       <c r="E70" s="20"/>
       <c r="F70" s="21"/>
-      <c r="G70" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="G70" s="25"/>
       <c r="H70" s="21"/>
       <c r="I70" s="21"/>
       <c r="J70" s="19"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="19">
         <v>62</v>
       </c>
@@ -2167,15 +1984,12 @@
       <c r="D71" s="20"/>
       <c r="E71" s="20"/>
       <c r="F71" s="21"/>
-      <c r="G71" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="G71" s="25"/>
       <c r="H71" s="21"/>
       <c r="I71" s="21"/>
       <c r="J71" s="19"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="19">
         <v>63</v>
       </c>
@@ -2184,15 +1998,12 @@
       <c r="D72" s="20"/>
       <c r="E72" s="20"/>
       <c r="F72" s="21"/>
-      <c r="G72" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="G72" s="25"/>
       <c r="H72" s="21"/>
       <c r="I72" s="21"/>
       <c r="J72" s="19"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="19">
         <v>64</v>
       </c>
@@ -2201,15 +2012,12 @@
       <c r="D73" s="20"/>
       <c r="E73" s="20"/>
       <c r="F73" s="21"/>
-      <c r="G73" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="G73" s="25"/>
       <c r="H73" s="21"/>
       <c r="I73" s="21"/>
       <c r="J73" s="19"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="19">
         <v>65</v>
       </c>
@@ -2218,15 +2026,12 @@
       <c r="D74" s="20"/>
       <c r="E74" s="20"/>
       <c r="F74" s="21"/>
-      <c r="G74" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="G74" s="25"/>
       <c r="H74" s="21"/>
       <c r="I74" s="21"/>
       <c r="J74" s="19"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="19">
         <v>66</v>
       </c>
@@ -2235,15 +2040,12 @@
       <c r="D75" s="20"/>
       <c r="E75" s="20"/>
       <c r="F75" s="21"/>
-      <c r="G75" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="G75" s="25"/>
       <c r="H75" s="21"/>
       <c r="I75" s="21"/>
       <c r="J75" s="19"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="19">
         <v>67</v>
       </c>
@@ -2252,15 +2054,12 @@
       <c r="D76" s="20"/>
       <c r="E76" s="20"/>
       <c r="F76" s="21"/>
-      <c r="G76" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="G76" s="25"/>
       <c r="H76" s="21"/>
       <c r="I76" s="21"/>
       <c r="J76" s="19"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="19">
         <v>68</v>
       </c>
@@ -2269,15 +2068,12 @@
       <c r="D77" s="20"/>
       <c r="E77" s="20"/>
       <c r="F77" s="21"/>
-      <c r="G77" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="G77" s="25"/>
       <c r="H77" s="21"/>
       <c r="I77" s="21"/>
       <c r="J77" s="19"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="19">
         <v>69</v>
       </c>
@@ -2286,15 +2082,12 @@
       <c r="D78" s="20"/>
       <c r="E78" s="20"/>
       <c r="F78" s="21"/>
-      <c r="G78" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="G78" s="25"/>
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
       <c r="J78" s="19"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="19">
         <v>70</v>
       </c>
@@ -2303,15 +2096,12 @@
       <c r="D79" s="20"/>
       <c r="E79" s="20"/>
       <c r="F79" s="21"/>
-      <c r="G79" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="G79" s="25"/>
       <c r="H79" s="21"/>
       <c r="I79" s="21"/>
       <c r="J79" s="19"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="19">
         <v>71</v>
       </c>
@@ -2320,15 +2110,12 @@
       <c r="D80" s="20"/>
       <c r="E80" s="20"/>
       <c r="F80" s="21"/>
-      <c r="G80" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="G80" s="25"/>
       <c r="H80" s="21"/>
       <c r="I80" s="21"/>
       <c r="J80" s="19"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="19">
         <v>72</v>
       </c>
@@ -2337,15 +2124,12 @@
       <c r="D81" s="20"/>
       <c r="E81" s="20"/>
       <c r="F81" s="21"/>
-      <c r="G81" s="25" t="str">
-        <f>IF(B81&lt;&gt;"",$C$5+I81,"")</f>
-        <v/>
-      </c>
+      <c r="G81" s="25"/>
       <c r="H81" s="21"/>
       <c r="I81" s="21"/>
       <c r="J81" s="19"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="19">
         <v>73</v>
       </c>
@@ -2354,15 +2138,12 @@
       <c r="D82" s="20"/>
       <c r="E82" s="20"/>
       <c r="F82" s="21"/>
-      <c r="G82" s="25" t="str">
-        <f>IF(B82&lt;&gt;"",G81+I82,"")</f>
-        <v/>
-      </c>
+      <c r="G82" s="25"/>
       <c r="H82" s="21"/>
       <c r="I82" s="21"/>
       <c r="J82" s="19"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="19">
         <v>74</v>
       </c>
@@ -2371,15 +2152,12 @@
       <c r="D83" s="20"/>
       <c r="E83" s="20"/>
       <c r="F83" s="21"/>
-      <c r="G83" s="25" t="str">
-        <f t="shared" ref="G83:G146" si="4">IF(B83&lt;&gt;"",G82+I83,"")</f>
-        <v/>
-      </c>
+      <c r="G83" s="25"/>
       <c r="H83" s="21"/>
       <c r="I83" s="21"/>
       <c r="J83" s="19"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="19">
         <v>75</v>
       </c>
@@ -2388,15 +2166,12 @@
       <c r="D84" s="20"/>
       <c r="E84" s="20"/>
       <c r="F84" s="21"/>
-      <c r="G84" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G84" s="25"/>
       <c r="H84" s="21"/>
       <c r="I84" s="21"/>
       <c r="J84" s="19"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="19">
         <v>76</v>
       </c>
@@ -2405,15 +2180,12 @@
       <c r="D85" s="20"/>
       <c r="E85" s="20"/>
       <c r="F85" s="21"/>
-      <c r="G85" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G85" s="25"/>
       <c r="H85" s="21"/>
       <c r="I85" s="21"/>
       <c r="J85" s="19"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="19">
         <v>77</v>
       </c>
@@ -2422,15 +2194,12 @@
       <c r="D86" s="20"/>
       <c r="E86" s="20"/>
       <c r="F86" s="21"/>
-      <c r="G86" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G86" s="25"/>
       <c r="H86" s="21"/>
       <c r="I86" s="21"/>
       <c r="J86" s="19"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="19">
         <v>78</v>
       </c>
@@ -2439,15 +2208,12 @@
       <c r="D87" s="20"/>
       <c r="E87" s="20"/>
       <c r="F87" s="21"/>
-      <c r="G87" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G87" s="25"/>
       <c r="H87" s="21"/>
       <c r="I87" s="21"/>
       <c r="J87" s="19"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="19">
         <v>79</v>
       </c>
@@ -2456,15 +2222,12 @@
       <c r="D88" s="20"/>
       <c r="E88" s="20"/>
       <c r="F88" s="21"/>
-      <c r="G88" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G88" s="25"/>
       <c r="H88" s="21"/>
       <c r="I88" s="21"/>
       <c r="J88" s="19"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="19">
         <v>80</v>
       </c>
@@ -2473,15 +2236,12 @@
       <c r="D89" s="20"/>
       <c r="E89" s="20"/>
       <c r="F89" s="21"/>
-      <c r="G89" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G89" s="25"/>
       <c r="H89" s="21"/>
       <c r="I89" s="21"/>
       <c r="J89" s="19"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="19">
         <v>81</v>
       </c>
@@ -2490,15 +2250,12 @@
       <c r="D90" s="20"/>
       <c r="E90" s="20"/>
       <c r="F90" s="21"/>
-      <c r="G90" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G90" s="25"/>
       <c r="H90" s="21"/>
       <c r="I90" s="21"/>
       <c r="J90" s="19"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="19">
         <v>82</v>
       </c>
@@ -2507,15 +2264,12 @@
       <c r="D91" s="20"/>
       <c r="E91" s="20"/>
       <c r="F91" s="21"/>
-      <c r="G91" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G91" s="25"/>
       <c r="H91" s="21"/>
       <c r="I91" s="21"/>
       <c r="J91" s="19"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="19">
         <v>83</v>
       </c>
@@ -2524,15 +2278,12 @@
       <c r="D92" s="20"/>
       <c r="E92" s="20"/>
       <c r="F92" s="21"/>
-      <c r="G92" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G92" s="25"/>
       <c r="H92" s="21"/>
       <c r="I92" s="21"/>
       <c r="J92" s="19"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="19">
         <v>84</v>
       </c>
@@ -2541,15 +2292,12 @@
       <c r="D93" s="20"/>
       <c r="E93" s="20"/>
       <c r="F93" s="21"/>
-      <c r="G93" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G93" s="25"/>
       <c r="H93" s="21"/>
       <c r="I93" s="21"/>
       <c r="J93" s="19"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="19">
         <v>85</v>
       </c>
@@ -2558,15 +2306,12 @@
       <c r="D94" s="20"/>
       <c r="E94" s="20"/>
       <c r="F94" s="21"/>
-      <c r="G94" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G94" s="25"/>
       <c r="H94" s="21"/>
       <c r="I94" s="21"/>
       <c r="J94" s="19"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="19">
         <v>86</v>
       </c>
@@ -2575,15 +2320,12 @@
       <c r="D95" s="20"/>
       <c r="E95" s="20"/>
       <c r="F95" s="21"/>
-      <c r="G95" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G95" s="25"/>
       <c r="H95" s="21"/>
       <c r="I95" s="21"/>
       <c r="J95" s="19"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="19">
         <v>87</v>
       </c>
@@ -2592,15 +2334,12 @@
       <c r="D96" s="20"/>
       <c r="E96" s="20"/>
       <c r="F96" s="21"/>
-      <c r="G96" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G96" s="25"/>
       <c r="H96" s="21"/>
       <c r="I96" s="21"/>
       <c r="J96" s="19"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="19">
         <v>88</v>
       </c>
@@ -2609,15 +2348,12 @@
       <c r="D97" s="20"/>
       <c r="E97" s="20"/>
       <c r="F97" s="21"/>
-      <c r="G97" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G97" s="25"/>
       <c r="H97" s="21"/>
       <c r="I97" s="21"/>
       <c r="J97" s="19"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="19">
         <v>89</v>
       </c>
@@ -2626,15 +2362,12 @@
       <c r="D98" s="20"/>
       <c r="E98" s="20"/>
       <c r="F98" s="21"/>
-      <c r="G98" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G98" s="25"/>
       <c r="H98" s="21"/>
       <c r="I98" s="21"/>
       <c r="J98" s="19"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="19">
         <v>90</v>
       </c>
@@ -2643,15 +2376,12 @@
       <c r="D99" s="20"/>
       <c r="E99" s="20"/>
       <c r="F99" s="21"/>
-      <c r="G99" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G99" s="25"/>
       <c r="H99" s="21"/>
       <c r="I99" s="21"/>
       <c r="J99" s="19"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="19">
         <v>91</v>
       </c>
@@ -2660,15 +2390,12 @@
       <c r="D100" s="20"/>
       <c r="E100" s="20"/>
       <c r="F100" s="21"/>
-      <c r="G100" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G100" s="25"/>
       <c r="H100" s="21"/>
       <c r="I100" s="21"/>
       <c r="J100" s="19"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="19">
         <v>92</v>
       </c>
@@ -2677,15 +2404,12 @@
       <c r="D101" s="20"/>
       <c r="E101" s="20"/>
       <c r="F101" s="21"/>
-      <c r="G101" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G101" s="25"/>
       <c r="H101" s="21"/>
       <c r="I101" s="21"/>
       <c r="J101" s="19"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="19">
         <v>93</v>
       </c>
@@ -2694,15 +2418,12 @@
       <c r="D102" s="20"/>
       <c r="E102" s="20"/>
       <c r="F102" s="21"/>
-      <c r="G102" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G102" s="25"/>
       <c r="H102" s="21"/>
       <c r="I102" s="21"/>
       <c r="J102" s="19"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="19">
         <v>94</v>
       </c>
@@ -2711,15 +2432,12 @@
       <c r="D103" s="20"/>
       <c r="E103" s="20"/>
       <c r="F103" s="21"/>
-      <c r="G103" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G103" s="25"/>
       <c r="H103" s="21"/>
       <c r="I103" s="21"/>
       <c r="J103" s="19"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="19">
         <v>95</v>
       </c>
@@ -2728,15 +2446,12 @@
       <c r="D104" s="20"/>
       <c r="E104" s="20"/>
       <c r="F104" s="21"/>
-      <c r="G104" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G104" s="25"/>
       <c r="H104" s="21"/>
       <c r="I104" s="21"/>
       <c r="J104" s="19"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="19">
         <v>96</v>
       </c>
@@ -2745,15 +2460,12 @@
       <c r="D105" s="20"/>
       <c r="E105" s="20"/>
       <c r="F105" s="21"/>
-      <c r="G105" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G105" s="25"/>
       <c r="H105" s="21"/>
       <c r="I105" s="21"/>
       <c r="J105" s="19"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="19">
         <v>97</v>
       </c>
@@ -2762,15 +2474,12 @@
       <c r="D106" s="20"/>
       <c r="E106" s="20"/>
       <c r="F106" s="21"/>
-      <c r="G106" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G106" s="25"/>
       <c r="H106" s="21"/>
       <c r="I106" s="21"/>
       <c r="J106" s="19"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="19">
         <v>98</v>
       </c>
@@ -2779,15 +2488,12 @@
       <c r="D107" s="20"/>
       <c r="E107" s="20"/>
       <c r="F107" s="21"/>
-      <c r="G107" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G107" s="25"/>
       <c r="H107" s="21"/>
       <c r="I107" s="21"/>
       <c r="J107" s="19"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="19">
         <v>99</v>
       </c>
@@ -2796,15 +2502,12 @@
       <c r="D108" s="20"/>
       <c r="E108" s="20"/>
       <c r="F108" s="21"/>
-      <c r="G108" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G108" s="25"/>
       <c r="H108" s="21"/>
       <c r="I108" s="21"/>
       <c r="J108" s="19"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="19">
         <v>100</v>
       </c>
@@ -2813,15 +2516,12 @@
       <c r="D109" s="20"/>
       <c r="E109" s="20"/>
       <c r="F109" s="21"/>
-      <c r="G109" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G109" s="25"/>
       <c r="H109" s="21"/>
       <c r="I109" s="21"/>
       <c r="J109" s="19"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="19">
         <v>101</v>
       </c>
@@ -2830,15 +2530,12 @@
       <c r="D110" s="20"/>
       <c r="E110" s="20"/>
       <c r="F110" s="21"/>
-      <c r="G110" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G110" s="25"/>
       <c r="H110" s="21"/>
       <c r="I110" s="21"/>
       <c r="J110" s="19"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="19">
         <v>102</v>
       </c>
@@ -2847,15 +2544,12 @@
       <c r="D111" s="20"/>
       <c r="E111" s="20"/>
       <c r="F111" s="21"/>
-      <c r="G111" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G111" s="25"/>
       <c r="H111" s="21"/>
       <c r="I111" s="21"/>
       <c r="J111" s="19"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="19">
         <v>103</v>
       </c>
@@ -2864,15 +2558,12 @@
       <c r="D112" s="20"/>
       <c r="E112" s="20"/>
       <c r="F112" s="21"/>
-      <c r="G112" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G112" s="25"/>
       <c r="H112" s="21"/>
       <c r="I112" s="21"/>
       <c r="J112" s="19"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="19">
         <v>104</v>
       </c>
@@ -2881,15 +2572,12 @@
       <c r="D113" s="20"/>
       <c r="E113" s="20"/>
       <c r="F113" s="21"/>
-      <c r="G113" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G113" s="25"/>
       <c r="H113" s="21"/>
       <c r="I113" s="21"/>
       <c r="J113" s="19"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="19">
         <v>105</v>
       </c>
@@ -2898,15 +2586,12 @@
       <c r="D114" s="20"/>
       <c r="E114" s="20"/>
       <c r="F114" s="21"/>
-      <c r="G114" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G114" s="25"/>
       <c r="H114" s="21"/>
       <c r="I114" s="21"/>
       <c r="J114" s="19"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="19">
         <v>106</v>
       </c>
@@ -2915,15 +2600,12 @@
       <c r="D115" s="20"/>
       <c r="E115" s="20"/>
       <c r="F115" s="21"/>
-      <c r="G115" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G115" s="25"/>
       <c r="H115" s="21"/>
       <c r="I115" s="21"/>
       <c r="J115" s="19"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="19">
         <v>107</v>
       </c>
@@ -2932,15 +2614,12 @@
       <c r="D116" s="20"/>
       <c r="E116" s="20"/>
       <c r="F116" s="21"/>
-      <c r="G116" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G116" s="25"/>
       <c r="H116" s="21"/>
       <c r="I116" s="21"/>
       <c r="J116" s="19"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="19">
         <v>108</v>
       </c>
@@ -2949,15 +2628,12 @@
       <c r="D117" s="20"/>
       <c r="E117" s="20"/>
       <c r="F117" s="21"/>
-      <c r="G117" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G117" s="25"/>
       <c r="H117" s="21"/>
       <c r="I117" s="21"/>
       <c r="J117" s="19"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="19">
         <v>109</v>
       </c>
@@ -2966,15 +2642,12 @@
       <c r="D118" s="20"/>
       <c r="E118" s="20"/>
       <c r="F118" s="21"/>
-      <c r="G118" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G118" s="25"/>
       <c r="H118" s="21"/>
       <c r="I118" s="21"/>
       <c r="J118" s="19"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="19">
         <v>110</v>
       </c>
@@ -2983,15 +2656,12 @@
       <c r="D119" s="20"/>
       <c r="E119" s="20"/>
       <c r="F119" s="21"/>
-      <c r="G119" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G119" s="25"/>
       <c r="H119" s="21"/>
       <c r="I119" s="21"/>
       <c r="J119" s="19"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="19">
         <v>111</v>
       </c>
@@ -3000,15 +2670,12 @@
       <c r="D120" s="20"/>
       <c r="E120" s="20"/>
       <c r="F120" s="21"/>
-      <c r="G120" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G120" s="25"/>
       <c r="H120" s="21"/>
       <c r="I120" s="21"/>
       <c r="J120" s="19"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="19">
         <v>112</v>
       </c>
@@ -3017,15 +2684,12 @@
       <c r="D121" s="20"/>
       <c r="E121" s="20"/>
       <c r="F121" s="21"/>
-      <c r="G121" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G121" s="25"/>
       <c r="H121" s="21"/>
       <c r="I121" s="21"/>
       <c r="J121" s="19"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="19">
         <v>113</v>
       </c>
@@ -3034,15 +2698,12 @@
       <c r="D122" s="20"/>
       <c r="E122" s="20"/>
       <c r="F122" s="21"/>
-      <c r="G122" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G122" s="25"/>
       <c r="H122" s="21"/>
       <c r="I122" s="21"/>
       <c r="J122" s="19"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="19">
         <v>114</v>
       </c>
@@ -3051,15 +2712,12 @@
       <c r="D123" s="20"/>
       <c r="E123" s="20"/>
       <c r="F123" s="21"/>
-      <c r="G123" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G123" s="25"/>
       <c r="H123" s="21"/>
       <c r="I123" s="21"/>
       <c r="J123" s="19"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="19">
         <v>115</v>
       </c>
@@ -3068,15 +2726,12 @@
       <c r="D124" s="20"/>
       <c r="E124" s="20"/>
       <c r="F124" s="21"/>
-      <c r="G124" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G124" s="25"/>
       <c r="H124" s="21"/>
       <c r="I124" s="21"/>
       <c r="J124" s="19"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="19">
         <v>116</v>
       </c>
@@ -3085,15 +2740,12 @@
       <c r="D125" s="20"/>
       <c r="E125" s="20"/>
       <c r="F125" s="21"/>
-      <c r="G125" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G125" s="25"/>
       <c r="H125" s="21"/>
       <c r="I125" s="21"/>
       <c r="J125" s="19"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="19">
         <v>117</v>
       </c>
@@ -3102,15 +2754,12 @@
       <c r="D126" s="20"/>
       <c r="E126" s="20"/>
       <c r="F126" s="21"/>
-      <c r="G126" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G126" s="25"/>
       <c r="H126" s="21"/>
       <c r="I126" s="21"/>
       <c r="J126" s="19"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="19">
         <v>118</v>
       </c>
@@ -3119,15 +2768,12 @@
       <c r="D127" s="20"/>
       <c r="E127" s="20"/>
       <c r="F127" s="21"/>
-      <c r="G127" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G127" s="25"/>
       <c r="H127" s="21"/>
       <c r="I127" s="21"/>
       <c r="J127" s="19"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="19">
         <v>119</v>
       </c>
@@ -3136,15 +2782,12 @@
       <c r="D128" s="20"/>
       <c r="E128" s="20"/>
       <c r="F128" s="21"/>
-      <c r="G128" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G128" s="25"/>
       <c r="H128" s="21"/>
       <c r="I128" s="21"/>
       <c r="J128" s="19"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="19">
         <v>120</v>
       </c>
@@ -3153,15 +2796,12 @@
       <c r="D129" s="20"/>
       <c r="E129" s="20"/>
       <c r="F129" s="21"/>
-      <c r="G129" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G129" s="25"/>
       <c r="H129" s="21"/>
       <c r="I129" s="21"/>
       <c r="J129" s="19"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="19">
         <v>121</v>
       </c>
@@ -3170,15 +2810,12 @@
       <c r="D130" s="20"/>
       <c r="E130" s="20"/>
       <c r="F130" s="21"/>
-      <c r="G130" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G130" s="25"/>
       <c r="H130" s="21"/>
       <c r="I130" s="21"/>
       <c r="J130" s="19"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="19">
         <v>122</v>
       </c>
@@ -3187,15 +2824,12 @@
       <c r="D131" s="20"/>
       <c r="E131" s="20"/>
       <c r="F131" s="21"/>
-      <c r="G131" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G131" s="25"/>
       <c r="H131" s="21"/>
       <c r="I131" s="21"/>
       <c r="J131" s="19"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="19">
         <v>123</v>
       </c>
@@ -3204,15 +2838,12 @@
       <c r="D132" s="20"/>
       <c r="E132" s="20"/>
       <c r="F132" s="21"/>
-      <c r="G132" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G132" s="25"/>
       <c r="H132" s="21"/>
       <c r="I132" s="21"/>
       <c r="J132" s="19"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="19">
         <v>124</v>
       </c>
@@ -3221,15 +2852,12 @@
       <c r="D133" s="20"/>
       <c r="E133" s="20"/>
       <c r="F133" s="21"/>
-      <c r="G133" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G133" s="25"/>
       <c r="H133" s="21"/>
       <c r="I133" s="21"/>
       <c r="J133" s="19"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="19">
         <v>125</v>
       </c>
@@ -3238,15 +2866,12 @@
       <c r="D134" s="20"/>
       <c r="E134" s="20"/>
       <c r="F134" s="21"/>
-      <c r="G134" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G134" s="25"/>
       <c r="H134" s="21"/>
       <c r="I134" s="21"/>
       <c r="J134" s="19"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="19">
         <v>126</v>
       </c>
@@ -3255,15 +2880,12 @@
       <c r="D135" s="20"/>
       <c r="E135" s="20"/>
       <c r="F135" s="21"/>
-      <c r="G135" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G135" s="25"/>
       <c r="H135" s="21"/>
       <c r="I135" s="21"/>
       <c r="J135" s="19"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="19">
         <v>127</v>
       </c>
@@ -3272,15 +2894,12 @@
       <c r="D136" s="20"/>
       <c r="E136" s="20"/>
       <c r="F136" s="21"/>
-      <c r="G136" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G136" s="25"/>
       <c r="H136" s="21"/>
       <c r="I136" s="21"/>
       <c r="J136" s="19"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="19">
         <v>128</v>
       </c>
@@ -3289,15 +2908,12 @@
       <c r="D137" s="20"/>
       <c r="E137" s="20"/>
       <c r="F137" s="21"/>
-      <c r="G137" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G137" s="25"/>
       <c r="H137" s="21"/>
       <c r="I137" s="21"/>
       <c r="J137" s="19"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="19">
         <v>129</v>
       </c>
@@ -3306,15 +2922,12 @@
       <c r="D138" s="20"/>
       <c r="E138" s="20"/>
       <c r="F138" s="21"/>
-      <c r="G138" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G138" s="25"/>
       <c r="H138" s="21"/>
       <c r="I138" s="21"/>
       <c r="J138" s="19"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="19">
         <v>130</v>
       </c>
@@ -3323,15 +2936,12 @@
       <c r="D139" s="20"/>
       <c r="E139" s="20"/>
       <c r="F139" s="21"/>
-      <c r="G139" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G139" s="25"/>
       <c r="H139" s="21"/>
       <c r="I139" s="21"/>
       <c r="J139" s="19"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="19">
         <v>131</v>
       </c>
@@ -3340,15 +2950,12 @@
       <c r="D140" s="20"/>
       <c r="E140" s="20"/>
       <c r="F140" s="21"/>
-      <c r="G140" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G140" s="25"/>
       <c r="H140" s="21"/>
       <c r="I140" s="21"/>
       <c r="J140" s="19"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="19">
         <v>132</v>
       </c>
@@ -3357,15 +2964,12 @@
       <c r="D141" s="20"/>
       <c r="E141" s="20"/>
       <c r="F141" s="21"/>
-      <c r="G141" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G141" s="25"/>
       <c r="H141" s="21"/>
       <c r="I141" s="21"/>
       <c r="J141" s="19"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="19">
         <v>133</v>
       </c>
@@ -3374,15 +2978,12 @@
       <c r="D142" s="20"/>
       <c r="E142" s="20"/>
       <c r="F142" s="21"/>
-      <c r="G142" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G142" s="25"/>
       <c r="H142" s="21"/>
       <c r="I142" s="21"/>
       <c r="J142" s="19"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="19">
         <v>134</v>
       </c>
@@ -3391,15 +2992,12 @@
       <c r="D143" s="20"/>
       <c r="E143" s="20"/>
       <c r="F143" s="21"/>
-      <c r="G143" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G143" s="25"/>
       <c r="H143" s="21"/>
       <c r="I143" s="21"/>
       <c r="J143" s="19"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="19">
         <v>135</v>
       </c>
@@ -3408,15 +3006,12 @@
       <c r="D144" s="20"/>
       <c r="E144" s="20"/>
       <c r="F144" s="21"/>
-      <c r="G144" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G144" s="25"/>
       <c r="H144" s="21"/>
       <c r="I144" s="21"/>
       <c r="J144" s="19"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="19">
         <v>136</v>
       </c>
@@ -3425,15 +3020,12 @@
       <c r="D145" s="20"/>
       <c r="E145" s="20"/>
       <c r="F145" s="21"/>
-      <c r="G145" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G145" s="25"/>
       <c r="H145" s="21"/>
       <c r="I145" s="21"/>
       <c r="J145" s="19"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="19">
         <v>137</v>
       </c>
@@ -3442,15 +3034,12 @@
       <c r="D146" s="20"/>
       <c r="E146" s="20"/>
       <c r="F146" s="21"/>
-      <c r="G146" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G146" s="25"/>
       <c r="H146" s="21"/>
       <c r="I146" s="21"/>
       <c r="J146" s="19"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="19">
         <v>138</v>
       </c>
@@ -3459,15 +3048,12 @@
       <c r="D147" s="20"/>
       <c r="E147" s="20"/>
       <c r="F147" s="21"/>
-      <c r="G147" s="25" t="str">
-        <f t="shared" ref="G147:G161" si="5">IF(B147&lt;&gt;"",G146+I147,"")</f>
-        <v/>
-      </c>
+      <c r="G147" s="25"/>
       <c r="H147" s="21"/>
       <c r="I147" s="21"/>
       <c r="J147" s="19"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="19">
         <v>139</v>
       </c>
@@ -3476,15 +3062,12 @@
       <c r="D148" s="20"/>
       <c r="E148" s="20"/>
       <c r="F148" s="21"/>
-      <c r="G148" s="25" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="G148" s="25"/>
       <c r="H148" s="21"/>
       <c r="I148" s="21"/>
       <c r="J148" s="19"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="19">
         <v>140</v>
       </c>
@@ -3493,15 +3076,12 @@
       <c r="D149" s="20"/>
       <c r="E149" s="20"/>
       <c r="F149" s="21"/>
-      <c r="G149" s="25" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="G149" s="25"/>
       <c r="H149" s="21"/>
       <c r="I149" s="21"/>
       <c r="J149" s="19"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="19">
         <v>141</v>
       </c>
@@ -3510,15 +3090,12 @@
       <c r="D150" s="20"/>
       <c r="E150" s="20"/>
       <c r="F150" s="21"/>
-      <c r="G150" s="25" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="G150" s="25"/>
       <c r="H150" s="21"/>
       <c r="I150" s="21"/>
       <c r="J150" s="19"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="19">
         <v>142</v>
       </c>
@@ -3527,15 +3104,12 @@
       <c r="D151" s="20"/>
       <c r="E151" s="20"/>
       <c r="F151" s="21"/>
-      <c r="G151" s="25" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="G151" s="25"/>
       <c r="H151" s="21"/>
       <c r="I151" s="21"/>
       <c r="J151" s="19"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="19">
         <v>143</v>
       </c>
@@ -3544,15 +3118,12 @@
       <c r="D152" s="20"/>
       <c r="E152" s="20"/>
       <c r="F152" s="21"/>
-      <c r="G152" s="25" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="G152" s="25"/>
       <c r="H152" s="21"/>
       <c r="I152" s="21"/>
       <c r="J152" s="19"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="19">
         <v>144</v>
       </c>
@@ -3561,15 +3132,12 @@
       <c r="D153" s="20"/>
       <c r="E153" s="20"/>
       <c r="F153" s="21"/>
-      <c r="G153" s="25" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="G153" s="25"/>
       <c r="H153" s="21"/>
       <c r="I153" s="21"/>
       <c r="J153" s="19"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="19">
         <v>145</v>
       </c>
@@ -3578,15 +3146,12 @@
       <c r="D154" s="20"/>
       <c r="E154" s="20"/>
       <c r="F154" s="21"/>
-      <c r="G154" s="25" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="G154" s="25"/>
       <c r="H154" s="21"/>
       <c r="I154" s="21"/>
       <c r="J154" s="19"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="19">
         <v>146</v>
       </c>
@@ -3595,15 +3160,12 @@
       <c r="D155" s="20"/>
       <c r="E155" s="20"/>
       <c r="F155" s="21"/>
-      <c r="G155" s="25" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="G155" s="25"/>
       <c r="H155" s="21"/>
       <c r="I155" s="21"/>
       <c r="J155" s="19"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="19">
         <v>147</v>
       </c>
@@ -3612,15 +3174,12 @@
       <c r="D156" s="20"/>
       <c r="E156" s="20"/>
       <c r="F156" s="21"/>
-      <c r="G156" s="25" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="G156" s="25"/>
       <c r="H156" s="21"/>
       <c r="I156" s="21"/>
       <c r="J156" s="19"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="19">
         <v>148</v>
       </c>
@@ -3629,15 +3188,12 @@
       <c r="D157" s="20"/>
       <c r="E157" s="20"/>
       <c r="F157" s="21"/>
-      <c r="G157" s="25" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="G157" s="25"/>
       <c r="H157" s="21"/>
       <c r="I157" s="21"/>
       <c r="J157" s="19"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="19">
         <v>149</v>
       </c>
@@ -3646,15 +3202,12 @@
       <c r="D158" s="20"/>
       <c r="E158" s="20"/>
       <c r="F158" s="21"/>
-      <c r="G158" s="25" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="G158" s="25"/>
       <c r="H158" s="21"/>
       <c r="I158" s="21"/>
       <c r="J158" s="19"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="19">
         <v>150</v>
       </c>
@@ -3663,15 +3216,12 @@
       <c r="D159" s="20"/>
       <c r="E159" s="20"/>
       <c r="F159" s="21"/>
-      <c r="G159" s="25" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="G159" s="25"/>
       <c r="H159" s="21"/>
       <c r="I159" s="21"/>
       <c r="J159" s="19"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="19">
         <v>151</v>
       </c>
@@ -3680,15 +3230,12 @@
       <c r="D160" s="20"/>
       <c r="E160" s="20"/>
       <c r="F160" s="21"/>
-      <c r="G160" s="25" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="G160" s="25"/>
       <c r="H160" s="21"/>
       <c r="I160" s="21"/>
       <c r="J160" s="19"/>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" s="19">
         <v>152</v>
       </c>
@@ -3697,15 +3244,12 @@
       <c r="D161" s="20"/>
       <c r="E161" s="20"/>
       <c r="F161" s="21"/>
-      <c r="G161" s="25" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="G161" s="25"/>
       <c r="H161" s="21"/>
       <c r="I161" s="21"/>
       <c r="J161" s="19"/>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" s="19">
         <v>153</v>
       </c>
@@ -3714,15 +3258,12 @@
       <c r="D162" s="20"/>
       <c r="E162" s="20"/>
       <c r="F162" s="21"/>
-      <c r="G162" s="25" t="str">
-        <f>IF(B162&lt;&gt;"",G146+I162,"")</f>
-        <v/>
-      </c>
+      <c r="G162" s="25"/>
       <c r="H162" s="21"/>
       <c r="I162" s="21"/>
       <c r="J162" s="19"/>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" s="19">
         <v>154</v>
       </c>
@@ -3731,15 +3272,12 @@
       <c r="D163" s="20"/>
       <c r="E163" s="20"/>
       <c r="F163" s="21"/>
-      <c r="G163" s="25" t="str">
-        <f t="shared" ref="G163:G169" si="6">IF(B163&lt;&gt;"",G162+I163,"")</f>
-        <v/>
-      </c>
+      <c r="G163" s="25"/>
       <c r="H163" s="21"/>
       <c r="I163" s="21"/>
       <c r="J163" s="19"/>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" s="19">
         <v>155</v>
       </c>
@@ -3748,15 +3286,12 @@
       <c r="D164" s="20"/>
       <c r="E164" s="20"/>
       <c r="F164" s="21"/>
-      <c r="G164" s="25" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+      <c r="G164" s="25"/>
       <c r="H164" s="21"/>
       <c r="I164" s="21"/>
       <c r="J164" s="19"/>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" s="19">
         <v>156</v>
       </c>
@@ -3765,15 +3300,12 @@
       <c r="D165" s="20"/>
       <c r="E165" s="20"/>
       <c r="F165" s="21"/>
-      <c r="G165" s="25" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+      <c r="G165" s="25"/>
       <c r="H165" s="21"/>
       <c r="I165" s="21"/>
       <c r="J165" s="19"/>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" s="19">
         <v>157</v>
       </c>
@@ -3782,15 +3314,12 @@
       <c r="D166" s="20"/>
       <c r="E166" s="20"/>
       <c r="F166" s="21"/>
-      <c r="G166" s="25" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+      <c r="G166" s="25"/>
       <c r="H166" s="21"/>
       <c r="I166" s="21"/>
       <c r="J166" s="19"/>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" s="19">
         <v>158</v>
       </c>
@@ -3799,15 +3328,12 @@
       <c r="D167" s="20"/>
       <c r="E167" s="20"/>
       <c r="F167" s="21"/>
-      <c r="G167" s="25" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+      <c r="G167" s="25"/>
       <c r="H167" s="21"/>
       <c r="I167" s="21"/>
       <c r="J167" s="19"/>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" s="19">
         <v>159</v>
       </c>
@@ -3816,15 +3342,12 @@
       <c r="D168" s="20"/>
       <c r="E168" s="20"/>
       <c r="F168" s="21"/>
-      <c r="G168" s="25" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+      <c r="G168" s="25"/>
       <c r="H168" s="21"/>
       <c r="I168" s="21"/>
       <c r="J168" s="19"/>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" s="19">
         <v>160</v>
       </c>
@@ -3833,15 +3356,12 @@
       <c r="D169" s="20"/>
       <c r="E169" s="20"/>
       <c r="F169" s="21"/>
-      <c r="G169" s="25" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+      <c r="G169" s="25"/>
       <c r="H169" s="21"/>
       <c r="I169" s="21"/>
       <c r="J169" s="19"/>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" s="19">
         <v>161</v>
       </c>
@@ -3850,15 +3370,12 @@
       <c r="D170" s="20"/>
       <c r="E170" s="20"/>
       <c r="F170" s="21"/>
-      <c r="G170" s="25" t="str">
-        <f>IF(B170&lt;&gt;"",G146+I170,"")</f>
-        <v/>
-      </c>
+      <c r="G170" s="25"/>
       <c r="H170" s="21"/>
       <c r="I170" s="21"/>
       <c r="J170" s="19"/>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" s="19">
         <v>162</v>
       </c>
@@ -3867,15 +3384,12 @@
       <c r="D171" s="20"/>
       <c r="E171" s="20"/>
       <c r="F171" s="21"/>
-      <c r="G171" s="25" t="str">
-        <f t="shared" ref="G171:G174" si="7">IF(B171&lt;&gt;"",G170+I171,"")</f>
-        <v/>
-      </c>
+      <c r="G171" s="25"/>
       <c r="H171" s="21"/>
       <c r="I171" s="21"/>
       <c r="J171" s="19"/>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" s="19">
         <v>163</v>
       </c>
@@ -3884,10 +3398,7 @@
       <c r="D172" s="20"/>
       <c r="E172" s="20"/>
       <c r="F172" s="21"/>
-      <c r="G172" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
+      <c r="G172" s="25"/>
       <c r="H172" s="21"/>
       <c r="I172" s="21"/>
       <c r="J172" s="19"/>
@@ -3900,7 +3411,7 @@
       </c>
       <c r="M172" s="35"/>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" s="19">
         <v>164</v>
       </c>
@@ -3909,10 +3420,7 @@
       <c r="D173" s="20"/>
       <c r="E173" s="20"/>
       <c r="F173" s="21"/>
-      <c r="G173" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
+      <c r="G173" s="25"/>
       <c r="H173" s="21"/>
       <c r="I173" s="21"/>
       <c r="J173" s="19"/>
@@ -3928,7 +3436,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" s="19">
         <v>165</v>
       </c>
@@ -3937,10 +3445,7 @@
       <c r="D174" s="20"/>
       <c r="E174" s="20"/>
       <c r="F174" s="21"/>
-      <c r="G174" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
+      <c r="G174" s="25"/>
       <c r="H174" s="21"/>
       <c r="I174" s="21"/>
       <c r="J174" s="19"/>
